--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6423EC3-794A-40E2-B733-9F01AD969086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350ECCB2-12C7-417C-86C8-5CA84387EC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
   </si>
 </sst>
 </file>
@@ -113,6 +116,7 @@
       <color rgb="FF2CA02C"/>
       <color rgb="FFD62728"/>
       <color rgb="FFFF7F0E"/>
+      <color rgb="FF1F77BE"/>
       <color rgb="FF00BFBF"/>
     </mruColors>
   </colors>
@@ -581,16 +585,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2D9-48FF-BF21-4EFD62086A34}"/>
+              <c16:uniqueId val="{00000003-95D4-4D08-9C47-5264B03B267D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -787,7 +791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$57</c:f>
+              <c:f>Sheet1!$D$2:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -964,16 +968,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2D9-48FF-BF21-4EFD62086A34}"/>
+              <c16:uniqueId val="{00000005-95D4-4D08-9C47-5264B03B267D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1170,7 +1174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$57</c:f>
+              <c:f>Sheet1!$E$2:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1347,16 +1351,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E2D9-48FF-BF21-4EFD62086A34}"/>
+              <c16:uniqueId val="{00000006-95D4-4D08-9C47-5264B03B267D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$57</c:f>
+              <c:f>Sheet1!$F$2:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1730,7 +1734,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E2D9-48FF-BF21-4EFD62086A34}"/>
+              <c16:uniqueId val="{00000007-95D4-4D08-9C47-5264B03B267D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1949,7 +1953,2223 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Annual Module Composition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00BFBF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEAD-420A-95CC-2810FD5FA750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77BE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>3091.18541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3017.4165459999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2540.3726710000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2484.6989140000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2433.9622639999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2387.5338750000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2344.8873480000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2317.892053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2256.0192619999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2113.8328529999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2083.4794809999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2054.6821599999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027.3242250000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001.3003900000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1987.1506589999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1966.59313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1962.9861980000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1619.458128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1592.739726</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1495.242424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1412.526316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1379.8208959999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1361.666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1343.6470589999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1315.058824</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1293.617647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1272.176471</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1229.294118</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1186.4117650000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1157.823529</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1129.2352940000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1100.6470589999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1081.5882349999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1062.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1043.4705879999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEAD-420A-95CC-2810FD5FA750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silicon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7F0E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>848.42142860000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>831.7857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>815.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>798.51428569999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>781.87857140000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765.24285710000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>748.60714289999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>731.97142859999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>715.33571429999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>698.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>465.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>442.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>410.85500830000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>402.1406667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380.05398330000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>367.38034160000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>354.70670000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>348.49603339999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>342.2853667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>336.01129950000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>329.73723219999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>323.463165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320.40829330000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>317.35342170000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEAD-420A-95CC-2810FD5FA750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D62728"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.571428569999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.142857140000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.714285709999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.285714290000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.34857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.154285710000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.765714289999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.571428570000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.377142859999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.182857140000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.98857143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.79428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.327416169999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.272846810000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2182774490000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7527942139999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3418803419999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5200525970000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0997570090000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.079110301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3128338230000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1473098100000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5949654450000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3412788689999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0936340219999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8988638820000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.692895407</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.542951049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4012622069999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2668844890000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1296348279999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9927764130000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AEAD-420A-95CC-2810FD5FA750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CA02C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7881600000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2003199999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2038399999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.45472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.26112</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2252799999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2700800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3148800000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3865599999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.45824</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1954133329999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9325866669999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6697600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3949866670000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1202133329999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AEAD-420A-95CC-2810FD5FA750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585770424"/>
+        <c:axId val="585766160"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="585770424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585766160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585766160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585770424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2494,17 +4714,538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2527,6 +5268,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69849</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>141286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7865226D-3184-48E7-A8F4-F040E3C07152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2832,20 +5609,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" customWidth="1"/>
+    <col min="10" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2853,31 +5631,37 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -2885,36 +5669,43 @@
         <v>8000</v>
       </c>
       <c r="C2">
+        <v>3091.18541</v>
+      </c>
+      <c r="D2">
         <v>848.42142860000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>88</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F2">
-        <f>SUM(B2:E2)</f>
-        <v>8941.7974286000008</v>
-      </c>
-      <c r="G2" s="1">
-        <f>B2/$F2*100</f>
-        <v>89.467470761664785</v>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>12032.982838600001</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:J2" si="0">C2/$F2*100</f>
-        <v>9.4882649196050473</v>
+        <f>B2/$G2*100</f>
+        <v>66.483930936369333</v>
       </c>
       <c r="I2" s="1">
+        <f>C2/$G2*100</f>
+        <v>25.689269663744067</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:L2" si="0">D2/$G2*100</f>
+        <v>7.0507989579972774</v>
+      </c>
+      <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>0.98414217837831264</v>
-      </c>
-      <c r="J2" s="1">
+        <v>0.73132324030006279</v>
+      </c>
+      <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>6.0122140351838743E-2</v>
+        <v>4.4677201589240205E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -2922,36 +5713,43 @@
         <v>8000</v>
       </c>
       <c r="C3">
+        <v>3017.4165459999999</v>
+      </c>
+      <c r="D3">
         <v>831.7857143</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>84.571428569999995</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F57" si="1">SUM(B3:E3)</f>
-        <v>8921.7331428699999</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G57" si="2">B3/$F3*100</f>
-        <v>89.668676162919951</v>
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>11939.14968887</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H57" si="3">C3/$F3*100</f>
-        <v>9.3231404815637191</v>
+        <f t="shared" ref="H3:H57" si="1">B3/$G3*100</f>
+        <v>67.006446928610146</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I57" si="4">D3/$F3*100</f>
-        <v>0.9479260051348557</v>
+        <f t="shared" ref="I3:I57" si="2">C3/$G3*100</f>
+        <v>25.273295206382389</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J57" si="5">E3/$F3*100</f>
-        <v>6.0257350381482201E-2</v>
+        <f t="shared" ref="J3:J57" si="3">D3/$G3*100</f>
+        <v>6.9668756651523793</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K57" si="4">E3/$G3*100</f>
+        <v>0.70835386751905605</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L57" si="5">F3/$G3*100</f>
+        <v>4.5028332336026024E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -2959,36 +5757,43 @@
         <v>8000</v>
       </c>
       <c r="C4">
+        <v>2700</v>
+      </c>
+      <c r="D4">
         <v>815.15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>81.142857140000004</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <f t="shared" ref="G3:G57" si="6">SUM(B4:F4)</f>
+        <v>11601.668857139999</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>8901.6688571399991</v>
-      </c>
-      <c r="G4" s="1">
+        <v>68.955596806890156</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="2"/>
-        <v>89.870788594693977</v>
-      </c>
-      <c r="H4" s="1">
+        <v>23.27251392232543</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>9.1572716653705992</v>
-      </c>
-      <c r="I4" s="1">
+        <v>7.0261443421420644</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>0.91154656999979933</v>
-      </c>
-      <c r="J4" s="1">
+        <v>0.69940676758811615</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="5"/>
-        <v>6.0393169935634358E-2</v>
+        <v>4.6338161054230192E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -2996,36 +5801,43 @@
         <v>8000</v>
       </c>
       <c r="C5">
+        <v>2540.3726710000001</v>
+      </c>
+      <c r="D5">
         <v>798.51428569999996</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>77.714285709999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>11421.977242410001</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>8881.6045714100001</v>
-      </c>
-      <c r="G5" s="1">
+        <v>70.040412708019232</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>90.073814204159717</v>
-      </c>
-      <c r="H5" s="1">
+        <v>22.24109378862665</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>8.9906534261886382</v>
-      </c>
-      <c r="I5" s="1">
+        <v>6.9910337654596475</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>0.87500276650644071</v>
-      </c>
-      <c r="J5" s="1">
+        <v>0.68039258055466523</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="5"/>
-        <v>6.0529603145195343E-2</v>
+        <v>4.7067157339788931E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -3033,36 +5845,43 @@
         <v>8000</v>
       </c>
       <c r="C6">
+        <v>2484.6989140000001</v>
+      </c>
+      <c r="D6">
         <v>781.87857140000006</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>74.285714290000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>11346.239199690001</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>8861.54028569</v>
-      </c>
-      <c r="G6" s="1">
+        <v>70.507944167249477</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>90.277759194061872</v>
-      </c>
-      <c r="H6" s="1">
+        <v>21.89887653759218</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>8.8232806734807898</v>
-      </c>
-      <c r="I6" s="1">
+        <v>6.8910813322299997</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>0.83829347827893752</v>
-      </c>
-      <c r="J6" s="1">
+        <v>0.65471662444794587</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="5"/>
-        <v>6.0666654178409572E-2</v>
+        <v>4.7381338480391652E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -3070,36 +5889,43 @@
         <v>8000</v>
       </c>
       <c r="C7">
+        <v>2433.9622639999998</v>
+      </c>
+      <c r="D7">
         <v>765.24285710000004</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>45.34857143</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>11249.92969253</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>8815.9674285300007</v>
-      </c>
-      <c r="G7" s="1">
+        <v>71.111555526538382</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>90.744436896518138</v>
-      </c>
-      <c r="H7" s="1">
+        <v>21.635355335741881</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>8.680191519577777</v>
-      </c>
-      <c r="I7" s="1">
+        <v>6.8022012404941909</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>0.51439132230961004</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0.40310093191170465</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="5"/>
-        <v>6.0980261594460197E-2</v>
+        <v>4.77869653138338E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -3107,36 +5933,43 @@
         <v>8000</v>
       </c>
       <c r="C8">
+        <v>2387.5338750000001</v>
+      </c>
+      <c r="D8">
         <v>748.60714289999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>43.154285710000003</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>11184.671303610001</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>8797.1374286099999</v>
-      </c>
-      <c r="G8" s="1">
+        <v>71.526464952241327</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>90.938672550259881</v>
-      </c>
-      <c r="H8" s="1">
+        <v>21.346482254059556</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>8.509667479621088</v>
-      </c>
-      <c r="I8" s="1">
+        <v>6.6931528212042952</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>0.49054918216525617</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0.38583418804691544</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="5"/>
-        <v>6.1110787953774642E-2</v>
+        <v>4.8065784447906171E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -3144,36 +5977,43 @@
         <v>8000</v>
       </c>
       <c r="C9">
+        <v>2344.8873480000002</v>
+      </c>
+      <c r="D9">
         <v>731.97142859999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>40.96</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>11123.194776599999</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>8778.3074285999992</v>
-      </c>
-      <c r="G9" s="1">
+        <v>71.92178291105445</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>91.133741499366394</v>
-      </c>
-      <c r="H9" s="1">
+        <v>21.081059849216778</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>8.3384118698692902</v>
-      </c>
-      <c r="I9" s="1">
+        <v>6.5805862731079499</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>0.46660475647675598</v>
-      </c>
-      <c r="J9" s="1">
+        <v>0.36823952850459885</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="5"/>
-        <v>6.1241874287574216E-2</v>
+        <v>4.8331438116228594E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -3181,36 +6021,43 @@
         <v>8000</v>
       </c>
       <c r="C10">
+        <v>2317.892053</v>
+      </c>
+      <c r="D10">
         <v>715.33571429999995</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>38.765714289999998</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>11077.36948159</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>8759.4774285900003</v>
-      </c>
-      <c r="G10" s="1">
+        <v>72.219311753531159</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>91.329649116839477</v>
-      </c>
-      <c r="H10" s="1">
+        <v>20.92457109832992</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>8.1664199734703402</v>
-      </c>
-      <c r="I10" s="1">
+        <v>6.4576316199333235</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>0.44255738548366869</v>
-      </c>
-      <c r="J10" s="1">
+        <v>0.34995415070722846</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="5"/>
-        <v>6.1373524206516136E-2</v>
+        <v>4.8531377498372941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -3218,36 +6065,43 @@
         <v>8000</v>
       </c>
       <c r="C11">
+        <v>2256.0192619999998</v>
+      </c>
+      <c r="D11">
         <v>698.7</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>36.571428570000002</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>10996.66669057</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>8740.6474285700006</v>
-      </c>
-      <c r="G11" s="1">
+        <v>72.749317817009583</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>91.526400823020353</v>
-      </c>
-      <c r="H11" s="1">
+        <v>20.515482786566679</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>7.9936870318805404</v>
-      </c>
-      <c r="I11" s="1">
+        <v>6.3537435448430752</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>0.41840640374603477</v>
-      </c>
-      <c r="J11" s="1">
+        <v>0.33256831000762432</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="5"/>
-        <v>6.150574135306968E-2</v>
+        <v>4.8887541573030449E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -3255,36 +6109,43 @@
         <v>8000</v>
       </c>
       <c r="C12">
+        <v>2113.8328529999999</v>
+      </c>
+      <c r="D12">
         <v>582.25</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>34.377142859999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>10735.835995859999</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>8622.0031428599996</v>
-      </c>
-      <c r="G12" s="1">
+        <v>74.516786611540965</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>92.785862721761021</v>
-      </c>
-      <c r="H12" s="1">
+        <v>19.68950395493323</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>6.7530710712181694</v>
-      </c>
-      <c r="I12" s="1">
+        <v>5.4234248755712162</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>0.39871410727179085</v>
-      </c>
-      <c r="J12" s="1">
+        <v>0.3202092773516349</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="5"/>
-        <v>6.2352099749023407E-2</v>
+        <v>5.0075280602955533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -3292,36 +6153,43 @@
         <v>8000</v>
       </c>
       <c r="C13">
+        <v>2083.4794809999999</v>
+      </c>
+      <c r="D13">
         <v>465.8</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>32.182857140000003</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>10586.83833814</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>8503.3588571399996</v>
-      </c>
-      <c r="G13" s="1">
+        <v>75.565525272822086</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>94.080470251854123</v>
-      </c>
-      <c r="H13" s="1">
+        <v>19.679902672113968</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>5.4778353804142066</v>
-      </c>
-      <c r="I13" s="1">
+        <v>4.3998027090100669</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>0.37847229172243019</v>
-      </c>
-      <c r="J13" s="1">
+        <v>0.30398931307053662</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>6.3222076009245981E-2</v>
+        <v>5.078003298333645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -3329,36 +6197,43 @@
         <v>8000</v>
       </c>
       <c r="C14">
+        <v>2054.6821599999998</v>
+      </c>
+      <c r="D14">
         <v>442.51</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>29.98857143</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>10532.556731430001</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>8477.8745714300003</v>
-      </c>
-      <c r="G14" s="1">
+        <v>75.954967098609146</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>94.363273867716643</v>
-      </c>
-      <c r="H14" s="1">
+        <v>19.507914482612396</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>5.219586539900412</v>
-      </c>
-      <c r="I14" s="1">
+        <v>4.201354061350691</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>0.35372747234383412</v>
-      </c>
-      <c r="J14" s="1">
+        <v>0.28472261953749256</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>6.3412120039105596E-2</v>
+        <v>5.1041737890265351E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -3366,36 +6241,43 @@
         <v>8000</v>
       </c>
       <c r="C15">
+        <v>2027.3242250000001</v>
+      </c>
+      <c r="D15">
         <v>419.22</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>27.79428571</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>10479.71451071</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>8452.3902857100002</v>
-      </c>
-      <c r="G15" s="1">
+        <v>76.337957411189066</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>94.647782811510353</v>
-      </c>
-      <c r="H15" s="1">
+        <v>19.345223793340232</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>4.9597804387801716</v>
-      </c>
-      <c r="I15" s="1">
+        <v>4.0002998132398346</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>0.32883343966014322</v>
-      </c>
-      <c r="J15" s="1">
+        <v>0.2652198748505501</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="5"/>
-        <v>6.3603310049334963E-2</v>
+        <v>5.1299107380319051E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -3403,36 +6285,43 @@
         <v>8000</v>
       </c>
       <c r="C16">
+        <v>2001.3003900000001</v>
+      </c>
+      <c r="D16">
         <v>419.22</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>25.6</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F16">
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>10451.49639</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>8450.1959999999999</v>
-      </c>
-      <c r="G16" s="1">
+        <v>76.544063179837167</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>94.672360262412852</v>
-      </c>
-      <c r="H16" s="1">
+        <v>19.148457936749093</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>4.9610683586510902</v>
-      </c>
-      <c r="I16" s="1">
+        <v>4.0111002707814167</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
-        <v>0.30295155283972114</v>
-      </c>
-      <c r="J16" s="1">
+        <v>0.24494100217547893</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="5"/>
-        <v>6.3619826096341439E-2</v>
+        <v>5.1437610456850573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -3440,36 +6329,43 @@
         <v>8000</v>
       </c>
       <c r="C17">
+        <v>1987.1506589999999</v>
+      </c>
+      <c r="D17">
         <v>419.22</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>12.327416169999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F17">
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>10424.074075169998</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>8436.9234161699987</v>
-      </c>
-      <c r="G17" s="1">
+        <v>76.745425467149076</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>94.821294509647885</v>
-      </c>
-      <c r="H17" s="1">
+        <v>19.063090349035082</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>4.968872885541824</v>
-      </c>
-      <c r="I17" s="1">
+        <v>4.0216521580422802</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>0.14611269489982071</v>
-      </c>
-      <c r="J17" s="1">
+        <v>0.11825909985965792</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="5"/>
-        <v>6.3719909910483374E-2</v>
+        <v>5.1572925913924178E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -3477,36 +6373,43 @@
         <v>8000</v>
       </c>
       <c r="C18">
+        <v>1966.59313</v>
+      </c>
+      <c r="D18">
         <v>419.22</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>10.272846810000001</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F18">
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>10401.461976809998</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>8434.868846809999</v>
-      </c>
-      <c r="G18" s="1">
+        <v>76.912265005015215</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>94.844391125601632</v>
-      </c>
-      <c r="H18" s="1">
+        <v>18.906891496450292</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="3"/>
-        <v>4.9700832059593401</v>
-      </c>
-      <c r="I18" s="1">
+        <v>4.0303949669253107</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="4"/>
-        <v>0.12179023760262864</v>
-      </c>
-      <c r="J18" s="1">
+        <v>9.8763489525830653E-2</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="5"/>
-        <v>6.3735430836404303E-2</v>
+        <v>5.1685042083370235E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -3514,36 +6417,43 @@
         <v>8000</v>
       </c>
       <c r="C19">
+        <v>1962.9861980000001</v>
+      </c>
+      <c r="D19">
         <v>419.22</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>8.2182774490000003</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F19">
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>10395.800475448999</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>8432.8142774489988</v>
-      </c>
-      <c r="G19" s="1">
+        <v>76.954151042942911</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>94.867498996077387</v>
-      </c>
-      <c r="H19" s="1">
+        <v>18.882492047013031</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="3"/>
-        <v>4.9712941161419462</v>
-      </c>
-      <c r="I19" s="1">
+        <v>4.0325899000278156</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="4"/>
-        <v>9.7455928455311633E-2</v>
-      </c>
-      <c r="J19" s="1">
+        <v>7.9053820515394696E-2</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="5"/>
-        <v>6.3750959325364009E-2</v>
+        <v>5.1713189500857633E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -3551,36 +6461,43 @@
         <v>8160</v>
       </c>
       <c r="C20">
+        <v>1619.458128</v>
+      </c>
+      <c r="D20">
         <v>419.22</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5.7527942139999997</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F20">
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>10209.806922214</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>8590.348794214</v>
-      </c>
-      <c r="G20" s="1">
+        <v>79.923156844874995</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>94.990322226451852</v>
-      </c>
-      <c r="H20" s="1">
+        <v>15.861789947040645</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="3"/>
-        <v>4.8801278043839647</v>
-      </c>
-      <c r="I20" s="1">
+        <v>4.1060521829054526</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="4"/>
-        <v>6.6968109814991142E-2</v>
-      </c>
-      <c r="J20" s="1">
+        <v>5.634576890463374E-2</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="5"/>
-        <v>6.2581859349191818E-2</v>
+        <v>5.2655256274270583E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -3588,36 +6505,43 @@
         <v>8320</v>
       </c>
       <c r="C21">
+        <v>1592.739726</v>
+      </c>
+      <c r="D21">
         <v>419.22</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5.3418803419999996</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5.3760000000000003</v>
       </c>
-      <c r="F21">
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>10342.677606342</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>8749.9378803420004</v>
-      </c>
-      <c r="G21" s="1">
+        <v>80.443385327009338</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>95.086389341027001</v>
-      </c>
-      <c r="H21" s="1">
+        <v>15.39968455579967</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="3"/>
-        <v>4.7911197283107381</v>
-      </c>
-      <c r="I21" s="1">
+        <v>4.053302403460199</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="4"/>
-        <v>6.1050494472667124E-2</v>
-      </c>
-      <c r="J21" s="1">
+        <v>5.1648910904120472E-2</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="5"/>
-        <v>6.1440436189586681E-2</v>
+        <v>5.1978802826682949E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -3625,36 +6549,43 @@
         <v>8280</v>
       </c>
       <c r="C22">
+        <v>1495.242424</v>
+      </c>
+      <c r="D22">
         <v>419.22</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4.5200525970000003</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5.7881600000000004</v>
       </c>
-      <c r="F22">
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>10204.770636596999</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>8709.5282125969989</v>
-      </c>
-      <c r="G22" s="1">
+        <v>81.138521333402011</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>95.068295295539059</v>
-      </c>
-      <c r="H22" s="1">
+        <v>14.652386391102867</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="3"/>
-        <v>4.8133491248545761</v>
-      </c>
-      <c r="I22" s="1">
+        <v>4.1080786127281153</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="4"/>
-        <v>5.1897789256396654E-2</v>
-      </c>
-      <c r="J22" s="1">
+        <v>4.4293524646109139E-2</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="5"/>
-        <v>6.6457790349979159E-2</v>
+        <v>5.6720138120911139E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -3662,36 +6593,43 @@
         <v>8240</v>
       </c>
       <c r="C23">
+        <v>1412.526316</v>
+      </c>
+      <c r="D23">
         <v>419.22</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>4.0997570090000002</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>6.2003199999999996</v>
       </c>
-      <c r="F23">
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>10082.046393008999</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>8669.5200770089996</v>
-      </c>
-      <c r="G23" s="1">
+        <v>81.729439429218516</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>95.045630286409292</v>
-      </c>
-      <c r="H23" s="1">
+        <v>14.010313590497473</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="3"/>
-        <v>4.8355617874597705</v>
-      </c>
-      <c r="I23" s="1">
+        <v>4.1580844171743916</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="4"/>
-        <v>4.7289319046302083E-2</v>
-      </c>
-      <c r="J23" s="1">
+        <v>4.0663937153104318E-2</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="5"/>
-        <v>7.151860708463946E-2</v>
+        <v>6.1498625956525742E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -3699,36 +6637,43 @@
         <v>8225</v>
       </c>
       <c r="C24">
+        <v>1379.8208959999999</v>
+      </c>
+      <c r="D24">
         <v>419.22</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>4.079110301</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>7.2038399999999996</v>
       </c>
-      <c r="F24">
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>10035.323846300998</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>8655.5029503009991</v>
-      </c>
-      <c r="G24" s="1">
+        <v>81.96048404588079</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>95.026251475241793</v>
-      </c>
-      <c r="H24" s="1">
+        <v>13.74963994319525</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="3"/>
-        <v>4.8433927226080078</v>
-      </c>
-      <c r="I24" s="1">
+        <v>4.1774436622144862</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="4"/>
-        <v>4.7127363070890611E-2</v>
-      </c>
-      <c r="J24" s="1">
+        <v>4.0647520333920786E-2</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="5"/>
-        <v>8.3228439079319858E-2</v>
+        <v>7.1784828375571763E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -3736,36 +6681,43 @@
         <v>8750</v>
       </c>
       <c r="C25">
+        <v>1361.666667</v>
+      </c>
+      <c r="D25">
         <v>410.85500830000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4.3128338230000001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7.45472</v>
       </c>
-      <c r="F25">
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>10534.289229122998</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>9172.6225621230005</v>
-      </c>
-      <c r="G25" s="1">
+        <v>83.06208240238773</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>95.392565656542345</v>
-      </c>
-      <c r="H25" s="1">
+        <v>12.926042159878703</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="3"/>
-        <v>4.4791443833802287</v>
-      </c>
-      <c r="I25" s="1">
+        <v>3.9001682919826619</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="4"/>
-        <v>4.7018546700146747E-2</v>
-      </c>
-      <c r="J25" s="1">
+        <v>4.0940909530723532E-2</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" si="5"/>
-        <v>8.1271413377273075E-2</v>
+        <v>7.0766236220197468E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -3773,51 +6725,58 @@
         <v>8800</v>
       </c>
       <c r="C26">
+        <v>1343.6470589999999</v>
+      </c>
+      <c r="D26">
         <v>402.1406667</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4.1473098100000003</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>8.26112</v>
       </c>
-      <c r="F26">
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>10558.196155509997</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>9214.549096509998</v>
-      </c>
-      <c r="G26" s="1">
+        <v>83.347570649249121</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>95.501146153022205</v>
-      </c>
-      <c r="H26" s="1">
+        <v>12.726104338370261</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="3"/>
-        <v>4.3641925664307371</v>
-      </c>
-      <c r="I26" s="1">
+        <v>3.8088008668993631</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="4"/>
-        <v>4.500827730757645E-2</v>
-      </c>
-      <c r="J26" s="1">
+        <v>3.9280476976511249E-2</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>8.9653003239506215E-2</v>
-      </c>
-      <c r="M26" t="s">
+        <v>7.8243668504764191E-2</v>
+      </c>
+      <c r="O26" t="s">
         <v>3</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>4</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>7</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -3825,54 +6784,61 @@
         <v>8800</v>
       </c>
       <c r="C27">
+        <v>1315.058824</v>
+      </c>
+      <c r="D27">
         <v>380.05398330000003</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3.5949654450000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>8.2252799999999997</v>
       </c>
-      <c r="F27">
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>10506.933052745</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>9191.8742287450004</v>
-      </c>
-      <c r="G27" s="1">
+        <v>83.754221672716824</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" si="2"/>
-        <v>95.736732041877545</v>
-      </c>
-      <c r="H27" s="1">
+        <v>12.516105483858897</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="3"/>
-        <v>4.1346734500727624</v>
-      </c>
-      <c r="I27" s="1">
+        <v>3.6171733596485476</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="4"/>
-        <v>3.911025494406524E-2</v>
-      </c>
-      <c r="J27" s="1">
+        <v>3.4215174180259898E-2</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>8.9484253105615294E-2</v>
-      </c>
-      <c r="L27" t="s">
+        <v>7.8284309595473195E-2</v>
+      </c>
+      <c r="N27" t="s">
         <v>8</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>255</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>31</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>44</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -3880,54 +6846,61 @@
         <v>8800</v>
       </c>
       <c r="C28">
+        <v>1293.617647</v>
+      </c>
+      <c r="D28">
         <v>367.38034160000001</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>3.3412788689999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>8.2700800000000001</v>
       </c>
-      <c r="F28">
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>10472.609347468999</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>9178.9917004689996</v>
-      </c>
-      <c r="G28" s="1">
+        <v>84.028723960058414</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>95.871096599317823</v>
-      </c>
-      <c r="H28" s="1">
+        <v>12.352390928366283</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="3"/>
-        <v>4.0024041157072707</v>
-      </c>
-      <c r="I28" s="1">
+        <v>3.5080115128020872</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="4"/>
-        <v>3.6401371501722547E-2</v>
-      </c>
-      <c r="J28" s="1">
+        <v>3.1904931790542865E-2</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="5"/>
-        <v>9.0097913473191626E-2</v>
-      </c>
-      <c r="L28" t="s">
+        <v>7.8968666982681804E-2</v>
+      </c>
+      <c r="N28" t="s">
         <v>9</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>191</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>127</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>119</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>160</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -3935,54 +6908,61 @@
         <v>8800</v>
       </c>
       <c r="C29">
+        <v>1272.176471</v>
+      </c>
+      <c r="D29">
         <v>354.70670000000001</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.0936340219999998</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>8.3148800000000005</v>
       </c>
-      <c r="F29">
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>10438.291685022001</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>9166.1152140220001</v>
-      </c>
-      <c r="G29" s="1">
+        <v>84.30498270734472</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="2"/>
-        <v>96.005775560600298</v>
-      </c>
-      <c r="H29" s="1">
+        <v>12.187592657766572</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="3"/>
-        <v>3.869760435231953</v>
-      </c>
-      <c r="I29" s="1">
+        <v>3.3981297965544672</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="4"/>
-        <v>3.3750765179860136E-2</v>
-      </c>
-      <c r="J29" s="1">
+        <v>2.9637359400859466E-2</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="5"/>
-        <v>9.0713238987877767E-2</v>
-      </c>
-      <c r="L29" t="s">
+        <v>7.9657478933368928E-2</v>
+      </c>
+      <c r="N29" t="s">
         <v>1</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>191</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>14</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>190</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>44</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -3990,36 +6970,43 @@
         <v>8800</v>
       </c>
       <c r="C30">
+        <v>1229.294118</v>
+      </c>
+      <c r="D30">
         <v>348.49603339999999</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.8988638820000001</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>8.3865599999999993</v>
       </c>
-      <c r="F30">
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>10389.075575282001</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>9159.7814572820007</v>
-      </c>
-      <c r="G30" s="1">
+        <v>84.704360231407151</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="2"/>
-        <v>96.072161121311737</v>
-      </c>
-      <c r="H30" s="1">
+        <v>11.832564977434309</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="3"/>
-        <v>3.8046326216980493</v>
-      </c>
-      <c r="I30" s="1">
+        <v>3.3544469945829651</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="4"/>
-        <v>3.1647740675029006E-2</v>
-      </c>
-      <c r="J30" s="1">
+        <v>2.7903001195766289E-2</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="5"/>
-        <v>9.155851631517592E-2</v>
+        <v>8.0724795379807937E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -4027,36 +7014,43 @@
         <v>8800</v>
       </c>
       <c r="C31">
+        <v>1186.4117650000001</v>
+      </c>
+      <c r="D31">
         <v>342.2853667</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.692895407</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>8.45824</v>
       </c>
-      <c r="F31">
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>10339.848267107001</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>9153.4365021070007</v>
-      </c>
-      <c r="G31" s="1">
+        <v>85.10763187883957</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>96.138756170694535</v>
-      </c>
-      <c r="H31" s="1">
+        <v>11.474169971857311</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="3"/>
-        <v>3.7394192511327349</v>
-      </c>
-      <c r="I31" s="1">
+        <v>3.3103519302974109</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="4"/>
-        <v>2.9419501696222299E-2</v>
-      </c>
-      <c r="J31" s="1">
+        <v>2.6043858066724306E-2</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="5"/>
-        <v>9.2405076476501743E-2</v>
+        <v>8.1802360938963189E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -4064,36 +7058,43 @@
         <v>8800</v>
       </c>
       <c r="C32">
+        <v>1157.823529</v>
+      </c>
+      <c r="D32">
         <v>336.01129950000001</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.542951049</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>8.1954133329999994</v>
       </c>
-      <c r="F32">
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>10304.573192881999</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>9146.7496638819994</v>
-      </c>
-      <c r="G32" s="1">
+        <v>85.398976117503835</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>96.20903953181076</v>
-      </c>
-      <c r="H32" s="1">
+        <v>11.236016352426704</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="3"/>
-        <v>3.6735595905375686</v>
-      </c>
-      <c r="I32" s="1">
+        <v>3.2607978342286277</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="4"/>
-        <v>2.7801690681897799E-2</v>
-      </c>
-      <c r="J32" s="1">
+        <v>2.4677888170628673E-2</v>
+      </c>
+      <c r="L32" s="1">
         <f t="shared" si="5"/>
-        <v>8.9599186969787026E-2</v>
+        <v>7.9531807670220389E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -4101,36 +7102,43 @@
         <v>8800</v>
       </c>
       <c r="C33">
+        <v>1129.2352940000001</v>
+      </c>
+      <c r="D33">
         <v>329.73723219999999</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.4012622069999998</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>7.9325866669999998</v>
       </c>
-      <c r="F33">
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>10269.306375074</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>9140.0710810740002</v>
-      </c>
-      <c r="G33" s="1">
+        <v>85.692252997336325</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>96.279338770371567</v>
-      </c>
-      <c r="H33" s="1">
+        <v>10.996217784882894</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="3"/>
-        <v>3.6076003050214176</v>
-      </c>
-      <c r="I33" s="1">
+        <v>3.2109007186731624</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="4"/>
-        <v>2.6271811080027622E-2</v>
-      </c>
-      <c r="J33" s="1">
+        <v>2.3382905517634792E-2</v>
+      </c>
+      <c r="L33" s="1">
         <f t="shared" si="5"/>
-        <v>8.6789113526980197E-2</v>
+        <v>7.7245593589984188E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -4138,36 +7146,43 @@
         <v>8800</v>
       </c>
       <c r="C34">
+        <v>1100.6470589999999</v>
+      </c>
+      <c r="D34">
         <v>323.463165</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>2.2668844890000002</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>7.6697600000000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>10234.046868488998</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>9133.3998094889994</v>
-      </c>
-      <c r="G34" s="1">
+        <v>85.987489729947583</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="2"/>
-        <v>96.349663691031907</v>
-      </c>
-      <c r="H34" s="1">
+        <v>10.754758827506762</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="3"/>
-        <v>3.5415417232030415</v>
-      </c>
-      <c r="I34" s="1">
+        <v>3.1606574520970274</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>2.481972251608713E-2</v>
-      </c>
-      <c r="J34" s="1">
+        <v>2.2150421217825567E-2</v>
+      </c>
+      <c r="L34" s="1">
         <f t="shared" si="5"/>
-        <v>8.3974863248969203E-2</v>
+        <v>7.4943569230813953E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -4175,36 +7190,43 @@
         <v>8875</v>
       </c>
       <c r="C35">
+        <v>1081.5882349999999</v>
+      </c>
+      <c r="D35">
         <v>320.40829330000003</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>2.1296348279999999</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>7.3949866670000004</v>
       </c>
-      <c r="F35">
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>10286.521149794999</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>9204.9329147949993</v>
-      </c>
-      <c r="G35" s="1">
+        <v>86.277954137846407</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>96.415694521089861</v>
-      </c>
-      <c r="H35" s="1">
+        <v>10.514616353280477</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="3"/>
-        <v>3.4808324652210216</v>
-      </c>
-      <c r="I35" s="1">
+        <v>3.1148362856025966</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>2.3135799551315128E-2</v>
-      </c>
-      <c r="J35" s="1">
+        <v>2.0703158988230358E-2</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" si="5"/>
-        <v>8.0337214137803328E-2</v>
+        <v>7.1890064282299909E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -4212,36 +7234,43 @@
         <v>8875</v>
       </c>
       <c r="C36">
+        <v>1062.5294120000001</v>
+      </c>
+      <c r="D36">
         <v>317.35342170000001</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.9927764130000001</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7.1202133329999997</v>
       </c>
-      <c r="F36">
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>10263.995823446001</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>9201.4664114460011</v>
-      </c>
-      <c r="G36" s="1">
+        <v>86.467299409133389</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>96.452017571461241</v>
-      </c>
-      <c r="H36" s="1">
+        <v>10.352005498412897</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="3"/>
-        <v>3.4489439781601967</v>
-      </c>
-      <c r="I36" s="1">
+        <v>3.0919091079038727</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>2.1657161194666985E-2</v>
-      </c>
-      <c r="J36" s="1">
+        <v>1.9415210676994914E-2</v>
+      </c>
+      <c r="L36" s="1">
         <f t="shared" si="5"/>
-        <v>7.738128918389503E-2</v>
+        <v>6.9370773872835439E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -4249,36 +7278,43 @@
         <v>8875</v>
       </c>
       <c r="C37">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D37">
         <v>314.29854999999998</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.856311209</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6.84544</v>
       </c>
-      <c r="F37">
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G37" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H37" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I37" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J37" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L37" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -4286,36 +7322,43 @@
         <v>8875</v>
       </c>
       <c r="C38">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D38">
         <v>314.29854999999998</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1.856311209</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>6.84544</v>
       </c>
-      <c r="F38">
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G38" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H38" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I38" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J38" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L38" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -4323,36 +7366,43 @@
         <v>8875</v>
       </c>
       <c r="C39">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D39">
         <v>314.29854999999998</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.856311209</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>6.84544</v>
       </c>
-      <c r="F39">
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G39" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H39" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J39" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I39" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J39" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -4360,36 +7410,43 @@
         <v>8875</v>
       </c>
       <c r="C40">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D40">
         <v>314.29854999999998</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.856311209</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>6.84544</v>
       </c>
-      <c r="F40">
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G40" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H40" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J40" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I40" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J40" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L40" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -4397,36 +7454,43 @@
         <v>8875</v>
       </c>
       <c r="C41">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D41">
         <v>314.29854999999998</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1.856311209</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>6.84544</v>
       </c>
-      <c r="F41">
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G41" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H41" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J41" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I41" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J41" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L41" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -4434,36 +7498,43 @@
         <v>8875</v>
       </c>
       <c r="C42">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D42">
         <v>314.29854999999998</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1.856311209</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>6.84544</v>
       </c>
-      <c r="F42">
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G42" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H42" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J42" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I42" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J42" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L42" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -4471,36 +7542,43 @@
         <v>8875</v>
       </c>
       <c r="C43">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D43">
         <v>314.29854999999998</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.856311209</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>6.84544</v>
       </c>
-      <c r="F43">
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G43" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H43" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J43" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I43" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J43" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L43" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -4508,36 +7586,43 @@
         <v>8875</v>
       </c>
       <c r="C44">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D44">
         <v>314.29854999999998</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.856311209</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>6.84544</v>
       </c>
-      <c r="F44">
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G44" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H44" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J44" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I44" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J44" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L44" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -4545,36 +7630,43 @@
         <v>8875</v>
       </c>
       <c r="C45">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D45">
         <v>314.29854999999998</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.856311209</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>6.84544</v>
       </c>
-      <c r="F45">
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H45" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G45" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H45" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J45" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I45" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J45" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L45" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -4582,36 +7674,43 @@
         <v>8875</v>
       </c>
       <c r="C46">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D46">
         <v>314.29854999999998</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1.856311209</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>6.84544</v>
       </c>
-      <c r="F46">
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H46" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G46" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I46" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H46" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J46" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I46" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J46" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L46" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -4619,36 +7718,43 @@
         <v>8875</v>
       </c>
       <c r="C47">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D47">
         <v>314.29854999999998</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1.856311209</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>6.84544</v>
       </c>
-      <c r="F47">
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H47" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G47" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I47" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H47" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J47" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I47" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J47" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L47" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -4656,36 +7762,43 @@
         <v>8875</v>
       </c>
       <c r="C48">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D48">
         <v>314.29854999999998</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.856311209</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>6.84544</v>
       </c>
-      <c r="F48">
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G48" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I48" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H48" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J48" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I48" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J48" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L48" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -4693,36 +7806,43 @@
         <v>8875</v>
       </c>
       <c r="C49">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D49">
         <v>314.29854999999998</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1.856311209</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>6.84544</v>
       </c>
-      <c r="F49">
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H49" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G49" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H49" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J49" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I49" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J49" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L49" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -4730,36 +7850,43 @@
         <v>8875</v>
       </c>
       <c r="C50">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D50">
         <v>314.29854999999998</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.856311209</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>6.84544</v>
       </c>
-      <c r="F50">
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G50" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H50" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J50" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I50" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J50" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L50" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -4767,36 +7894,43 @@
         <v>8875</v>
       </c>
       <c r="C51">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D51">
         <v>314.29854999999998</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.856311209</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>6.84544</v>
       </c>
-      <c r="F51">
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G51" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H51" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J51" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I51" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J51" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L51" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -4804,36 +7938,43 @@
         <v>8875</v>
       </c>
       <c r="C52">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D52">
         <v>314.29854999999998</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.856311209</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>6.84544</v>
       </c>
-      <c r="F52">
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G52" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I52" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H52" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J52" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I52" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J52" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L52" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -4841,36 +7982,43 @@
         <v>8875</v>
       </c>
       <c r="C53">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D53">
         <v>314.29854999999998</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1.856311209</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6.84544</v>
       </c>
-      <c r="F53">
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G53" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I53" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H53" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J53" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I53" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J53" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L53" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -4878,36 +8026,43 @@
         <v>8875</v>
       </c>
       <c r="C54">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D54">
         <v>314.29854999999998</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1.856311209</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>6.84544</v>
       </c>
-      <c r="F54">
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G54" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H54" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J54" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I54" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J54" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -4915,36 +8070,43 @@
         <v>8875</v>
       </c>
       <c r="C55">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D55">
         <v>314.29854999999998</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1.856311209</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>6.84544</v>
       </c>
-      <c r="F55">
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G55" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I55" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H55" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J55" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I55" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J55" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -4952,36 +8114,43 @@
         <v>8875</v>
       </c>
       <c r="C56">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D56">
         <v>314.29854999999998</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.856311209</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>6.84544</v>
       </c>
-      <c r="F56">
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H56" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G56" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I56" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H56" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J56" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I56" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J56" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L56" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -4989,33 +8158,40 @@
         <v>8875</v>
       </c>
       <c r="C57">
+        <v>1043.4705879999999</v>
+      </c>
+      <c r="D57">
         <v>314.29854999999998</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.856311209</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>6.84544</v>
       </c>
-      <c r="F57">
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H57" s="1">
         <f t="shared" si="1"/>
-        <v>9198.0003012089983</v>
-      </c>
-      <c r="G57" s="1">
+        <v>86.657474263303428</v>
+      </c>
+      <c r="I57" s="1">
         <f t="shared" si="2"/>
-        <v>96.488363876585836</v>
-      </c>
-      <c r="H57" s="1">
+        <v>10.188678943563277</v>
+      </c>
+      <c r="J57" s="1">
         <f t="shared" si="3"/>
-        <v>3.4170313079755843</v>
-      </c>
-      <c r="I57" s="1">
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="4"/>
-        <v>2.01816824115129E-2</v>
-      </c>
-      <c r="J57" s="1">
+        <v>1.812543558519427E-2</v>
+      </c>
+      <c r="L57" s="1">
         <f t="shared" si="5"/>
-        <v>7.4423133027080091E-2</v>
+        <v>6.6840398943209894E-2</v>
       </c>
     </row>
   </sheetData>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350ECCB2-12C7-417C-86C8-5CA84387EC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEEEC8F-8C1B-405C-AD93-5480EFFEB857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -68,6 +68,12 @@
   <si>
     <t>Aluminum</t>
   </si>
+  <si>
+    <t>Module Mass [kg]</t>
+  </si>
+  <si>
+    <t>Module Mass [kg] +8% for plastics</t>
+  </si>
 </sst>
 </file>
 
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,7 +1987,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2003,7 +2016,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2047,10 +2060,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -2158,76 +2171,16 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$57</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>8000</c:v>
                 </c:pt>
@@ -2334,66 +2287,6 @@
                   <c:v>8875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>8875</c:v>
                 </c:pt>
               </c:numCache>
@@ -2430,10 +2323,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -2541,76 +2434,16 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$57</c:f>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>3091.18541</c:v>
                 </c:pt>
@@ -2717,66 +2550,6 @@
                   <c:v>1062.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1043.4705879999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>1043.4705879999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2813,10 +2586,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -2924,76 +2697,16 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$57</c:f>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>848.42142860000001</c:v>
                 </c:pt>
@@ -3100,66 +2813,6 @@
                   <c:v>317.35342170000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>314.29854999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>314.29854999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -3196,10 +2849,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -3307,76 +2960,16 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$57</c:f>
+              <c:f>Sheet1!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>88</c:v>
                 </c:pt>
@@ -3483,66 +3076,6 @@
                   <c:v>1.9927764130000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.856311209</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>1.856311209</c:v>
                 </c:pt>
               </c:numCache>
@@ -3579,10 +3112,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -3690,76 +3223,16 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$57</c:f>
+              <c:f>Sheet1!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>5.3760000000000003</c:v>
                 </c:pt>
@@ -3866,66 +3339,6 @@
                   <c:v>7.1202133329999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.84544</c:v>
-                </c:pt>
-                <c:pt idx="55">
                   <c:v>6.84544</c:v>
                 </c:pt>
               </c:numCache>
@@ -3974,7 +3387,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4031,7 +3444,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4072,7 +3485,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4109,13 +3522,632 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1600">
+        <a:defRPr sz="1200">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
           <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
           <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Module Mass [kg] +8% for plastics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>12.995621465688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8942816639796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5298023657112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.335735421802802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.2539383356652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.149924067932401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.079445007898801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.013050358728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.963559040117199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.876400025815601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.5947028755288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.4337854051912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.375161269944401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.318091671566799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.287616101200001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.258000001183596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.233578934954798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.227464513484918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.02659147599112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.170091814849361</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.021152287524759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.88861010444972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.838149754005078</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.37703236745284</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.402851847950796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.347487696964599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.31041809526652</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.273355019823761</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.220201621304559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.167036128475562</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.128939048312558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.09085088507992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.052770617968118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.109442841778598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.08511548932168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.060788560345717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96D7-4E25-A984-53C6475D8978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410540960"/>
+        <c:axId val="410540632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410540960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410540632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410540632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410540960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -4170,6 +4202,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5235,17 +5307,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5275,14 +5863,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>69849</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>141286</xdr:rowOff>
+      <xdr:rowOff>144461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -5304,6 +5892,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A30F24E-70DE-40F8-BFE0-722D4D3382F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5609,21 +6233,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="10" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
+    <col min="13" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5646,22 +6271,28 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -5684,28 +6315,36 @@
         <f>SUM(B2:F2)</f>
         <v>12032.982838600001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
+        <f>G2/1000</f>
+        <v>12.032982838600001</v>
+      </c>
+      <c r="I2">
+        <f>H2+0.08*H2</f>
+        <v>12.995621465688</v>
+      </c>
+      <c r="K2" s="1">
         <f>B2/$G2*100</f>
         <v>66.483930936369333</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <f>C2/$G2*100</f>
         <v>25.689269663744067</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:L2" si="0">D2/$G2*100</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:O2" si="0">D2/$G2*100</f>
         <v>7.0507989579972774</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <f t="shared" si="0"/>
         <v>0.73132324030006279</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <f t="shared" si="0"/>
         <v>4.4677201589240205E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -5728,28 +6367,36 @@
         <f>SUM(B3:F3)</f>
         <v>11939.14968887</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H57" si="1">B3/$G3*100</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H57" si="1">G3/1000</f>
+        <v>11.93914968887</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I57" si="2">H3+0.08*H3</f>
+        <v>12.8942816639796</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K57" si="3">B3/$G3*100</f>
         <v>67.006446928610146</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I57" si="2">C3/$G3*100</f>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L57" si="4">C3/$G3*100</f>
         <v>25.273295206382389</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J57" si="3">D3/$G3*100</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M57" si="5">D3/$G3*100</f>
         <v>6.9668756651523793</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K57" si="4">E3/$G3*100</f>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N57" si="6">E3/$G3*100</f>
         <v>0.70835386751905605</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L57" si="5">F3/$G3*100</f>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O57" si="7">F3/$G3*100</f>
         <v>4.5028332336026024E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -5769,31 +6416,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G3:G57" si="6">SUM(B4:F4)</f>
+        <f t="shared" ref="G4:G57" si="8">SUM(B4:F4)</f>
         <v>11601.668857139999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f t="shared" si="1"/>
+        <v>11.60166885714</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>12.5298023657112</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="3"/>
         <v>68.955596806890156</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="2"/>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
         <v>23.27251392232543</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" si="3"/>
+      <c r="M4" s="1">
+        <f t="shared" si="5"/>
         <v>7.0261443421420644</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" si="4"/>
+      <c r="N4" s="1">
+        <f t="shared" si="6"/>
         <v>0.69940676758811615</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="5"/>
+      <c r="O4" s="1">
+        <f t="shared" si="7"/>
         <v>4.6338161054230192E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -5813,31 +6468,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G5">
+        <f t="shared" si="8"/>
+        <v>11421.977242410001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>11.421977242410001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>12.335735421802802</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>70.040412708019232</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
+        <v>22.24109378862665</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="5"/>
+        <v>6.9910337654596475</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="6"/>
-        <v>11421.977242410001</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>70.040412708019232</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
-        <v>22.24109378862665</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>6.9910337654596475</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="4"/>
         <v>0.68039258055466523</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="5"/>
+      <c r="O5" s="1">
+        <f t="shared" si="7"/>
         <v>4.7067157339788931E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -5857,31 +6520,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G6">
+        <f t="shared" si="8"/>
+        <v>11346.239199690001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>11.34623919969</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>12.2539383356652</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>70.507944167249477</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>21.89887653759218</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8910813322299997</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="6"/>
-        <v>11346.239199690001</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>70.507944167249477</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>21.89887653759218</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8910813322299997</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="4"/>
         <v>0.65471662444794587</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="5"/>
+      <c r="O6" s="1">
+        <f t="shared" si="7"/>
         <v>4.7381338480391652E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -5901,31 +6572,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G7">
+        <f t="shared" si="8"/>
+        <v>11249.92969253</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>11.249929692530001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>12.149924067932401</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>71.111555526538382</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>21.635355335741881</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8022012404941909</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="6"/>
-        <v>11249.92969253</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>71.111555526538382</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="2"/>
-        <v>21.635355335741881</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8022012404941909</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="4"/>
         <v>0.40310093191170465</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="5"/>
+      <c r="O7" s="1">
+        <f t="shared" si="7"/>
         <v>4.77869653138338E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -5945,31 +6624,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G8">
+        <f t="shared" si="8"/>
+        <v>11184.671303610001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>11.184671303610001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>12.079445007898801</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>71.526464952241327</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>21.346482254059556</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6931528212042952</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="6"/>
-        <v>11184.671303610001</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>71.526464952241327</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>21.346482254059556</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="3"/>
-        <v>6.6931528212042952</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
         <v>0.38583418804691544</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="5"/>
+      <c r="O8" s="1">
+        <f t="shared" si="7"/>
         <v>4.8065784447906171E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -5989,31 +6676,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G9">
+        <f t="shared" si="8"/>
+        <v>11123.194776599999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>11.1231947766</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>12.013050358728</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>71.92178291105445</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>21.081059849216778</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>6.5805862731079499</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="6"/>
-        <v>11123.194776599999</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>71.92178291105445</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>21.081059849216778</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>6.5805862731079499</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="4"/>
         <v>0.36823952850459885</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="5"/>
+      <c r="O9" s="1">
+        <f t="shared" si="7"/>
         <v>4.8331438116228594E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -6033,31 +6728,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G10">
+        <f t="shared" si="8"/>
+        <v>11077.36948159</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>11.077369481589999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>11.963559040117199</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>72.219311753531159</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>20.92457109832992</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4576316199333235</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="6"/>
-        <v>11077.36948159</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>72.219311753531159</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>20.92457109832992</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
-        <v>6.4576316199333235</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="4"/>
         <v>0.34995415070722846</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="5"/>
+      <c r="O10" s="1">
+        <f t="shared" si="7"/>
         <v>4.8531377498372941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -6077,31 +6780,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G11">
+        <f t="shared" si="8"/>
+        <v>10996.66669057</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>10.996666690570001</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>11.876400025815601</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>72.749317817009583</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>20.515482786566679</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>6.3537435448430752</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="6"/>
-        <v>10996.66669057</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>72.749317817009583</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="2"/>
-        <v>20.515482786566679</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>6.3537435448430752</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="4"/>
         <v>0.33256831000762432</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="5"/>
+      <c r="O11" s="1">
+        <f t="shared" si="7"/>
         <v>4.8887541573030449E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -6121,31 +6832,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G12">
+        <f t="shared" si="8"/>
+        <v>10735.835995859999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10.735835995859999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>11.5947028755288</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>74.516786611540965</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>19.68950395493323</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4234248755712162</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="6"/>
-        <v>10735.835995859999</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>74.516786611540965</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="2"/>
-        <v>19.68950395493323</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>5.4234248755712162</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="4"/>
         <v>0.3202092773516349</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="5"/>
+      <c r="O12" s="1">
+        <f t="shared" si="7"/>
         <v>5.0075280602955533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -6165,31 +6884,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G13">
+        <f t="shared" si="8"/>
+        <v>10586.83833814</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>10.58683833814</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>11.4337854051912</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>75.565525272822086</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>19.679902672113968</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3998027090100669</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="6"/>
-        <v>10586.83833814</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>75.565525272822086</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="2"/>
-        <v>19.679902672113968</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="3"/>
-        <v>4.3998027090100669</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="4"/>
         <v>0.30398931307053662</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="5"/>
+      <c r="O13" s="1">
+        <f t="shared" si="7"/>
         <v>5.078003298333645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -6209,31 +6936,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G14">
+        <f t="shared" si="8"/>
+        <v>10532.556731430001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>10.532556731430001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>11.375161269944401</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>75.954967098609146</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>19.507914482612396</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="5"/>
+        <v>4.201354061350691</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="6"/>
-        <v>10532.556731430001</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>75.954967098609146</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>19.507914482612396</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>4.201354061350691</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="4"/>
         <v>0.28472261953749256</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="5"/>
+      <c r="O14" s="1">
+        <f t="shared" si="7"/>
         <v>5.1041737890265351E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -6253,31 +6988,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G15">
+        <f t="shared" si="8"/>
+        <v>10479.71451071</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>10.47971451071</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>11.318091671566799</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>76.337957411189066</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>19.345223793340232</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0002998132398346</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="6"/>
-        <v>10479.71451071</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>76.337957411189066</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>19.345223793340232</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0002998132398346</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="4"/>
         <v>0.2652198748505501</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="5"/>
+      <c r="O15" s="1">
+        <f t="shared" si="7"/>
         <v>5.1299107380319051E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -6297,31 +7040,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G16">
+        <f t="shared" si="8"/>
+        <v>10451.49639</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>10.451496390000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>11.287616101200001</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>76.544063179837167</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>19.148457936749093</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0111002707814167</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" si="6"/>
-        <v>10451.49639</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>76.544063179837167</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>19.148457936749093</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0111002707814167</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="4"/>
         <v>0.24494100217547893</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="5"/>
+      <c r="O16" s="1">
+        <f t="shared" si="7"/>
         <v>5.1437610456850573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -6341,31 +7092,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G17">
+        <f t="shared" si="8"/>
+        <v>10424.074075169998</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>10.424074075169997</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>11.258000001183596</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>76.745425467149076</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>19.063090349035082</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0216521580422802</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" si="6"/>
-        <v>10424.074075169998</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>76.745425467149076</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
-        <v>19.063090349035082</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0216521580422802</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="4"/>
         <v>0.11825909985965792</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="5"/>
+      <c r="O17" s="1">
+        <f t="shared" si="7"/>
         <v>5.1572925913924178E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -6385,31 +7144,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G18">
+        <f t="shared" si="8"/>
+        <v>10401.461976809998</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>10.401461976809998</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>11.233578934954798</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>76.912265005015215</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="4"/>
+        <v>18.906891496450292</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0303949669253107</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="6"/>
-        <v>10401.461976809998</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>76.912265005015215</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="2"/>
-        <v>18.906891496450292</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0303949669253107</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="4"/>
         <v>9.8763489525830653E-2</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="5"/>
+      <c r="O18" s="1">
+        <f t="shared" si="7"/>
         <v>5.1685042083370235E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -6429,31 +7196,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G19">
+        <f t="shared" si="8"/>
+        <v>10395.800475448999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>10.395800475448999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>11.227464513484918</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>76.954151042942911</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="4"/>
+        <v>18.882492047013031</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0325899000278156</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" si="6"/>
-        <v>10395.800475448999</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>76.954151042942911</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="2"/>
-        <v>18.882492047013031</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0325899000278156</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="4"/>
         <v>7.9053820515394696E-2</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="5"/>
+      <c r="O19" s="1">
+        <f t="shared" si="7"/>
         <v>5.1713189500857633E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -6473,31 +7248,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G20">
+        <f t="shared" si="8"/>
+        <v>10209.806922214</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>10.209806922214</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>11.02659147599112</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>79.923156844874995</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>15.861789947040645</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1060521829054526</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="6"/>
-        <v>10209.806922214</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>79.923156844874995</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="2"/>
-        <v>15.861789947040645</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1060521829054526</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="4"/>
         <v>5.634576890463374E-2</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="5"/>
+      <c r="O20" s="1">
+        <f t="shared" si="7"/>
         <v>5.2655256274270583E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -6517,31 +7300,39 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G21">
+        <f t="shared" si="8"/>
+        <v>10342.677606342</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>10.342677606342001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>11.170091814849361</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>80.443385327009338</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>15.39968455579967</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="5"/>
+        <v>4.053302403460199</v>
+      </c>
+      <c r="N21" s="1">
         <f t="shared" si="6"/>
-        <v>10342.677606342</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>80.443385327009338</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="2"/>
-        <v>15.39968455579967</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>4.053302403460199</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="4"/>
         <v>5.1648910904120472E-2</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="5"/>
+      <c r="O21" s="1">
+        <f t="shared" si="7"/>
         <v>5.1978802826682949E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -6561,31 +7352,39 @@
         <v>5.7881600000000004</v>
       </c>
       <c r="G22">
+        <f t="shared" si="8"/>
+        <v>10204.770636596999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>10.204770636596999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>11.021152287524759</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>81.138521333402011</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>14.652386391102867</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1080786127281153</v>
+      </c>
+      <c r="N22" s="1">
         <f t="shared" si="6"/>
-        <v>10204.770636596999</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>81.138521333402011</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="2"/>
-        <v>14.652386391102867</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1080786127281153</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="4"/>
         <v>4.4293524646109139E-2</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="5"/>
+      <c r="O22" s="1">
+        <f t="shared" si="7"/>
         <v>5.6720138120911139E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -6605,31 +7404,39 @@
         <v>6.2003199999999996</v>
       </c>
       <c r="G23">
+        <f t="shared" si="8"/>
+        <v>10082.046393008999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>10.082046393009</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>10.88861010444972</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
+        <v>81.729439429218516</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>14.010313590497473</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1580844171743916</v>
+      </c>
+      <c r="N23" s="1">
         <f t="shared" si="6"/>
-        <v>10082.046393008999</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>81.729439429218516</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="2"/>
-        <v>14.010313590497473</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1580844171743916</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="4"/>
         <v>4.0663937153104318E-2</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="5"/>
+      <c r="O23" s="1">
+        <f t="shared" si="7"/>
         <v>6.1498625956525742E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -6649,31 +7456,39 @@
         <v>7.2038399999999996</v>
       </c>
       <c r="G24">
+        <f t="shared" si="8"/>
+        <v>10035.323846300998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>10.035323846300999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>10.838149754005078</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
+        <v>81.96048404588079</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="4"/>
+        <v>13.74963994319525</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1774436622144862</v>
+      </c>
+      <c r="N24" s="1">
         <f t="shared" si="6"/>
-        <v>10035.323846300998</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>81.96048404588079</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
-        <v>13.74963994319525</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1774436622144862</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="4"/>
         <v>4.0647520333920786E-2</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="5"/>
+      <c r="O24" s="1">
+        <f t="shared" si="7"/>
         <v>7.1784828375571763E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -6693,31 +7508,39 @@
         <v>7.45472</v>
       </c>
       <c r="G25">
+        <f t="shared" si="8"/>
+        <v>10534.289229122998</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>10.534289229122999</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>11.37703236745284</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
+        <v>83.06208240238773</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="4"/>
+        <v>12.926042159878703</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9001682919826619</v>
+      </c>
+      <c r="N25" s="1">
         <f t="shared" si="6"/>
-        <v>10534.289229122998</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>83.06208240238773</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="2"/>
-        <v>12.926042159878703</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="3"/>
-        <v>3.9001682919826619</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="4"/>
         <v>4.0940909530723532E-2</v>
       </c>
-      <c r="L25" s="1">
-        <f t="shared" si="5"/>
+      <c r="O25" s="1">
+        <f t="shared" si="7"/>
         <v>7.0766236220197468E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -6737,46 +7560,54 @@
         <v>8.26112</v>
       </c>
       <c r="G26">
+        <f t="shared" si="8"/>
+        <v>10558.196155509997</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>10.558196155509997</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>11.402851847950796</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
+        <v>83.347570649249121</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
+        <v>12.726104338370261</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8088008668993631</v>
+      </c>
+      <c r="N26" s="1">
         <f t="shared" si="6"/>
-        <v>10558.196155509997</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
-        <v>83.347570649249121</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="2"/>
-        <v>12.726104338370261</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="3"/>
-        <v>3.8088008668993631</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="4"/>
         <v>3.9280476976511249E-2</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" si="5"/>
+      <c r="O26" s="1">
+        <f t="shared" si="7"/>
         <v>7.8243668504764191E-2</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>3</v>
       </c>
-      <c r="P26" t="s">
+      <c r="S26" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="T26" t="s">
         <v>7</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" t="s">
         <v>2</v>
       </c>
-      <c r="S26" t="s">
+      <c r="V26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -6796,49 +7627,57 @@
         <v>8.2252799999999997</v>
       </c>
       <c r="G27">
+        <f t="shared" si="8"/>
+        <v>10506.933052745</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>10.506933052745</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>11.347487696964599</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="3"/>
+        <v>83.754221672716824</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="4"/>
+        <v>12.516105483858897</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6171733596485476</v>
+      </c>
+      <c r="N27" s="1">
         <f t="shared" si="6"/>
-        <v>10506.933052745</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>83.754221672716824</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="2"/>
-        <v>12.516105483858897</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6171733596485476</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="4"/>
         <v>3.4215174180259898E-2</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="5"/>
+      <c r="O27" s="1">
+        <f t="shared" si="7"/>
         <v>7.8284309595473195E-2</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
         <v>8</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>255</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>31</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>44</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -6858,49 +7697,57 @@
         <v>8.2700800000000001</v>
       </c>
       <c r="G28">
+        <f t="shared" si="8"/>
+        <v>10472.609347468999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>10.472609347469</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>11.31041809526652</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
+        <v>84.028723960058414</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="4"/>
+        <v>12.352390928366283</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5080115128020872</v>
+      </c>
+      <c r="N28" s="1">
         <f t="shared" si="6"/>
-        <v>10472.609347468999</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>84.028723960058414</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="2"/>
-        <v>12.352390928366283</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5080115128020872</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="4"/>
         <v>3.1904931790542865E-2</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="5"/>
+      <c r="O28" s="1">
+        <f t="shared" si="7"/>
         <v>7.8968666982681804E-2</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
         <v>9</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>191</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>127</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>119</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>160</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -6920,49 +7767,57 @@
         <v>8.3148800000000005</v>
       </c>
       <c r="G29">
+        <f t="shared" si="8"/>
+        <v>10438.291685022001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>10.438291685022001</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>11.273355019823761</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
+        <v>84.30498270734472</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>12.187592657766572</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3981297965544672</v>
+      </c>
+      <c r="N29" s="1">
         <f t="shared" si="6"/>
-        <v>10438.291685022001</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>84.30498270734472</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="2"/>
-        <v>12.187592657766572</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3981297965544672</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="4"/>
         <v>2.9637359400859466E-2</v>
       </c>
-      <c r="L29" s="1">
-        <f t="shared" si="5"/>
+      <c r="O29" s="1">
+        <f t="shared" si="7"/>
         <v>7.9657478933368928E-2</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>191</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>14</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>190</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>44</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -6982,31 +7837,39 @@
         <v>8.3865599999999993</v>
       </c>
       <c r="G30">
+        <f t="shared" si="8"/>
+        <v>10389.075575282001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>10.389075575282</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>11.220201621304559</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
+        <v>84.704360231407151</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="4"/>
+        <v>11.832564977434309</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3544469945829651</v>
+      </c>
+      <c r="N30" s="1">
         <f t="shared" si="6"/>
-        <v>10389.075575282001</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>84.704360231407151</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="2"/>
-        <v>11.832564977434309</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3544469945829651</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="4"/>
         <v>2.7903001195766289E-2</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="5"/>
+      <c r="O30" s="1">
+        <f t="shared" si="7"/>
         <v>8.0724795379807937E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -7026,31 +7889,39 @@
         <v>8.45824</v>
       </c>
       <c r="G31">
+        <f t="shared" si="8"/>
+        <v>10339.848267107001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>10.339848267107001</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>11.167036128475562</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>85.10763187883957</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>11.474169971857311</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3103519302974109</v>
+      </c>
+      <c r="N31" s="1">
         <f t="shared" si="6"/>
-        <v>10339.848267107001</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>85.10763187883957</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="2"/>
-        <v>11.474169971857311</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3103519302974109</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="4"/>
         <v>2.6043858066724306E-2</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="5"/>
+      <c r="O31" s="1">
+        <f t="shared" si="7"/>
         <v>8.1802360938963189E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -7070,31 +7941,39 @@
         <v>8.1954133329999994</v>
       </c>
       <c r="G32">
+        <f t="shared" si="8"/>
+        <v>10304.573192881999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>10.304573192881998</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>11.128939048312558</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="3"/>
+        <v>85.398976117503835</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>11.236016352426704</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2607978342286277</v>
+      </c>
+      <c r="N32" s="1">
         <f t="shared" si="6"/>
-        <v>10304.573192881999</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
-        <v>85.398976117503835</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="2"/>
-        <v>11.236016352426704</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2607978342286277</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="4"/>
         <v>2.4677888170628673E-2</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="5"/>
+      <c r="O32" s="1">
+        <f t="shared" si="7"/>
         <v>7.9531807670220389E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -7114,31 +7993,39 @@
         <v>7.9325866669999998</v>
       </c>
       <c r="G33">
+        <f t="shared" si="8"/>
+        <v>10269.306375074</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>10.269306375074001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>11.09085088507992</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
+        <v>85.692252997336325</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="4"/>
+        <v>10.996217784882894</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2109007186731624</v>
+      </c>
+      <c r="N33" s="1">
         <f t="shared" si="6"/>
-        <v>10269.306375074</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
-        <v>85.692252997336325</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="2"/>
-        <v>10.996217784882894</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2109007186731624</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="4"/>
         <v>2.3382905517634792E-2</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" si="5"/>
+      <c r="O33" s="1">
+        <f t="shared" si="7"/>
         <v>7.7245593589984188E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -7158,31 +8045,39 @@
         <v>7.6697600000000001</v>
       </c>
       <c r="G34">
+        <f t="shared" si="8"/>
+        <v>10234.046868488998</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>10.234046868488999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>11.052770617968118</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="3"/>
+        <v>85.987489729947583</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="4"/>
+        <v>10.754758827506762</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1606574520970274</v>
+      </c>
+      <c r="N34" s="1">
         <f t="shared" si="6"/>
-        <v>10234.046868488998</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
-        <v>85.987489729947583</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="2"/>
-        <v>10.754758827506762</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1606574520970274</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="4"/>
         <v>2.2150421217825567E-2</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="5"/>
+      <c r="O34" s="1">
+        <f t="shared" si="7"/>
         <v>7.4943569230813953E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -7202,31 +8097,39 @@
         <v>7.3949866670000004</v>
       </c>
       <c r="G35">
+        <f t="shared" si="8"/>
+        <v>10286.521149794999</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>10.286521149794998</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>11.109442841778598</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="3"/>
+        <v>86.277954137846407</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="4"/>
+        <v>10.514616353280477</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1148362856025966</v>
+      </c>
+      <c r="N35" s="1">
         <f t="shared" si="6"/>
-        <v>10286.521149794999</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>86.277954137846407</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="2"/>
-        <v>10.514616353280477</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1148362856025966</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="4"/>
         <v>2.0703158988230358E-2</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="5"/>
+      <c r="O35" s="1">
+        <f t="shared" si="7"/>
         <v>7.1890064282299909E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -7246,31 +8149,39 @@
         <v>7.1202133329999997</v>
       </c>
       <c r="G36">
+        <f t="shared" si="8"/>
+        <v>10263.995823446001</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>10.263995823446001</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>11.08511548932168</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
+        <v>86.467299409133389</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="4"/>
+        <v>10.352005498412897</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0919091079038727</v>
+      </c>
+      <c r="N36" s="1">
         <f t="shared" si="6"/>
-        <v>10263.995823446001</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
-        <v>86.467299409133389</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="2"/>
-        <v>10.352005498412897</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0919091079038727</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="4"/>
         <v>1.9415210676994914E-2</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="5"/>
+      <c r="O36" s="1">
+        <f t="shared" si="7"/>
         <v>6.9370773872835439E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -7290,31 +8201,39 @@
         <v>6.84544</v>
       </c>
       <c r="G37">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N37" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="5"/>
+      <c r="O37" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -7334,31 +8253,39 @@
         <v>6.84544</v>
       </c>
       <c r="G38">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N38" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="5"/>
+      <c r="O38" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -7378,31 +8305,39 @@
         <v>6.84544</v>
       </c>
       <c r="G39">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="5"/>
+      <c r="O39" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -7422,31 +8357,39 @@
         <v>6.84544</v>
       </c>
       <c r="G40">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N40" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J40" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="5"/>
+      <c r="O40" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -7466,31 +8409,39 @@
         <v>6.84544</v>
       </c>
       <c r="G41">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N41" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J41" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="5"/>
+      <c r="O41" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -7510,31 +8461,39 @@
         <v>6.84544</v>
       </c>
       <c r="G42">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N42" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J42" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="5"/>
+      <c r="O42" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -7554,31 +8513,39 @@
         <v>6.84544</v>
       </c>
       <c r="G43">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N43" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="5"/>
+      <c r="O43" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -7598,31 +8565,39 @@
         <v>6.84544</v>
       </c>
       <c r="G44">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N44" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J44" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="5"/>
+      <c r="O44" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -7642,31 +8617,39 @@
         <v>6.84544</v>
       </c>
       <c r="G45">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N45" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J45" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L45" s="1">
-        <f t="shared" si="5"/>
+      <c r="O45" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -7686,31 +8669,39 @@
         <v>6.84544</v>
       </c>
       <c r="G46">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N46" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J46" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L46" s="1">
-        <f t="shared" si="5"/>
+      <c r="O46" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -7730,31 +8721,39 @@
         <v>6.84544</v>
       </c>
       <c r="G47">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N47" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J47" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L47" s="1">
-        <f t="shared" si="5"/>
+      <c r="O47" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -7774,31 +8773,39 @@
         <v>6.84544</v>
       </c>
       <c r="G48">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N48" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J48" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L48" s="1">
-        <f t="shared" si="5"/>
+      <c r="O48" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -7818,31 +8825,39 @@
         <v>6.84544</v>
       </c>
       <c r="G49">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N49" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J49" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L49" s="1">
-        <f t="shared" si="5"/>
+      <c r="O49" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -7862,31 +8877,39 @@
         <v>6.84544</v>
       </c>
       <c r="G50">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N50" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J50" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L50" s="1">
-        <f t="shared" si="5"/>
+      <c r="O50" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -7906,31 +8929,39 @@
         <v>6.84544</v>
       </c>
       <c r="G51">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N51" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J51" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L51" s="1">
-        <f t="shared" si="5"/>
+      <c r="O51" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -7950,31 +8981,39 @@
         <v>6.84544</v>
       </c>
       <c r="G52">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N52" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J52" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L52" s="1">
-        <f t="shared" si="5"/>
+      <c r="O52" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -7994,31 +9033,39 @@
         <v>6.84544</v>
       </c>
       <c r="G53">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N53" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J53" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L53" s="1">
-        <f t="shared" si="5"/>
+      <c r="O53" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -8038,31 +9085,39 @@
         <v>6.84544</v>
       </c>
       <c r="G54">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N54" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L54" s="1">
-        <f t="shared" si="5"/>
+      <c r="O54" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -8082,31 +9137,39 @@
         <v>6.84544</v>
       </c>
       <c r="G55">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N55" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J55" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L55" s="1">
-        <f t="shared" si="5"/>
+      <c r="O55" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -8126,31 +9189,39 @@
         <v>6.84544</v>
       </c>
       <c r="G56">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N56" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J56" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L56" s="1">
-        <f t="shared" si="5"/>
+      <c r="O56" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -8170,27 +9241,35 @@
         <v>6.84544</v>
       </c>
       <c r="G57">
+        <f t="shared" si="8"/>
+        <v>10241.470889208998</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>10.241470889208998</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>11.060788560345717</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="3"/>
+        <v>86.657474263303428</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="4"/>
+        <v>10.188678943563277</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0688809586049106</v>
+      </c>
+      <c r="N57" s="1">
         <f t="shared" si="6"/>
-        <v>10241.470889208998</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="1"/>
-        <v>86.657474263303428</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" si="2"/>
-        <v>10.188678943563277</v>
-      </c>
-      <c r="J57" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0688809586049106</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="4"/>
         <v>1.812543558519427E-2</v>
       </c>
-      <c r="L57" s="1">
-        <f t="shared" si="5"/>
+      <c r="O57" s="1">
+        <f t="shared" si="7"/>
         <v>6.6840398943209894E-2</v>
       </c>
     </row>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEEEC8F-8C1B-405C-AD93-5480EFFEB857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229E1F2-B6DA-4A06-8EC7-E9AD68FBD0DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CSA Scaling" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="1">'CSA Scaling'!$A$14</definedName>
+    <definedName name="_ftnref1" localSheetId="1">'CSA Scaling'!$A$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -74,15 +79,80 @@
   <si>
     <t>Module Mass [kg] +8% for plastics</t>
   </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>CSA Group</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(437 GW) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[13]</t>
+    </r>
+  </si>
+  <si>
+    <t>CSA Group Scaled</t>
+  </si>
+  <si>
+    <t>(773 GW)</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Polymers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper[1] </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>[1] Other material compositions include copper external to the module, including junction box and cabling, while currently our baseline only includes the busbar and cell stringing internal to the module.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -110,16 +180,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6235,7 +6392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -9277,4 +9434,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14664F1-E6DD-45E9-8C55-1E9289DFBD1B}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1">
+        <f>777/437</f>
+        <v>1.7780320366132722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>777</v>
+      </c>
+      <c r="E3" s="3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>27000000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>47760000</v>
+      </c>
+      <c r="D4" s="14">
+        <f>B4*$D$1</f>
+        <v>48006864.988558352</v>
+      </c>
+      <c r="E4" s="15">
+        <f>ROUND(D4,-4)</f>
+        <v>48010000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20600000</v>
+      </c>
+      <c r="C5" s="8">
+        <v>36440000</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" ref="D5:D11" si="0">B5*$D$1</f>
+        <v>36627459.954233408</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:E11" si="1">ROUND(D5,-4)</f>
+        <v>36630000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2800000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4950000</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>4978489.7025171621</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>4980000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3715000</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>3733867.2768878718</v>
+      </c>
+      <c r="E7" s="15">
+        <f>ROUND(D7,-3)</f>
+        <v>3734000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8">
+        <v>239000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>423000</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>424949.65675057209</v>
+      </c>
+      <c r="E8" s="15">
+        <f>ROUND(D8,-3)</f>
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1270000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2246000</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>2258100.6864988557</v>
+      </c>
+      <c r="E9" s="15">
+        <f>ROUND(D9,-3)</f>
+        <v>2258000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>11000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>19000</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>19558.352402745993</v>
+      </c>
+      <c r="E10" s="15">
+        <f>ROUND(D10,-2)</f>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>170000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>300000</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>302265.4462242563</v>
+      </c>
+      <c r="E11" s="15">
+        <f>ROUND(D11,-2)</f>
+        <v>302300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" location="_ftn1" display="_ftn1" xr:uid="{33F955CD-0490-452F-BCD4-CBAD6472B0BC}"/>
+    <hyperlink ref="A14" location="_ftnref1" display="_ftnref1" xr:uid="{241ABD1F-9ACB-402B-BE02-228EF1684520}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229E1F2-B6DA-4A06-8EC7-E9AD68FBD0DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DA3D1-A996-4414-B5B1-9BD07F5EBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,12 +258,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +268,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,121 +634,121 @@
                   <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8000</c:v>
+                  <c:v>8080</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8320</c:v>
+                  <c:v>8292.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8280</c:v>
+                  <c:v>8225.6625000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8240</c:v>
+                  <c:v>8158.8874999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8225</c:v>
+                  <c:v>8289.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8750</c:v>
+                  <c:v>8350.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8800</c:v>
+                  <c:v>8607.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8800</c:v>
+                  <c:v>8975.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8800</c:v>
+                  <c:v>9027</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8800</c:v>
+                  <c:v>9106.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8800</c:v>
+                  <c:v>9183.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8800</c:v>
+                  <c:v>9108.8250000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8800</c:v>
+                  <c:v>9034.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8800</c:v>
+                  <c:v>9205.2083330000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8800</c:v>
+                  <c:v>9373.8666670000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8875</c:v>
+                  <c:v>9540.0750000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8875</c:v>
+                  <c:v>9735.8083330000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8875</c:v>
+                  <c:v>9929.2083330000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8875</c:v>
+                  <c:v>10120.275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,61 +2390,61 @@
                   <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8000</c:v>
+                  <c:v>8080</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8320</c:v>
+                  <c:v>8292.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8280</c:v>
+                  <c:v>8225.6625000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8240</c:v>
+                  <c:v>8158.8874999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8225</c:v>
+                  <c:v>8289.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8750</c:v>
+                  <c:v>8350.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8800</c:v>
+                  <c:v>8607.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8800</c:v>
+                  <c:v>8975.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8800</c:v>
+                  <c:v>9027</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8800</c:v>
+                  <c:v>9106.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8800</c:v>
+                  <c:v>9183.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8800</c:v>
+                  <c:v>9108.8250000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8800</c:v>
+                  <c:v>9034.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8800</c:v>
+                  <c:v>9205.2083330000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8800</c:v>
+                  <c:v>9373.8666670000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8875</c:v>
+                  <c:v>9540.0750000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8875</c:v>
+                  <c:v>9735.8083330000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8875</c:v>
+                  <c:v>9929.2083330000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,37 +2677,37 @@
                   <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1315.058824</c:v>
+                  <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1293.617647</c:v>
+                  <c:v>1272.176471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1272.176471</c:v>
+                  <c:v>1250.7352940000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1229.294118</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1186.4117650000001</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1157.823529</c:v>
+                  <c:v>1200.705882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1129.2352940000001</c:v>
+                  <c:v>1191.176471</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1100.6470589999999</c:v>
+                  <c:v>1181.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1081.5882349999999</c:v>
+                  <c:v>1172.117647</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1062.5294120000001</c:v>
+                  <c:v>1162.5882349999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1043.4705879999999</c:v>
+                  <c:v>1153.058824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,121 +4007,121 @@
                   <c:v>11.233578934954798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.227464513484918</c:v>
+                  <c:v>11.313864513484919</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11.02659147599112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.170091814849361</c:v>
+                  <c:v>11.140607814849361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.021152287524759</c:v>
+                  <c:v>10.96246778752476</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.88861010444972</c:v>
+                  <c:v>10.80100860444972</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.838149754005078</c:v>
+                  <c:v>10.90807975400508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.37703236745284</c:v>
+                  <c:v>10.94519436745284</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.402851847950796</c:v>
+                  <c:v>11.194951847950797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.347487696964599</c:v>
+                  <c:v>11.567902990764599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.31041809526652</c:v>
+                  <c:v>11.532421625186521</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.273355019823761</c:v>
+                  <c:v>11.58121854866376</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.220201621304559</c:v>
+                  <c:v>11.63443562130456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.167036128475562</c:v>
+                  <c:v>11.53144242227556</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.128939048312558</c:v>
+                  <c:v>11.428079989552561</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.09085088507992</c:v>
+                  <c:v>11.59537235587992</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.052770617968118</c:v>
+                  <c:v>11.760026618328121</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.109442841778598</c:v>
+                  <c:v>11.925495606738599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.08511548932168</c:v>
+                  <c:v>12.122852017801682</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.317688854865718</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.060788560345717</c:v>
+                  <c:v>12.513749090265719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6392,8 +6392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7338,7 +7338,7 @@
         <v>2012</v>
       </c>
       <c r="B19">
-        <v>8000</v>
+        <v>8080</v>
       </c>
       <c r="C19">
         <v>1962.9861980000001</v>
@@ -7354,35 +7354,35 @@
       </c>
       <c r="G19">
         <f t="shared" si="8"/>
-        <v>10395.800475448999</v>
+        <v>10475.800475448999</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>10.395800475448999</v>
+        <v>10.475800475448999</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>11.227464513484918</v>
+        <v>11.313864513484919</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>76.954151042942911</v>
+        <v>77.130144077640864</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>18.882492047013031</v>
+        <v>18.73829310323768</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="5"/>
-        <v>4.0325899000278156</v>
+        <v>4.001794430721362</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="6"/>
-        <v>7.9053820515394696E-2</v>
+        <v>7.845011432071744E-2</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="7"/>
-        <v>5.1713189500857633E-2</v>
+        <v>5.131827407938086E-2</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
@@ -7442,7 +7442,7 @@
         <v>2014</v>
       </c>
       <c r="B21">
-        <v>8320</v>
+        <v>8292.7000000000007</v>
       </c>
       <c r="C21">
         <v>1592.739726</v>
@@ -7458,35 +7458,35 @@
       </c>
       <c r="G21">
         <f t="shared" si="8"/>
-        <v>10342.677606342</v>
+        <v>10315.377606342001</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>10.342677606342001</v>
+        <v>10.315377606342</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>11.170091814849361</v>
+        <v>11.140607814849361</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>80.443385327009338</v>
+        <v>80.391628076722682</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="4"/>
-        <v>15.39968455579967</v>
+        <v>15.440440348211462</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="5"/>
-        <v>4.053302403460199</v>
+        <v>4.0640296070427828</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="6"/>
-        <v>5.1648910904120472E-2</v>
+        <v>5.1785601515118136E-2</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="7"/>
-        <v>5.1978802826682949E-2</v>
+        <v>5.2116366507948091E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
@@ -7494,7 +7494,7 @@
         <v>2015</v>
       </c>
       <c r="B22">
-        <v>8280</v>
+        <v>8225.6625000000004</v>
       </c>
       <c r="C22">
         <v>1495.242424</v>
@@ -7510,35 +7510,35 @@
       </c>
       <c r="G22">
         <f t="shared" si="8"/>
-        <v>10204.770636596999</v>
+        <v>10150.433136596999</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>10.204770636596999</v>
+        <v>10.150433136597</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>11.021152287524759</v>
+        <v>10.96246778752476</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>81.138521333402011</v>
+        <v>81.037551691687796</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="4"/>
-        <v>14.652386391102867</v>
+        <v>14.73082383656083</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="5"/>
-        <v>4.1080786127281153</v>
+        <v>4.1300700606412377</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="6"/>
-        <v>4.4293524646109139E-2</v>
+        <v>4.4530637620803816E-2</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="7"/>
-        <v>5.6720138120911139E-2</v>
+        <v>5.7023773489340179E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
@@ -7546,7 +7546,7 @@
         <v>2016</v>
       </c>
       <c r="B23">
-        <v>8240</v>
+        <v>8158.8874999999998</v>
       </c>
       <c r="C23">
         <v>1412.526316</v>
@@ -7562,35 +7562,35 @@
       </c>
       <c r="G23">
         <f t="shared" si="8"/>
-        <v>10082.046393008999</v>
+        <v>10000.933893009</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>10.082046393009</v>
+        <v>10.000933893009</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>10.88861010444972</v>
+        <v>10.80100860444972</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>81.729439429218516</v>
+        <v>81.581256183518477</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="4"/>
-        <v>14.010313590497473</v>
+        <v>14.123944134731307</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="5"/>
-        <v>4.1580844171743916</v>
+        <v>4.1918085299318832</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="6"/>
-        <v>4.0663937153104318E-2</v>
+        <v>4.099374171312014E-2</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="7"/>
-        <v>6.1498625956525742E-2</v>
+        <v>6.1997410105212668E-2</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
@@ -7598,7 +7598,7 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>8225</v>
+        <v>8289.75</v>
       </c>
       <c r="C24">
         <v>1379.8208959999999</v>
@@ -7614,35 +7614,35 @@
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>10035.323846300998</v>
+        <v>10100.073846300998</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>10.035323846300999</v>
+        <v>10.100073846300999</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>10.838149754005078</v>
+        <v>10.90807975400508</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>81.96048404588079</v>
+        <v>82.076132572396958</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="4"/>
-        <v>13.74963994319525</v>
+        <v>13.661493143491606</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="5"/>
-        <v>4.1774436622144862</v>
+        <v>4.1506627216743874</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="6"/>
-        <v>4.0647520333920786E-2</v>
+        <v>4.0386935413288229E-2</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="7"/>
-        <v>7.1784828375571763E-2</v>
+        <v>7.1324627023774678E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
@@ -7650,7 +7650,7 @@
         <v>2018</v>
       </c>
       <c r="B25">
-        <v>8750</v>
+        <v>8350.15</v>
       </c>
       <c r="C25">
         <v>1361.666667</v>
@@ -7666,35 +7666,35 @@
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>10534.289229122998</v>
+        <v>10134.439229123</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>10.534289229122999</v>
+        <v>10.134439229123</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>11.37703236745284</v>
+        <v>10.94519436745284</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>83.06208240238773</v>
+        <v>82.393804049901959</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="4"/>
-        <v>12.926042159878703</v>
+        <v>13.436033669105479</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="5"/>
-        <v>3.9001682919826619</v>
+        <v>4.0540477772005357</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="6"/>
-        <v>4.0940909530723532E-2</v>
+        <v>4.2556215746070616E-2</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="7"/>
-        <v>7.0766236220197468E-2</v>
+        <v>7.3558288045949494E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
@@ -7702,7 +7702,7 @@
         <v>2019</v>
       </c>
       <c r="B26">
-        <v>8800</v>
+        <v>8607.5</v>
       </c>
       <c r="C26">
         <v>1343.6470589999999</v>
@@ -7718,35 +7718,35 @@
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>10558.196155509997</v>
+        <v>10365.696155509997</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>10.558196155509997</v>
+        <v>10.365696155509998</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>11.402851847950796</v>
+        <v>11.194951847950797</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>83.347570649249121</v>
+        <v>83.038320541786192</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="4"/>
-        <v>12.726104338370261</v>
+        <v>12.96243917284581</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="5"/>
-        <v>3.8088008668993631</v>
+        <v>3.8795336142111192</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="6"/>
-        <v>3.9280476976511249E-2</v>
+        <v>4.0009949624034209E-2</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="7"/>
-        <v>7.8243668504764191E-2</v>
+        <v>7.9696721532867942E-2</v>
       </c>
       <c r="R26" t="s">
         <v>3</v>
@@ -7769,10 +7769,10 @@
         <v>2020</v>
       </c>
       <c r="B27">
-        <v>8800</v>
+        <v>8975.5</v>
       </c>
       <c r="C27">
-        <v>1315.058824</v>
+        <v>1343.6470589999999</v>
       </c>
       <c r="D27">
         <v>380.05398330000003</v>
@@ -7785,35 +7785,35 @@
       </c>
       <c r="G27">
         <f t="shared" si="8"/>
-        <v>10506.933052745</v>
+        <v>10711.021287744999</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>10.506933052745</v>
+        <v>10.711021287745</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>11.347487696964599</v>
+        <v>11.567902990764599</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>83.754221672716824</v>
+        <v>83.796864546140952</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="4"/>
-        <v>12.516105483858897</v>
+        <v>12.544527948397711</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="5"/>
-        <v>3.6171733596485476</v>
+        <v>3.5482515914223631</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="6"/>
-        <v>3.4215174180259898E-2</v>
+        <v>3.356323686064535E-2</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="7"/>
-        <v>7.8284309595473195E-2</v>
+        <v>7.6792677178327926E-2</v>
       </c>
       <c r="Q27" t="s">
         <v>8</v>
@@ -7839,10 +7839,10 @@
         <v>2021</v>
       </c>
       <c r="B28">
-        <v>8800</v>
+        <v>9027</v>
       </c>
       <c r="C28">
-        <v>1293.617647</v>
+        <v>1272.176471</v>
       </c>
       <c r="D28">
         <v>367.38034160000001</v>
@@ -7855,35 +7855,35 @@
       </c>
       <c r="G28">
         <f t="shared" si="8"/>
-        <v>10472.609347468999</v>
+        <v>10678.168171469</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>10.472609347469</v>
+        <v>10.678168171469</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>11.31041809526652</v>
+        <v>11.532421625186521</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>84.028723960058414</v>
+        <v>84.536971651366599</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="4"/>
-        <v>12.352390928366283</v>
+        <v>11.913808160458911</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="5"/>
-        <v>3.5080115128020872</v>
+        <v>3.4404809486106767</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="6"/>
-        <v>3.1904931790542865E-2</v>
+        <v>3.1290749643066718E-2</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="7"/>
-        <v>7.8968666982681804E-2</v>
+        <v>7.7448489920741548E-2</v>
       </c>
       <c r="Q28" t="s">
         <v>9</v>
@@ -7909,10 +7909,10 @@
         <v>2022</v>
       </c>
       <c r="B29">
-        <v>8800</v>
+        <v>9106.5</v>
       </c>
       <c r="C29">
-        <v>1272.176471</v>
+        <v>1250.7352940000001</v>
       </c>
       <c r="D29">
         <v>354.70670000000001</v>
@@ -7925,35 +7925,35 @@
       </c>
       <c r="G29">
         <f t="shared" si="8"/>
-        <v>10438.291685022001</v>
+        <v>10723.350508022</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>10.438291685022001</v>
+        <v>10.723350508022</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>11.273355019823761</v>
+        <v>11.58121854866376</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>84.30498270734472</v>
+        <v>84.92215183293267</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="4"/>
-        <v>12.187592657766572</v>
+        <v>11.66366140008518</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="5"/>
-        <v>3.3981297965544672</v>
+        <v>3.307797313299127</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="6"/>
-        <v>2.9637359400859466E-2</v>
+        <v>2.884950948573109E-2</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="7"/>
-        <v>7.9657478933368928E-2</v>
+        <v>7.7539944197289323E-2</v>
       </c>
       <c r="Q29" t="s">
         <v>1</v>
@@ -7979,7 +7979,7 @@
         <v>2023</v>
       </c>
       <c r="B30">
-        <v>8800</v>
+        <v>9183.5499999999993</v>
       </c>
       <c r="C30">
         <v>1229.294118</v>
@@ -7995,35 +7995,35 @@
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>10389.075575282001</v>
+        <v>10772.625575282</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>10.389075575282</v>
+        <v>10.772625575281999</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>11.220201621304559</v>
+        <v>11.63443562130456</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>84.704360231407151</v>
+        <v>85.248948232934367</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="4"/>
-        <v>11.832564977434309</v>
+        <v>11.411276753372357</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="5"/>
-        <v>3.3544469945829651</v>
+        <v>3.235014815697586</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="6"/>
-        <v>2.7903001195766289E-2</v>
+        <v>2.6909539013882561E-2</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="7"/>
-        <v>8.0724795379807937E-2</v>
+        <v>7.7850658981809651E-2</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
@@ -8031,10 +8031,10 @@
         <v>2024</v>
       </c>
       <c r="B31">
-        <v>8800</v>
+        <v>9108.8250000000007</v>
       </c>
       <c r="C31">
-        <v>1186.4117650000001</v>
+        <v>1215</v>
       </c>
       <c r="D31">
         <v>342.2853667</v>
@@ -8047,35 +8047,35 @@
       </c>
       <c r="G31">
         <f t="shared" si="8"/>
-        <v>10339.848267107001</v>
+        <v>10677.261502107001</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>10.339848267107001</v>
+        <v>10.677261502107001</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>11.167036128475562</v>
+        <v>11.53144242227556</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>85.10763187883957</v>
+        <v>85.310498372663318</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="4"/>
-        <v>11.474169971857311</v>
+        <v>11.379322308067827</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="5"/>
-        <v>3.3103519302974109</v>
+        <v>3.2057411596827046</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="6"/>
-        <v>2.6043858066724306E-2</v>
+        <v>2.5220843438821802E-2</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="7"/>
-        <v>8.1802360938963189E-2</v>
+        <v>7.9217316147318195E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
@@ -8083,10 +8083,10 @@
         <v>2025</v>
       </c>
       <c r="B32">
-        <v>8800</v>
+        <v>9034.1</v>
       </c>
       <c r="C32">
-        <v>1157.823529</v>
+        <v>1200.705882</v>
       </c>
       <c r="D32">
         <v>336.01129950000001</v>
@@ -8099,35 +8099,35 @@
       </c>
       <c r="G32">
         <f t="shared" si="8"/>
-        <v>10304.573192881999</v>
+        <v>10581.555545882</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>10.304573192881998</v>
+        <v>10.581555545882001</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>11.128939048312558</v>
+        <v>11.428079989552561</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>85.398976117503835</v>
+        <v>85.375916242444902</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="4"/>
-        <v>11.236016352426704</v>
+        <v>11.34715852308951</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="5"/>
-        <v>3.2607978342286277</v>
+        <v>3.1754433272409059</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="6"/>
-        <v>2.4677888170628673E-2</v>
+        <v>2.4031920807613533E-2</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="7"/>
-        <v>7.9531807670220389E-2</v>
+        <v>7.7449986417066921E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -8135,10 +8135,10 @@
         <v>2026</v>
       </c>
       <c r="B33">
-        <v>8800</v>
+        <v>9205.2083330000005</v>
       </c>
       <c r="C33">
-        <v>1129.2352940000001</v>
+        <v>1191.176471</v>
       </c>
       <c r="D33">
         <v>329.73723219999999</v>
@@ -8151,35 +8151,35 @@
       </c>
       <c r="G33">
         <f t="shared" si="8"/>
-        <v>10269.306375074</v>
+        <v>10736.455885074001</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>10.269306375074001</v>
+        <v>10.736455885074001</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>11.09085088507992</v>
+        <v>11.59537235587992</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>85.692252997336325</v>
+        <v>85.737867612321068</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="4"/>
-        <v>10.996217784882894</v>
+        <v>11.094689753776134</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="5"/>
-        <v>3.2109007186731624</v>
+        <v>3.0711925399740725</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="6"/>
-        <v>2.3382905517634792E-2</v>
+        <v>2.2365501546355481E-2</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="7"/>
-        <v>7.7245593589984188E-2</v>
+        <v>7.3884592382370912E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -8187,10 +8187,10 @@
         <v>2027</v>
       </c>
       <c r="B34">
-        <v>8800</v>
+        <v>9373.8666670000002</v>
       </c>
       <c r="C34">
-        <v>1100.6470589999999</v>
+        <v>1181.6470589999999</v>
       </c>
       <c r="D34">
         <v>323.463165</v>
@@ -8203,35 +8203,35 @@
       </c>
       <c r="G34">
         <f t="shared" si="8"/>
-        <v>10234.046868488998</v>
+        <v>10888.913535489</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>10.234046868488999</v>
+        <v>10.888913535489001</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>11.052770617968118</v>
+        <v>11.760026618328121</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>85.987489729947583</v>
+        <v>86.086335762046602</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>10.754758827506762</v>
+        <v>10.851836183185695</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="5"/>
-        <v>3.1606574520970274</v>
+        <v>2.9705733629509798</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="6"/>
-        <v>2.2150421217825567E-2</v>
+        <v>2.0818279818384092E-2</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="7"/>
-        <v>7.4943569230813953E-2</v>
+        <v>7.043641199833961E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -8239,10 +8239,10 @@
         <v>2028</v>
       </c>
       <c r="B35">
-        <v>8875</v>
+        <v>9540.0750000000007</v>
       </c>
       <c r="C35">
-        <v>1081.5882349999999</v>
+        <v>1172.117647</v>
       </c>
       <c r="D35">
         <v>320.40829330000003</v>
@@ -8255,35 +8255,35 @@
       </c>
       <c r="G35">
         <f t="shared" si="8"/>
-        <v>10286.521149794999</v>
+        <v>11042.125561794999</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>10.286521149794998</v>
+        <v>11.042125561794998</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>11.109442841778598</v>
+        <v>11.925495606738599</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>86.277954137846407</v>
+        <v>86.397088555196376</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="4"/>
-        <v>10.514616353280477</v>
+        <v>10.614963943676271</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="5"/>
-        <v>3.1148362856025966</v>
+        <v>2.9016903630274848</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="6"/>
-        <v>2.0703158988230358E-2</v>
+        <v>1.9286457268412081E-2</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="7"/>
-        <v>7.1890064282299909E-2</v>
+        <v>6.697068083147098E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -8291,10 +8291,10 @@
         <v>2029</v>
       </c>
       <c r="B36">
-        <v>8875</v>
+        <v>9735.8083330000009</v>
       </c>
       <c r="C36">
-        <v>1062.5294120000001</v>
+        <v>1162.5882349999999</v>
       </c>
       <c r="D36">
         <v>317.35342170000001</v>
@@ -8307,35 +8307,35 @@
       </c>
       <c r="G36">
         <f t="shared" si="8"/>
-        <v>10263.995823446001</v>
+        <v>11224.862979446001</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>10.263995823446001</v>
+        <v>11.224862979446002</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>11.08511548932168</v>
+        <v>12.122852017801682</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>86.467299409133389</v>
+        <v>86.734317833788893</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="4"/>
-        <v>10.352005498412897</v>
+        <v>10.35725992494368</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="5"/>
-        <v>3.0919091079038727</v>
+        <v>2.8272364863705701</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="6"/>
-        <v>1.9415210676994914E-2</v>
+        <v>1.7753235978461384E-2</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="7"/>
-        <v>6.9370773872835439E-2</v>
+        <v>6.3432518918386083E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -8343,10 +8343,10 @@
         <v>2030</v>
       </c>
       <c r="B37">
-        <v>8875</v>
+        <v>9929.2083330000005</v>
       </c>
       <c r="C37">
-        <v>1043.4705879999999</v>
+        <v>1153.058824</v>
       </c>
       <c r="D37">
         <v>314.29854999999998</v>
@@ -8359,35 +8359,35 @@
       </c>
       <c r="G37">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11405.267458208999</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.405267458208998</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.317688854865718</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.058092845103801</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>10.10987973955911</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7557315174909118</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6275911247165983E-2</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>6.0019986599024994E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -8395,10 +8395,10 @@
         <v>2031</v>
       </c>
       <c r="B38">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C38">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D38">
         <v>314.29854999999998</v>
@@ -8411,35 +8411,35 @@
       </c>
       <c r="G38">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -8447,10 +8447,10 @@
         <v>2032</v>
       </c>
       <c r="B39">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C39">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D39">
         <v>314.29854999999998</v>
@@ -8463,35 +8463,35 @@
       </c>
       <c r="G39">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -8499,10 +8499,10 @@
         <v>2033</v>
       </c>
       <c r="B40">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C40">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D40">
         <v>314.29854999999998</v>
@@ -8515,35 +8515,35 @@
       </c>
       <c r="G40">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -8551,10 +8551,10 @@
         <v>2034</v>
       </c>
       <c r="B41">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C41">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D41">
         <v>314.29854999999998</v>
@@ -8567,35 +8567,35 @@
       </c>
       <c r="G41">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -8603,10 +8603,10 @@
         <v>2035</v>
       </c>
       <c r="B42">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C42">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D42">
         <v>314.29854999999998</v>
@@ -8619,35 +8619,35 @@
       </c>
       <c r="G42">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -8655,10 +8655,10 @@
         <v>2036</v>
       </c>
       <c r="B43">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C43">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D43">
         <v>314.29854999999998</v>
@@ -8671,35 +8671,35 @@
       </c>
       <c r="G43">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -8707,10 +8707,10 @@
         <v>2037</v>
       </c>
       <c r="B44">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C44">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D44">
         <v>314.29854999999998</v>
@@ -8723,35 +8723,35 @@
       </c>
       <c r="G44">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -8759,10 +8759,10 @@
         <v>2038</v>
       </c>
       <c r="B45">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C45">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D45">
         <v>314.29854999999998</v>
@@ -8775,35 +8775,35 @@
       </c>
       <c r="G45">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -8811,10 +8811,10 @@
         <v>2039</v>
       </c>
       <c r="B46">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C46">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D46">
         <v>314.29854999999998</v>
@@ -8827,35 +8827,35 @@
       </c>
       <c r="G46">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -8863,10 +8863,10 @@
         <v>2040</v>
       </c>
       <c r="B47">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C47">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D47">
         <v>314.29854999999998</v>
@@ -8879,35 +8879,35 @@
       </c>
       <c r="G47">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -8915,10 +8915,10 @@
         <v>2041</v>
       </c>
       <c r="B48">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C48">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D48">
         <v>314.29854999999998</v>
@@ -8931,35 +8931,35 @@
       </c>
       <c r="G48">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -8967,10 +8967,10 @@
         <v>2042</v>
       </c>
       <c r="B49">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C49">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D49">
         <v>314.29854999999998</v>
@@ -8983,35 +8983,35 @@
       </c>
       <c r="G49">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -9019,10 +9019,10 @@
         <v>2043</v>
       </c>
       <c r="B50">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C50">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D50">
         <v>314.29854999999998</v>
@@ -9035,35 +9035,35 @@
       </c>
       <c r="G50">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -9071,10 +9071,10 @@
         <v>2044</v>
       </c>
       <c r="B51">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C51">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D51">
         <v>314.29854999999998</v>
@@ -9087,35 +9087,35 @@
       </c>
       <c r="G51">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -9123,10 +9123,10 @@
         <v>2045</v>
       </c>
       <c r="B52">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C52">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D52">
         <v>314.29854999999998</v>
@@ -9139,35 +9139,35 @@
       </c>
       <c r="G52">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -9175,10 +9175,10 @@
         <v>2046</v>
       </c>
       <c r="B53">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C53">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D53">
         <v>314.29854999999998</v>
@@ -9191,35 +9191,35 @@
       </c>
       <c r="G53">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -9227,10 +9227,10 @@
         <v>2047</v>
       </c>
       <c r="B54">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C54">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D54">
         <v>314.29854999999998</v>
@@ -9243,35 +9243,35 @@
       </c>
       <c r="G54">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -9279,10 +9279,10 @@
         <v>2048</v>
       </c>
       <c r="B55">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C55">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D55">
         <v>314.29854999999998</v>
@@ -9295,35 +9295,35 @@
       </c>
       <c r="G55">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -9331,10 +9331,10 @@
         <v>2049</v>
       </c>
       <c r="B56">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C56">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D56">
         <v>314.29854999999998</v>
@@ -9347,35 +9347,35 @@
       </c>
       <c r="G56">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -9383,10 +9383,10 @@
         <v>2050</v>
       </c>
       <c r="B57">
-        <v>8875</v>
+        <v>10120.275</v>
       </c>
       <c r="C57">
-        <v>1043.4705879999999</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D57">
         <v>314.29854999999998</v>
@@ -9399,35 +9399,35 @@
       </c>
       <c r="G57">
         <f t="shared" si="8"/>
-        <v>10241.470889208998</v>
+        <v>11586.804713208998</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>10.241470889208998</v>
+        <v>11.586804713208998</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>11.060788560345717</v>
+        <v>12.513749090265719</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="3"/>
-        <v>86.657474263303428</v>
+        <v>87.343104941285929</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="4"/>
-        <v>10.188678943563277</v>
+        <v>9.8692386754078338</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="5"/>
-        <v>3.0688809586049106</v>
+        <v>2.7125558579726343</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="6"/>
-        <v>1.812543558519427E-2</v>
+        <v>1.6020907014026042E-2</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" si="7"/>
-        <v>6.6840398943209894E-2</v>
+        <v>5.9079618319588779E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9440,7 +9440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14664F1-E6DD-45E9-8C55-1E9289DFBD1B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E11"/>
     </sheetView>
   </sheetViews>
@@ -9458,7 +9458,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9475,7 +9475,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -9499,11 +9499,11 @@
       <c r="C4" s="8">
         <v>47760000</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f>B4*$D$1</f>
         <v>48006864.988558352</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f>ROUND(D4,-4)</f>
         <v>48010000</v>
       </c>
@@ -9518,12 +9518,12 @@
       <c r="C5" s="8">
         <v>36440000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <f t="shared" ref="D5:D11" si="0">B5*$D$1</f>
         <v>36627459.954233408</v>
       </c>
-      <c r="E5" s="15">
-        <f t="shared" ref="E5:E11" si="1">ROUND(D5,-4)</f>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E6" si="1">ROUND(D5,-4)</f>
         <v>36630000</v>
       </c>
     </row>
@@ -9537,11 +9537,11 @@
       <c r="C6" s="7">
         <v>4950000</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>4978489.7025171621</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <f t="shared" si="1"/>
         <v>4980000</v>
       </c>
@@ -9556,11 +9556,11 @@
       <c r="C7" s="7">
         <v>3715000</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>3733867.2768878718</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f>ROUND(D7,-3)</f>
         <v>3734000</v>
       </c>
@@ -9575,11 +9575,11 @@
       <c r="C8" s="7">
         <v>423000</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>424949.65675057209</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f>ROUND(D8,-3)</f>
         <v>425000</v>
       </c>
@@ -9594,11 +9594,11 @@
       <c r="C9" s="7">
         <v>2246000</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>2258100.6864988557</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f>ROUND(D9,-3)</f>
         <v>2258000</v>
       </c>
@@ -9613,11 +9613,11 @@
       <c r="C10" s="7">
         <v>19000</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>19558.352402745993</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <f>ROUND(D10,-2)</f>
         <v>19600</v>
       </c>
@@ -9632,20 +9632,20 @@
       <c r="C11" s="7">
         <v>300000</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>302265.4462242563</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <f>ROUND(D11,-2)</f>
         <v>302300</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DA3D1-A996-4414-B5B1-9BD07F5EBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC432B3-E12D-4087-927E-2E34900BFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
@@ -4318,6 +4318,2181 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Annual Module Composition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00BFBF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8080</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8292.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8225.6625000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8158.8874999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8289.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8350.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8607.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8975.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9027</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9106.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9183.5499999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9108.8250000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9034.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9205.2083330000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9373.8666670000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9540.0750000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9735.8083330000009</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9929.2083330000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10120.275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D7F-4A10-93F1-674C47718A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77BE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>3091.18541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3017.4165459999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2540.3726710000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2484.6989140000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2433.9622639999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2387.5338750000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2344.8873480000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2317.892053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2256.0192619999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2113.8328529999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2083.4794809999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2054.6821599999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027.3242250000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001.3003900000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1987.1506589999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1966.59313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1962.9861980000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1619.458128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1592.739726</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1495.242424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1412.526316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1379.8208959999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1361.666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1343.6470589999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1343.6470589999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1272.176471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1250.7352940000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1229.294118</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1200.705882</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1191.176471</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1181.6470589999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1172.117647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1162.5882349999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1153.058824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1143.5294120000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D7F-4A10-93F1-674C47718A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silicon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7F0E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>848.42142860000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>831.7857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>815.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>798.51428569999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>781.87857140000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765.24285710000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>748.60714289999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>731.97142859999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>715.33571429999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>698.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>465.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>442.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>410.85500830000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>402.1406667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380.05398330000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>367.38034160000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>354.70670000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>348.49603339999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>342.2853667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>336.01129950000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>329.73723219999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>323.463165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320.40829330000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>317.35342170000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>314.29854999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D7F-4A10-93F1-674C47718A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D62728"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.571428569999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.142857140000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.714285709999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.285714290000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.34857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.154285710000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.765714289999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.571428570000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.377142859999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.182857140000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.98857143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.79428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.327416169999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.272846810000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2182774490000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7527942139999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3418803419999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5200525970000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0997570090000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.079110301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3128338230000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1473098100000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5949654450000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3412788689999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0936340219999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8988638820000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.692895407</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.542951049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4012622069999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2668844890000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1296348279999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9927764130000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.856311209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D7F-4A10-93F1-674C47718A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CA02C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7881600000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2003199999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2038399999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.45472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.26112</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2252799999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2700800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3148800000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3865599999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.45824</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1954133329999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9325866669999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6697600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3949866670000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1202133329999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.84544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D7F-4A10-93F1-674C47718A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585770424"/>
+        <c:axId val="585766160"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="585770424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585766160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="585766160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585770424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4399,6 +6574,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5980,6 +8195,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6021,9 +8757,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144461</xdr:rowOff>
+      <xdr:rowOff>141286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -6085,6 +8821,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153988</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97D943E-3770-4B9E-9806-F0C61C650629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6392,8 +9166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC432B3-E12D-4087-927E-2E34900BFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB2361E-641B-4634-8C18-A66FAC3FEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
@@ -9167,7 +9167,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB2361E-641B-4634-8C18-A66FAC3FEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D4055-13E8-438E-BD98-66F118ECB225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>[1] Other material compositions include copper external to the module, including junction box and cabling, while currently our baseline only includes the busbar and cell stringing internal to the module.</t>
+  </si>
+  <si>
+    <t>Encapsulant</t>
   </si>
 </sst>
 </file>
@@ -3751,7 +3754,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3951,7 +3954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$57</c:f>
+              <c:f>Sheet1!$J$2:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -6299,6 +6302,391 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0D7F-4A10-93F1-674C47718A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encapsulant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>848.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>850.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>852.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>847.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>848.95500000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>851.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>849.44500000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>849.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>839.24437499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>829.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>801.36775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>773.91700000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>752.61400000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>731.46833330000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>710.48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>710.35866669999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>710.23733330000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>710.11599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDCD-4863-A09C-A37DE859BAD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8720,13 +9108,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -8756,13 +9144,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
@@ -8792,13 +9180,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
@@ -8828,13 +9216,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>153988</xdr:rowOff>
@@ -9164,22 +9552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="13" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" customWidth="1"/>
+    <col min="14" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9199,31 +9587,34 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -9243,39 +9634,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G2">
+        <v>846</v>
+      </c>
+      <c r="H2">
         <f>SUM(B2:F2)</f>
         <v>12032.982838600001</v>
       </c>
-      <c r="H2">
-        <f>G2/1000</f>
+      <c r="I2">
+        <f>H2/1000</f>
         <v>12.032982838600001</v>
       </c>
-      <c r="I2">
-        <f>H2+0.08*H2</f>
+      <c r="J2">
+        <f>I2+0.08*I2</f>
         <v>12.995621465688</v>
       </c>
-      <c r="K2" s="1">
-        <f>B2/$G2*100</f>
+      <c r="L2" s="1">
+        <f>B2/$H2*100</f>
         <v>66.483930936369333</v>
       </c>
-      <c r="L2" s="1">
-        <f>C2/$G2*100</f>
+      <c r="M2" s="1">
+        <f>C2/$H2*100</f>
         <v>25.689269663744067</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:O2" si="0">D2/$G2*100</f>
+      <c r="N2" s="1">
+        <f>D2/$H2*100</f>
         <v>7.0507989579972774</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
+      <c r="O2" s="1">
+        <f>E2/$H2*100</f>
         <v>0.73132324030006279</v>
       </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
+      <c r="P2" s="1">
+        <f>F2/$H2*100</f>
         <v>4.4677201589240205E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -9295,39 +9689,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G3">
+        <v>846</v>
+      </c>
+      <c r="H3">
         <f>SUM(B3:F3)</f>
         <v>11939.14968887</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H57" si="1">G3/1000</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I57" si="0">H3/1000</f>
         <v>11.93914968887</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I57" si="2">H3+0.08*H3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J57" si="1">I3+0.08*I3</f>
         <v>12.8942816639796</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K57" si="3">B3/$G3*100</f>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L57" si="2">B3/$H3*100</f>
         <v>67.006446928610146</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L57" si="4">C3/$G3*100</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M57" si="3">C3/$H3*100</f>
         <v>25.273295206382389</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M57" si="5">D3/$G3*100</f>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N57" si="4">D3/$H3*100</f>
         <v>6.9668756651523793</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N57" si="6">E3/$G3*100</f>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O57" si="5">E3/$H3*100</f>
         <v>0.70835386751905605</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O57" si="7">F3/$G3*100</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P57" si="6">F3/$H3*100</f>
         <v>4.5028332336026024E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -9347,39 +9744,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G57" si="8">SUM(B4:F4)</f>
+        <v>846</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H57" si="7">SUM(B4:F4)</f>
         <v>11601.668857139999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>11.60166885714</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>11.60166885714</v>
-      </c>
-      <c r="I4">
+        <v>12.5298023657112</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>12.5298023657112</v>
-      </c>
-      <c r="K4" s="1">
+        <v>68.955596806890156</v>
+      </c>
+      <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>68.955596806890156</v>
-      </c>
-      <c r="L4" s="1">
+        <v>23.27251392232543</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>23.27251392232543</v>
-      </c>
-      <c r="M4" s="1">
+        <v>7.0261443421420644</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>7.0261443421420644</v>
-      </c>
-      <c r="N4" s="1">
+        <v>0.69940676758811615</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>0.69940676758811615</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="7"/>
         <v>4.6338161054230192E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -9399,39 +9799,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G5">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
         <v>11421.977242410001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>11.421977242410001</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>11.421977242410001</v>
-      </c>
-      <c r="I5">
+        <v>12.335735421802802</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>12.335735421802802</v>
-      </c>
-      <c r="K5" s="1">
+        <v>70.040412708019232</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>70.040412708019232</v>
-      </c>
-      <c r="L5" s="1">
+        <v>22.24109378862665</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>22.24109378862665</v>
-      </c>
-      <c r="M5" s="1">
+        <v>6.9910337654596475</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>6.9910337654596475</v>
-      </c>
-      <c r="N5" s="1">
+        <v>0.68039258055466523</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>0.68039258055466523</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="7"/>
         <v>4.7067157339788931E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -9451,39 +9854,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G6">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
         <v>11346.239199690001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>11.34623919969</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>11.34623919969</v>
-      </c>
-      <c r="I6">
+        <v>12.2539383356652</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>12.2539383356652</v>
-      </c>
-      <c r="K6" s="1">
+        <v>70.507944167249477</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>70.507944167249477</v>
-      </c>
-      <c r="L6" s="1">
+        <v>21.89887653759218</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>21.89887653759218</v>
-      </c>
-      <c r="M6" s="1">
+        <v>6.8910813322299997</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>6.8910813322299997</v>
-      </c>
-      <c r="N6" s="1">
+        <v>0.65471662444794587</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>0.65471662444794587</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="7"/>
         <v>4.7381338480391652E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -9503,39 +9909,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G7">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
         <v>11249.92969253</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>11.249929692530001</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>11.249929692530001</v>
-      </c>
-      <c r="I7">
+        <v>12.149924067932401</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>12.149924067932401</v>
-      </c>
-      <c r="K7" s="1">
+        <v>71.111555526538382</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>71.111555526538382</v>
-      </c>
-      <c r="L7" s="1">
+        <v>21.635355335741881</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>21.635355335741881</v>
-      </c>
-      <c r="M7" s="1">
+        <v>6.8022012404941909</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>6.8022012404941909</v>
-      </c>
-      <c r="N7" s="1">
+        <v>0.40310093191170465</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>0.40310093191170465</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="7"/>
         <v>4.77869653138338E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -9555,39 +9964,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
         <v>11184.671303610001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>11.184671303610001</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>11.184671303610001</v>
-      </c>
-      <c r="I8">
+        <v>12.079445007898801</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>12.079445007898801</v>
-      </c>
-      <c r="K8" s="1">
+        <v>71.526464952241327</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>71.526464952241327</v>
-      </c>
-      <c r="L8" s="1">
+        <v>21.346482254059556</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>21.346482254059556</v>
-      </c>
-      <c r="M8" s="1">
+        <v>6.6931528212042952</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="5"/>
-        <v>6.6931528212042952</v>
-      </c>
-      <c r="N8" s="1">
+        <v>0.38583418804691544</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>0.38583418804691544</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="7"/>
         <v>4.8065784447906171E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -9607,39 +10019,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G9">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
         <v>11123.194776599999</v>
       </c>
-      <c r="H9">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>11.1231947766</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>11.1231947766</v>
-      </c>
-      <c r="I9">
+        <v>12.013050358728</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>12.013050358728</v>
-      </c>
-      <c r="K9" s="1">
+        <v>71.92178291105445</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>71.92178291105445</v>
-      </c>
-      <c r="L9" s="1">
+        <v>21.081059849216778</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="4"/>
-        <v>21.081059849216778</v>
-      </c>
-      <c r="M9" s="1">
+        <v>6.5805862731079499</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>6.5805862731079499</v>
-      </c>
-      <c r="N9" s="1">
+        <v>0.36823952850459885</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="6"/>
-        <v>0.36823952850459885</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="7"/>
         <v>4.8331438116228594E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -9659,39 +10074,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G10">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
         <v>11077.36948159</v>
       </c>
-      <c r="H10">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>11.077369481589999</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>11.077369481589999</v>
-      </c>
-      <c r="I10">
+        <v>11.963559040117199</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>11.963559040117199</v>
-      </c>
-      <c r="K10" s="1">
+        <v>72.219311753531159</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>72.219311753531159</v>
-      </c>
-      <c r="L10" s="1">
+        <v>20.92457109832992</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="4"/>
-        <v>20.92457109832992</v>
-      </c>
-      <c r="M10" s="1">
+        <v>6.4576316199333235</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>6.4576316199333235</v>
-      </c>
-      <c r="N10" s="1">
+        <v>0.34995415070722846</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="6"/>
-        <v>0.34995415070722846</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="7"/>
         <v>4.8531377498372941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -9711,39 +10129,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G11">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
         <v>10996.66669057</v>
       </c>
-      <c r="H11">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10.996666690570001</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>10.996666690570001</v>
-      </c>
-      <c r="I11">
+        <v>11.876400025815601</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>11.876400025815601</v>
-      </c>
-      <c r="K11" s="1">
+        <v>72.749317817009583</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>72.749317817009583</v>
-      </c>
-      <c r="L11" s="1">
+        <v>20.515482786566679</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="4"/>
-        <v>20.515482786566679</v>
-      </c>
-      <c r="M11" s="1">
+        <v>6.3537435448430752</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>6.3537435448430752</v>
-      </c>
-      <c r="N11" s="1">
+        <v>0.33256831000762432</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="6"/>
-        <v>0.33256831000762432</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="7"/>
         <v>4.8887541573030449E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -9763,39 +10184,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G12">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
         <v>10735.835995859999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>10.735835995859999</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>10.735835995859999</v>
-      </c>
-      <c r="I12">
+        <v>11.5947028755288</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>11.5947028755288</v>
-      </c>
-      <c r="K12" s="1">
+        <v>74.516786611540965</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>74.516786611540965</v>
-      </c>
-      <c r="L12" s="1">
+        <v>19.68950395493323</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="4"/>
-        <v>19.68950395493323</v>
-      </c>
-      <c r="M12" s="1">
+        <v>5.4234248755712162</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="5"/>
-        <v>5.4234248755712162</v>
-      </c>
-      <c r="N12" s="1">
+        <v>0.3202092773516349</v>
+      </c>
+      <c r="P12" s="1">
         <f t="shared" si="6"/>
-        <v>0.3202092773516349</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="7"/>
         <v>5.0075280602955533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -9815,39 +10239,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
         <v>10586.83833814</v>
       </c>
-      <c r="H13">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>10.58683833814</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>10.58683833814</v>
-      </c>
-      <c r="I13">
+        <v>11.4337854051912</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="2"/>
-        <v>11.4337854051912</v>
-      </c>
-      <c r="K13" s="1">
+        <v>75.565525272822086</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>75.565525272822086</v>
-      </c>
-      <c r="L13" s="1">
+        <v>19.679902672113968</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="4"/>
-        <v>19.679902672113968</v>
-      </c>
-      <c r="M13" s="1">
+        <v>4.3998027090100669</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>4.3998027090100669</v>
-      </c>
-      <c r="N13" s="1">
+        <v>0.30398931307053662</v>
+      </c>
+      <c r="P13" s="1">
         <f t="shared" si="6"/>
-        <v>0.30398931307053662</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="7"/>
         <v>5.078003298333645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -9867,39 +10294,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
         <v>10532.556731430001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>10.532556731430001</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>10.532556731430001</v>
-      </c>
-      <c r="I14">
+        <v>11.375161269944401</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>11.375161269944401</v>
-      </c>
-      <c r="K14" s="1">
+        <v>75.954967098609146</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>75.954967098609146</v>
-      </c>
-      <c r="L14" s="1">
+        <v>19.507914482612396</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>19.507914482612396</v>
-      </c>
-      <c r="M14" s="1">
+        <v>4.201354061350691</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="5"/>
-        <v>4.201354061350691</v>
-      </c>
-      <c r="N14" s="1">
+        <v>0.28472261953749256</v>
+      </c>
+      <c r="P14" s="1">
         <f t="shared" si="6"/>
-        <v>0.28472261953749256</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="7"/>
         <v>5.1041737890265351E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -9919,39 +10349,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
         <v>10479.71451071</v>
       </c>
-      <c r="H15">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>10.47971451071</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>10.47971451071</v>
-      </c>
-      <c r="I15">
+        <v>11.318091671566799</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="2"/>
-        <v>11.318091671566799</v>
-      </c>
-      <c r="K15" s="1">
+        <v>76.337957411189066</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>76.337957411189066</v>
-      </c>
-      <c r="L15" s="1">
+        <v>19.345223793340232</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="4"/>
-        <v>19.345223793340232</v>
-      </c>
-      <c r="M15" s="1">
+        <v>4.0002998132398346</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="5"/>
-        <v>4.0002998132398346</v>
-      </c>
-      <c r="N15" s="1">
+        <v>0.2652198748505501</v>
+      </c>
+      <c r="P15" s="1">
         <f t="shared" si="6"/>
-        <v>0.2652198748505501</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="7"/>
         <v>5.1299107380319051E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -9971,39 +10404,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
         <v>10451.49639</v>
       </c>
-      <c r="H16">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>10.451496390000001</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>10.451496390000001</v>
-      </c>
-      <c r="I16">
+        <v>11.287616101200001</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="2"/>
-        <v>11.287616101200001</v>
-      </c>
-      <c r="K16" s="1">
+        <v>76.544063179837167</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>76.544063179837167</v>
-      </c>
-      <c r="L16" s="1">
+        <v>19.148457936749093</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" si="4"/>
-        <v>19.148457936749093</v>
-      </c>
-      <c r="M16" s="1">
+        <v>4.0111002707814167</v>
+      </c>
+      <c r="O16" s="1">
         <f t="shared" si="5"/>
-        <v>4.0111002707814167</v>
-      </c>
-      <c r="N16" s="1">
+        <v>0.24494100217547893</v>
+      </c>
+      <c r="P16" s="1">
         <f t="shared" si="6"/>
-        <v>0.24494100217547893</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="7"/>
         <v>5.1437610456850573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -10023,39 +10459,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
         <v>10424.074075169998</v>
       </c>
-      <c r="H17">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>10.424074075169997</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>10.424074075169997</v>
-      </c>
-      <c r="I17">
+        <v>11.258000001183596</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="2"/>
-        <v>11.258000001183596</v>
-      </c>
-      <c r="K17" s="1">
+        <v>76.745425467149076</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>76.745425467149076</v>
-      </c>
-      <c r="L17" s="1">
+        <v>19.063090349035082</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" si="4"/>
-        <v>19.063090349035082</v>
-      </c>
-      <c r="M17" s="1">
+        <v>4.0216521580422802</v>
+      </c>
+      <c r="O17" s="1">
         <f t="shared" si="5"/>
-        <v>4.0216521580422802</v>
-      </c>
-      <c r="N17" s="1">
+        <v>0.11825909985965792</v>
+      </c>
+      <c r="P17" s="1">
         <f t="shared" si="6"/>
-        <v>0.11825909985965792</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="7"/>
         <v>5.1572925913924178E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -10075,39 +10514,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G18">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
         <v>10401.461976809998</v>
       </c>
-      <c r="H18">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>10.401461976809998</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="1"/>
-        <v>10.401461976809998</v>
-      </c>
-      <c r="I18">
+        <v>11.233578934954798</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="2"/>
-        <v>11.233578934954798</v>
-      </c>
-      <c r="K18" s="1">
+        <v>76.912265005015215</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>76.912265005015215</v>
-      </c>
-      <c r="L18" s="1">
+        <v>18.906891496450292</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="4"/>
-        <v>18.906891496450292</v>
-      </c>
-      <c r="M18" s="1">
+        <v>4.0303949669253107</v>
+      </c>
+      <c r="O18" s="1">
         <f t="shared" si="5"/>
-        <v>4.0303949669253107</v>
-      </c>
-      <c r="N18" s="1">
+        <v>9.8763489525830653E-2</v>
+      </c>
+      <c r="P18" s="1">
         <f t="shared" si="6"/>
-        <v>9.8763489525830653E-2</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="7"/>
         <v>5.1685042083370235E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -10127,39 +10569,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G19">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
         <v>10475.800475448999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>10.475800475448999</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="1"/>
-        <v>10.475800475448999</v>
-      </c>
-      <c r="I19">
+        <v>11.313864513484919</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="2"/>
-        <v>11.313864513484919</v>
-      </c>
-      <c r="K19" s="1">
+        <v>77.130144077640864</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="3"/>
-        <v>77.130144077640864</v>
-      </c>
-      <c r="L19" s="1">
+        <v>18.73829310323768</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" si="4"/>
-        <v>18.73829310323768</v>
-      </c>
-      <c r="M19" s="1">
+        <v>4.001794430721362</v>
+      </c>
+      <c r="O19" s="1">
         <f t="shared" si="5"/>
-        <v>4.001794430721362</v>
-      </c>
-      <c r="N19" s="1">
+        <v>7.845011432071744E-2</v>
+      </c>
+      <c r="P19" s="1">
         <f t="shared" si="6"/>
-        <v>7.845011432071744E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="7"/>
         <v>5.131827407938086E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -10179,39 +10624,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <v>846</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
         <v>10209.806922214</v>
       </c>
-      <c r="H20">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>10.209806922214</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
-        <v>10.209806922214</v>
-      </c>
-      <c r="I20">
+        <v>11.02659147599112</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="2"/>
-        <v>11.02659147599112</v>
-      </c>
-      <c r="K20" s="1">
+        <v>79.923156844874995</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="3"/>
-        <v>79.923156844874995</v>
-      </c>
-      <c r="L20" s="1">
+        <v>15.861789947040645</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>15.861789947040645</v>
-      </c>
-      <c r="M20" s="1">
+        <v>4.1060521829054526</v>
+      </c>
+      <c r="O20" s="1">
         <f t="shared" si="5"/>
-        <v>4.1060521829054526</v>
-      </c>
-      <c r="N20" s="1">
+        <v>5.634576890463374E-2</v>
+      </c>
+      <c r="P20" s="1">
         <f t="shared" si="6"/>
-        <v>5.634576890463374E-2</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="7"/>
         <v>5.2655256274270583E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -10231,39 +10679,42 @@
         <v>5.3760000000000003</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <v>848.09</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
         <v>10315.377606342001</v>
       </c>
-      <c r="H21">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>10.315377606342</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="1"/>
-        <v>10.315377606342</v>
-      </c>
-      <c r="I21">
+        <v>11.140607814849361</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="2"/>
-        <v>11.140607814849361</v>
-      </c>
-      <c r="K21" s="1">
+        <v>80.391628076722682</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="3"/>
-        <v>80.391628076722682</v>
-      </c>
-      <c r="L21" s="1">
+        <v>15.440440348211462</v>
+      </c>
+      <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>15.440440348211462</v>
-      </c>
-      <c r="M21" s="1">
+        <v>4.0640296070427828</v>
+      </c>
+      <c r="O21" s="1">
         <f t="shared" si="5"/>
-        <v>4.0640296070427828</v>
-      </c>
-      <c r="N21" s="1">
+        <v>5.1785601515118136E-2</v>
+      </c>
+      <c r="P21" s="1">
         <f t="shared" si="6"/>
-        <v>5.1785601515118136E-2</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="7"/>
         <v>5.2116366507948091E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -10283,39 +10734,42 @@
         <v>5.7881600000000004</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
+        <v>850.28</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
         <v>10150.433136596999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>10.150433136597</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="1"/>
-        <v>10.150433136597</v>
-      </c>
-      <c r="I22">
+        <v>10.96246778752476</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="2"/>
-        <v>10.96246778752476</v>
-      </c>
-      <c r="K22" s="1">
+        <v>81.037551691687796</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="3"/>
-        <v>81.037551691687796</v>
-      </c>
-      <c r="L22" s="1">
+        <v>14.73082383656083</v>
+      </c>
+      <c r="N22" s="1">
         <f t="shared" si="4"/>
-        <v>14.73082383656083</v>
-      </c>
-      <c r="M22" s="1">
+        <v>4.1300700606412377</v>
+      </c>
+      <c r="O22" s="1">
         <f t="shared" si="5"/>
-        <v>4.1300700606412377</v>
-      </c>
-      <c r="N22" s="1">
+        <v>4.4530637620803816E-2</v>
+      </c>
+      <c r="P22" s="1">
         <f t="shared" si="6"/>
-        <v>4.4530637620803816E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="7"/>
         <v>5.7023773489340179E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -10335,39 +10789,42 @@
         <v>6.2003199999999996</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <v>852.81</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
         <v>10000.933893009</v>
       </c>
-      <c r="H23">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>10.000933893009</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="1"/>
-        <v>10.000933893009</v>
-      </c>
-      <c r="I23">
+        <v>10.80100860444972</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="2"/>
-        <v>10.80100860444972</v>
-      </c>
-      <c r="K23" s="1">
+        <v>81.581256183518477</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="3"/>
-        <v>81.581256183518477</v>
-      </c>
-      <c r="L23" s="1">
+        <v>14.123944134731307</v>
+      </c>
+      <c r="N23" s="1">
         <f t="shared" si="4"/>
-        <v>14.123944134731307</v>
-      </c>
-      <c r="M23" s="1">
+        <v>4.1918085299318832</v>
+      </c>
+      <c r="O23" s="1">
         <f t="shared" si="5"/>
-        <v>4.1918085299318832</v>
-      </c>
-      <c r="N23" s="1">
+        <v>4.099374171312014E-2</v>
+      </c>
+      <c r="P23" s="1">
         <f t="shared" si="6"/>
-        <v>4.099374171312014E-2</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="7"/>
         <v>6.1997410105212668E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -10387,39 +10844,42 @@
         <v>7.2038399999999996</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <v>847.99</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
         <v>10100.073846300998</v>
       </c>
-      <c r="H24">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>10.100073846300999</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="1"/>
-        <v>10.100073846300999</v>
-      </c>
-      <c r="I24">
+        <v>10.90807975400508</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="2"/>
-        <v>10.90807975400508</v>
-      </c>
-      <c r="K24" s="1">
+        <v>82.076132572396958</v>
+      </c>
+      <c r="M24" s="1">
         <f t="shared" si="3"/>
-        <v>82.076132572396958</v>
-      </c>
-      <c r="L24" s="1">
+        <v>13.661493143491606</v>
+      </c>
+      <c r="N24" s="1">
         <f t="shared" si="4"/>
-        <v>13.661493143491606</v>
-      </c>
-      <c r="M24" s="1">
+        <v>4.1506627216743874</v>
+      </c>
+      <c r="O24" s="1">
         <f t="shared" si="5"/>
-        <v>4.1506627216743874</v>
-      </c>
-      <c r="N24" s="1">
+        <v>4.0386935413288229E-2</v>
+      </c>
+      <c r="P24" s="1">
         <f t="shared" si="6"/>
-        <v>4.0386935413288229E-2</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="7"/>
         <v>7.1324627023774678E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -10439,39 +10899,42 @@
         <v>7.45472</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <v>848.95500000000004</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
         <v>10134.439229123</v>
       </c>
-      <c r="H25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>10.134439229123</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="1"/>
-        <v>10.134439229123</v>
-      </c>
-      <c r="I25">
+        <v>10.94519436745284</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" si="2"/>
-        <v>10.94519436745284</v>
-      </c>
-      <c r="K25" s="1">
+        <v>82.393804049901959</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="3"/>
-        <v>82.393804049901959</v>
-      </c>
-      <c r="L25" s="1">
+        <v>13.436033669105479</v>
+      </c>
+      <c r="N25" s="1">
         <f t="shared" si="4"/>
-        <v>13.436033669105479</v>
-      </c>
-      <c r="M25" s="1">
+        <v>4.0540477772005357</v>
+      </c>
+      <c r="O25" s="1">
         <f t="shared" si="5"/>
-        <v>4.0540477772005357</v>
-      </c>
-      <c r="N25" s="1">
+        <v>4.2556215746070616E-2</v>
+      </c>
+      <c r="P25" s="1">
         <f t="shared" si="6"/>
-        <v>4.2556215746070616E-2</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="7"/>
         <v>7.3558288045949494E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -10491,54 +10954,57 @@
         <v>8.26112</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <v>851.31</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
         <v>10365.696155509997</v>
       </c>
-      <c r="H26">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>10.365696155509998</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="1"/>
-        <v>10.365696155509998</v>
-      </c>
-      <c r="I26">
+        <v>11.194951847950797</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="2"/>
-        <v>11.194951847950797</v>
-      </c>
-      <c r="K26" s="1">
+        <v>83.038320541786192</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="3"/>
-        <v>83.038320541786192</v>
-      </c>
-      <c r="L26" s="1">
+        <v>12.96243917284581</v>
+      </c>
+      <c r="N26" s="1">
         <f t="shared" si="4"/>
-        <v>12.96243917284581</v>
-      </c>
-      <c r="M26" s="1">
+        <v>3.8795336142111192</v>
+      </c>
+      <c r="O26" s="1">
         <f t="shared" si="5"/>
-        <v>3.8795336142111192</v>
-      </c>
-      <c r="N26" s="1">
+        <v>4.0009949624034209E-2</v>
+      </c>
+      <c r="P26" s="1">
         <f t="shared" si="6"/>
-        <v>4.0009949624034209E-2</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="7"/>
         <v>7.9696721532867942E-2</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>3</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>4</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>7</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>2</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -10558,57 +11024,60 @@
         <v>8.2252799999999997</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
+        <v>849.44500000000005</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
         <v>10711.021287744999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>10.711021287745</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="1"/>
-        <v>10.711021287745</v>
-      </c>
-      <c r="I27">
+        <v>11.567902990764599</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="2"/>
-        <v>11.567902990764599</v>
-      </c>
-      <c r="K27" s="1">
+        <v>83.796864546140952</v>
+      </c>
+      <c r="M27" s="1">
         <f t="shared" si="3"/>
-        <v>83.796864546140952</v>
-      </c>
-      <c r="L27" s="1">
+        <v>12.544527948397711</v>
+      </c>
+      <c r="N27" s="1">
         <f t="shared" si="4"/>
-        <v>12.544527948397711</v>
-      </c>
-      <c r="M27" s="1">
+        <v>3.5482515914223631</v>
+      </c>
+      <c r="O27" s="1">
         <f t="shared" si="5"/>
-        <v>3.5482515914223631</v>
-      </c>
-      <c r="N27" s="1">
+        <v>3.356323686064535E-2</v>
+      </c>
+      <c r="P27" s="1">
         <f t="shared" si="6"/>
-        <v>3.356323686064535E-2</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="7"/>
         <v>7.6792677178327926E-2</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>8</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>255</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>31</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>44</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -10628,57 +11097,60 @@
         <v>8.2700800000000001</v>
       </c>
       <c r="G28">
-        <f t="shared" si="8"/>
+        <v>849.14499999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
         <v>10678.168171469</v>
       </c>
-      <c r="H28">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>10.678168171469</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="1"/>
-        <v>10.678168171469</v>
-      </c>
-      <c r="I28">
+        <v>11.532421625186521</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="2"/>
-        <v>11.532421625186521</v>
-      </c>
-      <c r="K28" s="1">
+        <v>84.536971651366599</v>
+      </c>
+      <c r="M28" s="1">
         <f t="shared" si="3"/>
-        <v>84.536971651366599</v>
-      </c>
-      <c r="L28" s="1">
+        <v>11.913808160458911</v>
+      </c>
+      <c r="N28" s="1">
         <f t="shared" si="4"/>
-        <v>11.913808160458911</v>
-      </c>
-      <c r="M28" s="1">
+        <v>3.4404809486106767</v>
+      </c>
+      <c r="O28" s="1">
         <f t="shared" si="5"/>
-        <v>3.4404809486106767</v>
-      </c>
-      <c r="N28" s="1">
+        <v>3.1290749643066718E-2</v>
+      </c>
+      <c r="P28" s="1">
         <f t="shared" si="6"/>
-        <v>3.1290749643066718E-2</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="7"/>
         <v>7.7448489920741548E-2</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>9</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>191</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>127</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>119</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>160</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -10698,57 +11170,60 @@
         <v>8.3148800000000005</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
+        <v>839.24437499999999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
         <v>10723.350508022</v>
       </c>
-      <c r="H29">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>10.723350508022</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="1"/>
-        <v>10.723350508022</v>
-      </c>
-      <c r="I29">
+        <v>11.58121854866376</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="2"/>
-        <v>11.58121854866376</v>
-      </c>
-      <c r="K29" s="1">
+        <v>84.92215183293267</v>
+      </c>
+      <c r="M29" s="1">
         <f t="shared" si="3"/>
-        <v>84.92215183293267</v>
-      </c>
-      <c r="L29" s="1">
+        <v>11.66366140008518</v>
+      </c>
+      <c r="N29" s="1">
         <f t="shared" si="4"/>
-        <v>11.66366140008518</v>
-      </c>
-      <c r="M29" s="1">
+        <v>3.307797313299127</v>
+      </c>
+      <c r="O29" s="1">
         <f t="shared" si="5"/>
-        <v>3.307797313299127</v>
-      </c>
-      <c r="N29" s="1">
+        <v>2.884950948573109E-2</v>
+      </c>
+      <c r="P29" s="1">
         <f t="shared" si="6"/>
-        <v>2.884950948573109E-2</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="7"/>
         <v>7.7539944197289323E-2</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>1</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>191</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>14</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>190</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>44</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -10768,39 +11243,42 @@
         <v>8.3865599999999993</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <v>829.23500000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
         <v>10772.625575282</v>
       </c>
-      <c r="H30">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>10.772625575281999</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="1"/>
-        <v>10.772625575281999</v>
-      </c>
-      <c r="I30">
+        <v>11.63443562130456</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="2"/>
-        <v>11.63443562130456</v>
-      </c>
-      <c r="K30" s="1">
+        <v>85.248948232934367</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="3"/>
-        <v>85.248948232934367</v>
-      </c>
-      <c r="L30" s="1">
+        <v>11.411276753372357</v>
+      </c>
+      <c r="N30" s="1">
         <f t="shared" si="4"/>
-        <v>11.411276753372357</v>
-      </c>
-      <c r="M30" s="1">
+        <v>3.235014815697586</v>
+      </c>
+      <c r="O30" s="1">
         <f t="shared" si="5"/>
-        <v>3.235014815697586</v>
-      </c>
-      <c r="N30" s="1">
+        <v>2.6909539013882561E-2</v>
+      </c>
+      <c r="P30" s="1">
         <f t="shared" si="6"/>
-        <v>2.6909539013882561E-2</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="7"/>
         <v>7.7850658981809651E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -10820,39 +11298,42 @@
         <v>8.45824</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
+        <v>801.36775</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
         <v>10677.261502107001</v>
       </c>
-      <c r="H31">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>10.677261502107001</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="1"/>
-        <v>10.677261502107001</v>
-      </c>
-      <c r="I31">
+        <v>11.53144242227556</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="2"/>
-        <v>11.53144242227556</v>
-      </c>
-      <c r="K31" s="1">
+        <v>85.310498372663318</v>
+      </c>
+      <c r="M31" s="1">
         <f t="shared" si="3"/>
-        <v>85.310498372663318</v>
-      </c>
-      <c r="L31" s="1">
+        <v>11.379322308067827</v>
+      </c>
+      <c r="N31" s="1">
         <f t="shared" si="4"/>
-        <v>11.379322308067827</v>
-      </c>
-      <c r="M31" s="1">
+        <v>3.2057411596827046</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" si="5"/>
-        <v>3.2057411596827046</v>
-      </c>
-      <c r="N31" s="1">
+        <v>2.5220843438821802E-2</v>
+      </c>
+      <c r="P31" s="1">
         <f t="shared" si="6"/>
-        <v>2.5220843438821802E-2</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="7"/>
         <v>7.9217316147318195E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -10872,39 +11353,42 @@
         <v>8.1954133329999994</v>
       </c>
       <c r="G32">
-        <f t="shared" si="8"/>
+        <v>773.91700000000003</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
         <v>10581.555545882</v>
       </c>
-      <c r="H32">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>10.581555545882001</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="1"/>
-        <v>10.581555545882001</v>
-      </c>
-      <c r="I32">
+        <v>11.428079989552561</v>
+      </c>
+      <c r="L32" s="1">
         <f t="shared" si="2"/>
-        <v>11.428079989552561</v>
-      </c>
-      <c r="K32" s="1">
+        <v>85.375916242444902</v>
+      </c>
+      <c r="M32" s="1">
         <f t="shared" si="3"/>
-        <v>85.375916242444902</v>
-      </c>
-      <c r="L32" s="1">
+        <v>11.34715852308951</v>
+      </c>
+      <c r="N32" s="1">
         <f t="shared" si="4"/>
-        <v>11.34715852308951</v>
-      </c>
-      <c r="M32" s="1">
+        <v>3.1754433272409059</v>
+      </c>
+      <c r="O32" s="1">
         <f t="shared" si="5"/>
-        <v>3.1754433272409059</v>
-      </c>
-      <c r="N32" s="1">
+        <v>2.4031920807613533E-2</v>
+      </c>
+      <c r="P32" s="1">
         <f t="shared" si="6"/>
-        <v>2.4031920807613533E-2</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" si="7"/>
         <v>7.7449986417066921E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -10924,39 +11408,42 @@
         <v>7.9325866669999998</v>
       </c>
       <c r="G33">
-        <f t="shared" si="8"/>
+        <v>752.61400000000003</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
         <v>10736.455885074001</v>
       </c>
-      <c r="H33">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>10.736455885074001</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="1"/>
-        <v>10.736455885074001</v>
-      </c>
-      <c r="I33">
+        <v>11.59537235587992</v>
+      </c>
+      <c r="L33" s="1">
         <f t="shared" si="2"/>
-        <v>11.59537235587992</v>
-      </c>
-      <c r="K33" s="1">
+        <v>85.737867612321068</v>
+      </c>
+      <c r="M33" s="1">
         <f t="shared" si="3"/>
-        <v>85.737867612321068</v>
-      </c>
-      <c r="L33" s="1">
+        <v>11.094689753776134</v>
+      </c>
+      <c r="N33" s="1">
         <f t="shared" si="4"/>
-        <v>11.094689753776134</v>
-      </c>
-      <c r="M33" s="1">
+        <v>3.0711925399740725</v>
+      </c>
+      <c r="O33" s="1">
         <f t="shared" si="5"/>
-        <v>3.0711925399740725</v>
-      </c>
-      <c r="N33" s="1">
+        <v>2.2365501546355481E-2</v>
+      </c>
+      <c r="P33" s="1">
         <f t="shared" si="6"/>
-        <v>2.2365501546355481E-2</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" si="7"/>
         <v>7.3884592382370912E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -10976,39 +11463,42 @@
         <v>7.6697600000000001</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
+        <v>731.46833330000004</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
         <v>10888.913535489</v>
       </c>
-      <c r="H34">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>10.888913535489001</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="1"/>
-        <v>10.888913535489001</v>
-      </c>
-      <c r="I34">
+        <v>11.760026618328121</v>
+      </c>
+      <c r="L34" s="1">
         <f t="shared" si="2"/>
-        <v>11.760026618328121</v>
-      </c>
-      <c r="K34" s="1">
+        <v>86.086335762046602</v>
+      </c>
+      <c r="M34" s="1">
         <f t="shared" si="3"/>
-        <v>86.086335762046602</v>
-      </c>
-      <c r="L34" s="1">
+        <v>10.851836183185695</v>
+      </c>
+      <c r="N34" s="1">
         <f t="shared" si="4"/>
-        <v>10.851836183185695</v>
-      </c>
-      <c r="M34" s="1">
+        <v>2.9705733629509798</v>
+      </c>
+      <c r="O34" s="1">
         <f t="shared" si="5"/>
-        <v>2.9705733629509798</v>
-      </c>
-      <c r="N34" s="1">
+        <v>2.0818279818384092E-2</v>
+      </c>
+      <c r="P34" s="1">
         <f t="shared" si="6"/>
-        <v>2.0818279818384092E-2</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" si="7"/>
         <v>7.043641199833961E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -11028,39 +11518,42 @@
         <v>7.3949866670000004</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
+        <v>710.48</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
         <v>11042.125561794999</v>
       </c>
-      <c r="H35">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>11.042125561794998</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="1"/>
-        <v>11.042125561794998</v>
-      </c>
-      <c r="I35">
+        <v>11.925495606738599</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" si="2"/>
-        <v>11.925495606738599</v>
-      </c>
-      <c r="K35" s="1">
+        <v>86.397088555196376</v>
+      </c>
+      <c r="M35" s="1">
         <f t="shared" si="3"/>
-        <v>86.397088555196376</v>
-      </c>
-      <c r="L35" s="1">
+        <v>10.614963943676271</v>
+      </c>
+      <c r="N35" s="1">
         <f t="shared" si="4"/>
-        <v>10.614963943676271</v>
-      </c>
-      <c r="M35" s="1">
+        <v>2.9016903630274848</v>
+      </c>
+      <c r="O35" s="1">
         <f t="shared" si="5"/>
-        <v>2.9016903630274848</v>
-      </c>
-      <c r="N35" s="1">
+        <v>1.9286457268412081E-2</v>
+      </c>
+      <c r="P35" s="1">
         <f t="shared" si="6"/>
-        <v>1.9286457268412081E-2</v>
-      </c>
-      <c r="O35" s="1">
-        <f t="shared" si="7"/>
         <v>6.697068083147098E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -11080,39 +11573,42 @@
         <v>7.1202133329999997</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
+        <v>710.35866669999996</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
         <v>11224.862979446001</v>
       </c>
-      <c r="H36">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>11.224862979446002</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="1"/>
-        <v>11.224862979446002</v>
-      </c>
-      <c r="I36">
+        <v>12.122852017801682</v>
+      </c>
+      <c r="L36" s="1">
         <f t="shared" si="2"/>
-        <v>12.122852017801682</v>
-      </c>
-      <c r="K36" s="1">
+        <v>86.734317833788893</v>
+      </c>
+      <c r="M36" s="1">
         <f t="shared" si="3"/>
-        <v>86.734317833788893</v>
-      </c>
-      <c r="L36" s="1">
+        <v>10.35725992494368</v>
+      </c>
+      <c r="N36" s="1">
         <f t="shared" si="4"/>
-        <v>10.35725992494368</v>
-      </c>
-      <c r="M36" s="1">
+        <v>2.8272364863705701</v>
+      </c>
+      <c r="O36" s="1">
         <f t="shared" si="5"/>
-        <v>2.8272364863705701</v>
-      </c>
-      <c r="N36" s="1">
+        <v>1.7753235978461384E-2</v>
+      </c>
+      <c r="P36" s="1">
         <f t="shared" si="6"/>
-        <v>1.7753235978461384E-2</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="7"/>
         <v>6.3432518918386083E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -11132,39 +11628,42 @@
         <v>6.84544</v>
       </c>
       <c r="G37">
-        <f t="shared" si="8"/>
+        <v>710.23733330000005</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
         <v>11405.267458208999</v>
       </c>
-      <c r="H37">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>11.405267458208998</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="1"/>
-        <v>11.405267458208998</v>
-      </c>
-      <c r="I37">
+        <v>12.317688854865718</v>
+      </c>
+      <c r="L37" s="1">
         <f t="shared" si="2"/>
-        <v>12.317688854865718</v>
-      </c>
-      <c r="K37" s="1">
+        <v>87.058092845103801</v>
+      </c>
+      <c r="M37" s="1">
         <f t="shared" si="3"/>
-        <v>87.058092845103801</v>
-      </c>
-      <c r="L37" s="1">
+        <v>10.10987973955911</v>
+      </c>
+      <c r="N37" s="1">
         <f t="shared" si="4"/>
-        <v>10.10987973955911</v>
-      </c>
-      <c r="M37" s="1">
+        <v>2.7557315174909118</v>
+      </c>
+      <c r="O37" s="1">
         <f t="shared" si="5"/>
-        <v>2.7557315174909118</v>
-      </c>
-      <c r="N37" s="1">
+        <v>1.6275911247165983E-2</v>
+      </c>
+      <c r="P37" s="1">
         <f t="shared" si="6"/>
-        <v>1.6275911247165983E-2</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" si="7"/>
         <v>6.0019986599024994E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -11184,39 +11683,42 @@
         <v>6.84544</v>
       </c>
       <c r="G38">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H38">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I38">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L38" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K38" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M38" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L38" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N38" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M38" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O38" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N38" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P38" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -11236,39 +11738,42 @@
         <v>6.84544</v>
       </c>
       <c r="G39">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H39">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I39">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K39" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M39" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L39" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N39" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M39" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O39" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N39" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P39" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -11288,39 +11793,42 @@
         <v>6.84544</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H40">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I40">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L40" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K40" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M40" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L40" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N40" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M40" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O40" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N40" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P40" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -11340,39 +11848,42 @@
         <v>6.84544</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H41">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I41">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L41" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K41" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M41" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L41" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N41" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M41" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O41" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N41" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P41" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -11392,39 +11903,42 @@
         <v>6.84544</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H42">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I42">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L42" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K42" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M42" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L42" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N42" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M42" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O42" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N42" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P42" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -11444,39 +11958,42 @@
         <v>6.84544</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H43">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I43">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L43" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K43" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M43" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L43" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M43" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O43" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N43" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P43" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -11496,39 +12013,42 @@
         <v>6.84544</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H44">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I44">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L44" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K44" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M44" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L44" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N44" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M44" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O44" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N44" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P44" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -11548,39 +12068,42 @@
         <v>6.84544</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H45">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I45">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L45" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K45" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M45" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L45" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N45" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M45" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O45" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N45" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P45" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -11600,39 +12123,42 @@
         <v>6.84544</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H46">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I46">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L46" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K46" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M46" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L46" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N46" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M46" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O46" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N46" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P46" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -11652,39 +12178,42 @@
         <v>6.84544</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H47">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I47">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L47" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K47" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M47" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L47" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N47" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M47" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O47" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N47" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P47" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O47" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -11704,39 +12233,42 @@
         <v>6.84544</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H48">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I48">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L48" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K48" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M48" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L48" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N48" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M48" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O48" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N48" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P48" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O48" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -11756,39 +12288,42 @@
         <v>6.84544</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H49">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I49">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L49" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K49" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M49" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L49" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N49" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M49" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O49" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N49" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P49" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O49" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -11808,39 +12343,42 @@
         <v>6.84544</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H50">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I50">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L50" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K50" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M50" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L50" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N50" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M50" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O50" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N50" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P50" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O50" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -11860,39 +12398,42 @@
         <v>6.84544</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H51">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I51">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L51" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K51" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M51" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L51" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N51" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M51" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O51" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N51" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P51" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O51" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -11912,39 +12453,42 @@
         <v>6.84544</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H52">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I52">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L52" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K52" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M52" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L52" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N52" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M52" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O52" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N52" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P52" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -11964,39 +12508,42 @@
         <v>6.84544</v>
       </c>
       <c r="G53">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H53">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I53">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L53" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K53" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M53" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L53" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N53" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M53" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O53" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N53" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P53" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -12016,39 +12563,42 @@
         <v>6.84544</v>
       </c>
       <c r="G54">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H54">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I54">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K54" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M54" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L54" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N54" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M54" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O54" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N54" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P54" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -12068,39 +12618,42 @@
         <v>6.84544</v>
       </c>
       <c r="G55">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H55">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I55">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K55" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M55" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L55" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N55" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M55" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O55" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N55" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P55" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -12120,39 +12673,42 @@
         <v>6.84544</v>
       </c>
       <c r="G56">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H56">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I56">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L56" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K56" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M56" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L56" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N56" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M56" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O56" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N56" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P56" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -12172,35 +12728,38 @@
         <v>6.84544</v>
       </c>
       <c r="G57">
-        <f t="shared" si="8"/>
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="H57">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>11.586804713208998</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="1"/>
-        <v>11.586804713208998</v>
-      </c>
-      <c r="I57">
+        <v>12.513749090265719</v>
+      </c>
+      <c r="L57" s="1">
         <f t="shared" si="2"/>
-        <v>12.513749090265719</v>
-      </c>
-      <c r="K57" s="1">
+        <v>87.343104941285929</v>
+      </c>
+      <c r="M57" s="1">
         <f t="shared" si="3"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="L57" s="1">
+        <v>9.8692386754078338</v>
+      </c>
+      <c r="N57" s="1">
         <f t="shared" si="4"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="M57" s="1">
+        <v>2.7125558579726343</v>
+      </c>
+      <c r="O57" s="1">
         <f t="shared" si="5"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="N57" s="1">
+        <v>1.6020907014026042E-2</v>
+      </c>
+      <c r="P57" s="1">
         <f t="shared" si="6"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="O57" s="1">
-        <f t="shared" si="7"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\CircularEconomy-MassFlowCalculator\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D4055-13E8-438E-BD98-66F118ECB225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676EC985-6439-427D-8009-24899C71BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -124,12 +124,42 @@
   <si>
     <t>Encapsulant</t>
   </si>
+  <si>
+    <t>Backsheets</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>Thcikness</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Volume for 1 m2 of panel</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>g/cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK ENCAPSULANT </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +189,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -277,6 +320,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3754,7 +3799,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3954,7 +3999,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$57</c:f>
+              <c:f>Sheet1!$K$2:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -4335,56 +4380,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Annual Module Composition</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -6687,6 +6683,214 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FDCD-4863-A09C-A37DE859BAD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backsheets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CAB-4734-AFD9-03E580E9CC83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6710,13 +6914,15 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:alpha val="99000"/>
+              </a:sysClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6767,14 +6973,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Module Composition [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6801,9 +7058,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="15875">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -9108,13 +9365,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -9144,13 +9401,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
@@ -9180,13 +9437,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
@@ -9216,16 +9473,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>153988</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9552,22 +9809,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:AH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="M23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="11" max="11" width="2.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" customWidth="1"/>
-    <col min="14" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9590,31 +9848,37 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
+      <c r="AD1" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -9637,39 +9901,51 @@
         <v>846</v>
       </c>
       <c r="H2">
+        <v>532</v>
+      </c>
+      <c r="I2">
         <f>SUM(B2:F2)</f>
         <v>12032.982838600001</v>
       </c>
-      <c r="I2">
-        <f>H2/1000</f>
+      <c r="J2">
+        <f>I2/1000</f>
         <v>12.032982838600001</v>
       </c>
-      <c r="J2">
-        <f>I2+0.08*I2</f>
+      <c r="K2">
+        <f>J2+0.08*J2</f>
         <v>12.995621465688</v>
       </c>
-      <c r="L2" s="1">
-        <f>B2/$H2*100</f>
+      <c r="M2" s="1">
+        <f>B2/$I2*100</f>
         <v>66.483930936369333</v>
       </c>
-      <c r="M2" s="1">
-        <f>C2/$H2*100</f>
+      <c r="N2" s="1">
+        <f>C2/$I2*100</f>
         <v>25.689269663744067</v>
       </c>
-      <c r="N2" s="1">
-        <f>D2/$H2*100</f>
+      <c r="O2" s="1">
+        <f>D2/$I2*100</f>
         <v>7.0507989579972774</v>
       </c>
-      <c r="O2" s="1">
-        <f>E2/$H2*100</f>
+      <c r="P2" s="1">
+        <f>E2/$I2*100</f>
         <v>0.73132324030006279</v>
       </c>
-      <c r="P2" s="1">
-        <f>F2/$H2*100</f>
+      <c r="Q2" s="1">
+        <f>F2/$I2*100</f>
         <v>4.4677201589240205E-2</v>
       </c>
+      <c r="AD2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2">
+        <v>380</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -9692,39 +9968,59 @@
         <v>846</v>
       </c>
       <c r="H3">
+        <v>532</v>
+      </c>
+      <c r="I3">
         <f>SUM(B3:F3)</f>
         <v>11939.14968887</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I57" si="0">H3/1000</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J57" si="0">I3/1000</f>
         <v>11.93914968887</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J57" si="1">I3+0.08*I3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K57" si="1">J3+0.08*J3</f>
         <v>12.8942816639796</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L57" si="2">B3/$H3*100</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M57" si="2">B3/$I3*100</f>
         <v>67.006446928610146</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M57" si="3">C3/$H3*100</f>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N57" si="3">C3/$I3*100</f>
         <v>25.273295206382389</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N57" si="4">D3/$H3*100</f>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O57" si="4">D3/$I3*100</f>
         <v>6.9668756651523793</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O57" si="5">E3/$H3*100</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P57" si="5">E3/$I3*100</f>
         <v>0.70835386751905605</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P57" si="6">F3/$H3*100</f>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q57" si="6">F3/$I3*100</f>
         <v>4.5028332336026024E-2</v>
       </c>
+      <c r="AD3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3">
+        <f>1*1*AE2/1000000</f>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3">
+        <f>AE3*AG5</f>
+        <v>380</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -9747,39 +10043,51 @@
         <v>846</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H57" si="7">SUM(B4:F4)</f>
+        <v>532</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I57" si="7">SUM(B4:F4)</f>
         <v>11601.668857139999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>11.60166885714</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>12.5298023657112</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="2"/>
         <v>68.955596806890156</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="3"/>
         <v>23.27251392232543</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="4"/>
         <v>7.0261443421420644</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="5"/>
         <v>0.69940676758811615</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <f t="shared" si="6"/>
         <v>4.6338161054230192E-2</v>
       </c>
+      <c r="AD4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -9802,39 +10110,54 @@
         <v>846</v>
       </c>
       <c r="H5">
+        <v>532</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="7"/>
         <v>11421.977242410001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>11.421977242410001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>12.335735421802802</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="2"/>
         <v>70.040412708019232</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="3"/>
         <v>22.24109378862665</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="4"/>
         <v>6.9910337654596475</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="5"/>
         <v>0.68039258055466523</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="6"/>
         <v>4.7067157339788931E-2</v>
       </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5">
+        <v>1000000</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -9857,39 +10180,52 @@
         <v>846</v>
       </c>
       <c r="H6">
+        <v>532</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="7"/>
         <v>11346.239199690001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>11.34623919969</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>12.2539383356652</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
         <v>70.507944167249477</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="3"/>
         <v>21.89887653759218</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="4"/>
         <v>6.8910813322299997</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="5"/>
         <v>0.65471662444794587</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="6"/>
         <v>4.7381338480391652E-2</v>
       </c>
+      <c r="AD6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE6">
+        <f>AG3*AE4</f>
+        <v>532</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -9912,39 +10248,42 @@
         <v>846</v>
       </c>
       <c r="H7">
+        <v>532</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="7"/>
         <v>11249.92969253</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>11.249929692530001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>12.149924067932401</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="2"/>
         <v>71.111555526538382</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="3"/>
         <v>21.635355335741881</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <f t="shared" si="4"/>
         <v>6.8022012404941909</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="5"/>
         <v>0.40310093191170465</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="6"/>
         <v>4.77869653138338E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -9967,39 +10306,42 @@
         <v>846</v>
       </c>
       <c r="H8">
+        <v>532</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="7"/>
         <v>11184.671303610001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>11.184671303610001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>12.079445007898801</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="2"/>
         <v>71.526464952241327</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="3"/>
         <v>21.346482254059556</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <f t="shared" si="4"/>
         <v>6.6931528212042952</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="5"/>
         <v>0.38583418804691544</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="6"/>
         <v>4.8065784447906171E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -10022,39 +10364,42 @@
         <v>846</v>
       </c>
       <c r="H9">
+        <v>532</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="7"/>
         <v>11123.194776599999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>11.1231947766</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>12.013050358728</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="2"/>
         <v>71.92178291105445</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="3"/>
         <v>21.081059849216778</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <f t="shared" si="4"/>
         <v>6.5805862731079499</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="5"/>
         <v>0.36823952850459885</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <f t="shared" si="6"/>
         <v>4.8331438116228594E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -10077,39 +10422,42 @@
         <v>846</v>
       </c>
       <c r="H10">
+        <v>532</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="7"/>
         <v>11077.36948159</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>11.077369481589999</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>11.963559040117199</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="2"/>
         <v>72.219311753531159</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="3"/>
         <v>20.92457109832992</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <f t="shared" si="4"/>
         <v>6.4576316199333235</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="5"/>
         <v>0.34995415070722846</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="6"/>
         <v>4.8531377498372941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -10132,39 +10480,42 @@
         <v>846</v>
       </c>
       <c r="H11">
+        <v>532</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="7"/>
         <v>10996.66669057</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>10.996666690570001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>11.876400025815601</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="2"/>
         <v>72.749317817009583</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="3"/>
         <v>20.515482786566679</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <f t="shared" si="4"/>
         <v>6.3537435448430752</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="5"/>
         <v>0.33256831000762432</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="6"/>
         <v>4.8887541573030449E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -10187,39 +10538,42 @@
         <v>846</v>
       </c>
       <c r="H12">
+        <v>532</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="7"/>
         <v>10735.835995859999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>10.735835995859999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>11.5947028755288</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="2"/>
         <v>74.516786611540965</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="3"/>
         <v>19.68950395493323</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <f t="shared" si="4"/>
         <v>5.4234248755712162</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <f t="shared" si="5"/>
         <v>0.3202092773516349</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="6"/>
         <v>5.0075280602955533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -10242,39 +10596,42 @@
         <v>846</v>
       </c>
       <c r="H13">
+        <v>532</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="7"/>
         <v>10586.83833814</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>10.58683833814</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>11.4337854051912</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="2"/>
         <v>75.565525272822086</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="3"/>
         <v>19.679902672113968</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <f t="shared" si="4"/>
         <v>4.3998027090100669</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="5"/>
         <v>0.30398931307053662</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="6"/>
         <v>5.078003298333645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -10297,39 +10654,42 @@
         <v>846</v>
       </c>
       <c r="H14">
+        <v>532</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="7"/>
         <v>10532.556731430001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>10.532556731430001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>11.375161269944401</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="2"/>
         <v>75.954967098609146</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="3"/>
         <v>19.507914482612396</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <f t="shared" si="4"/>
         <v>4.201354061350691</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="5"/>
         <v>0.28472261953749256</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <f t="shared" si="6"/>
         <v>5.1041737890265351E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -10352,39 +10712,42 @@
         <v>846</v>
       </c>
       <c r="H15">
+        <v>532</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="7"/>
         <v>10479.71451071</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>10.47971451071</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>11.318091671566799</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <f t="shared" si="2"/>
         <v>76.337957411189066</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="3"/>
         <v>19.345223793340232</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <f t="shared" si="4"/>
         <v>4.0002998132398346</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="5"/>
         <v>0.2652198748505501</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="6"/>
         <v>5.1299107380319051E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -10407,39 +10770,42 @@
         <v>846</v>
       </c>
       <c r="H16">
+        <v>532</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="7"/>
         <v>10451.49639</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>10.451496390000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>11.287616101200001</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <f t="shared" si="2"/>
         <v>76.544063179837167</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="3"/>
         <v>19.148457936749093</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <f t="shared" si="4"/>
         <v>4.0111002707814167</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <f t="shared" si="5"/>
         <v>0.24494100217547893</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="6"/>
         <v>5.1437610456850573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -10462,39 +10828,42 @@
         <v>846</v>
       </c>
       <c r="H17">
+        <v>532</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="7"/>
         <v>10424.074075169998</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>10.424074075169997</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>11.258000001183596</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <f t="shared" si="2"/>
         <v>76.745425467149076</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="3"/>
         <v>19.063090349035082</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <f t="shared" si="4"/>
         <v>4.0216521580422802</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="5"/>
         <v>0.11825909985965792</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="6"/>
         <v>5.1572925913924178E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -10517,39 +10886,42 @@
         <v>846</v>
       </c>
       <c r="H18">
+        <v>532</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="7"/>
         <v>10401.461976809998</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>10.401461976809998</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>11.233578934954798</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <f t="shared" si="2"/>
         <v>76.912265005015215</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="3"/>
         <v>18.906891496450292</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <f t="shared" si="4"/>
         <v>4.0303949669253107</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <f t="shared" si="5"/>
         <v>9.8763489525830653E-2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="6"/>
         <v>5.1685042083370235E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -10572,39 +10944,42 @@
         <v>846</v>
       </c>
       <c r="H19">
+        <v>532</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="7"/>
         <v>10475.800475448999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>10.475800475448999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>11.313864513484919</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="2"/>
         <v>77.130144077640864</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <f t="shared" si="3"/>
         <v>18.73829310323768</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <f t="shared" si="4"/>
         <v>4.001794430721362</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <f t="shared" si="5"/>
         <v>7.845011432071744E-2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="6"/>
         <v>5.131827407938086E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -10627,39 +11002,42 @@
         <v>846</v>
       </c>
       <c r="H20">
+        <v>532</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="7"/>
         <v>10209.806922214</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>10.209806922214</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>11.02659147599112</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <f t="shared" si="2"/>
         <v>79.923156844874995</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="3"/>
         <v>15.861789947040645</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <f t="shared" si="4"/>
         <v>4.1060521829054526</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <f t="shared" si="5"/>
         <v>5.634576890463374E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="6"/>
         <v>5.2655256274270583E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -10682,39 +11060,42 @@
         <v>848.09</v>
       </c>
       <c r="H21">
+        <v>532</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="7"/>
         <v>10315.377606342001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>10.315377606342</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>11.140607814849361</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <f t="shared" si="2"/>
         <v>80.391628076722682</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="3"/>
         <v>15.440440348211462</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <f t="shared" si="4"/>
         <v>4.0640296070427828</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <f t="shared" si="5"/>
         <v>5.1785601515118136E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="6"/>
         <v>5.2116366507948091E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -10737,39 +11118,42 @@
         <v>850.28</v>
       </c>
       <c r="H22">
+        <v>532</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="7"/>
         <v>10150.433136596999</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>10.150433136597</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>10.96246778752476</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="2"/>
         <v>81.037551691687796</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="3"/>
         <v>14.73082383656083</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <f t="shared" si="4"/>
         <v>4.1300700606412377</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="5"/>
         <v>4.4530637620803816E-2</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="6"/>
         <v>5.7023773489340179E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -10792,39 +11176,42 @@
         <v>852.81</v>
       </c>
       <c r="H23">
+        <v>532</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="7"/>
         <v>10000.933893009</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>10.000933893009</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>10.80100860444972</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <f t="shared" si="2"/>
         <v>81.581256183518477</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <f t="shared" si="3"/>
         <v>14.123944134731307</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <f t="shared" si="4"/>
         <v>4.1918085299318832</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <f t="shared" si="5"/>
         <v>4.099374171312014E-2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="6"/>
         <v>6.1997410105212668E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -10847,39 +11234,42 @@
         <v>847.99</v>
       </c>
       <c r="H24">
+        <v>532</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="7"/>
         <v>10100.073846300998</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>10.100073846300999</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>10.90807975400508</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <f t="shared" si="2"/>
         <v>82.076132572396958</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <f t="shared" si="3"/>
         <v>13.661493143491606</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <f t="shared" si="4"/>
         <v>4.1506627216743874</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <f t="shared" si="5"/>
         <v>4.0386935413288229E-2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <f t="shared" si="6"/>
         <v>7.1324627023774678E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -10902,39 +11292,42 @@
         <v>848.95500000000004</v>
       </c>
       <c r="H25">
+        <v>532</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="7"/>
         <v>10134.439229123</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>10.134439229123</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>10.94519436745284</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <f t="shared" si="2"/>
         <v>82.393804049901959</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="3"/>
         <v>13.436033669105479</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <f t="shared" si="4"/>
         <v>4.0540477772005357</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <f t="shared" si="5"/>
         <v>4.2556215746070616E-2</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <f t="shared" si="6"/>
         <v>7.3558288045949494E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -10957,54 +11350,57 @@
         <v>851.31</v>
       </c>
       <c r="H26">
+        <v>532</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="7"/>
         <v>10365.696155509997</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>10.365696155509998</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>11.194951847950797</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <f t="shared" si="2"/>
         <v>83.038320541786192</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <f t="shared" si="3"/>
         <v>12.96243917284581</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <f t="shared" si="4"/>
         <v>3.8795336142111192</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <f t="shared" si="5"/>
         <v>4.0009949624034209E-2</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <f t="shared" si="6"/>
         <v>7.9696721532867942E-2</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>3</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>4</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>7</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>2</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -11027,57 +11423,60 @@
         <v>849.44500000000005</v>
       </c>
       <c r="H27">
+        <v>532</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="7"/>
         <v>10711.021287744999</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>10.711021287745</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>11.567902990764599</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <f t="shared" si="2"/>
         <v>83.796864546140952</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <f t="shared" si="3"/>
         <v>12.544527948397711</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <f t="shared" si="4"/>
         <v>3.5482515914223631</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <f t="shared" si="5"/>
         <v>3.356323686064535E-2</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <f t="shared" si="6"/>
         <v>7.6792677178327926E-2</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>8</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>255</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>31</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>44</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -11100,57 +11499,60 @@
         <v>849.14499999999998</v>
       </c>
       <c r="H28">
+        <v>520</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="7"/>
         <v>10678.168171469</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>10.678168171469</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>11.532421625186521</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <f t="shared" si="2"/>
         <v>84.536971651366599</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <f t="shared" si="3"/>
         <v>11.913808160458911</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <f t="shared" si="4"/>
         <v>3.4404809486106767</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <f t="shared" si="5"/>
         <v>3.1290749643066718E-2</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <f t="shared" si="6"/>
         <v>7.7448489920741548E-2</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>9</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>191</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>127</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>119</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>160</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -11173,57 +11575,60 @@
         <v>839.24437499999999</v>
       </c>
       <c r="H29">
+        <v>510</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="7"/>
         <v>10723.350508022</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>10.723350508022</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>11.58121854866376</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <f t="shared" si="2"/>
         <v>84.92215183293267</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <f t="shared" si="3"/>
         <v>11.66366140008518</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <f t="shared" si="4"/>
         <v>3.307797313299127</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <f t="shared" si="5"/>
         <v>2.884950948573109E-2</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <f t="shared" si="6"/>
         <v>7.7539944197289323E-2</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>1</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>191</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>14</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>190</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>44</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -11246,39 +11651,42 @@
         <v>829.23500000000001</v>
       </c>
       <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="7"/>
         <v>10772.625575282</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>10.772625575281999</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>11.63443562130456</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <f t="shared" si="2"/>
         <v>85.248948232934367</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <f t="shared" si="3"/>
         <v>11.411276753372357</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <f t="shared" si="4"/>
         <v>3.235014815697586</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <f t="shared" si="5"/>
         <v>2.6909539013882561E-2</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <f t="shared" si="6"/>
         <v>7.7850658981809651E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -11301,39 +11709,42 @@
         <v>801.36775</v>
       </c>
       <c r="H31">
+        <v>490</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="7"/>
         <v>10677.261502107001</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>10.677261502107001</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>11.53144242227556</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <f t="shared" si="2"/>
         <v>85.310498372663318</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <f t="shared" si="3"/>
         <v>11.379322308067827</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <f t="shared" si="4"/>
         <v>3.2057411596827046</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <f t="shared" si="5"/>
         <v>2.5220843438821802E-2</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <f t="shared" si="6"/>
         <v>7.9217316147318195E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -11356,39 +11767,42 @@
         <v>773.91700000000003</v>
       </c>
       <c r="H32">
+        <v>480</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="7"/>
         <v>10581.555545882</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>10.581555545882001</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>11.428079989552561</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <f t="shared" si="2"/>
         <v>85.375916242444902</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <f t="shared" si="3"/>
         <v>11.34715852308951</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <f t="shared" si="4"/>
         <v>3.1754433272409059</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <f t="shared" si="5"/>
         <v>2.4031920807613533E-2</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="6"/>
         <v>7.7449986417066921E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -11411,39 +11825,42 @@
         <v>752.61400000000003</v>
       </c>
       <c r="H33">
+        <v>470</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="7"/>
         <v>10736.455885074001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>10.736455885074001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>11.59537235587992</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <f t="shared" si="2"/>
         <v>85.737867612321068</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <f t="shared" si="3"/>
         <v>11.094689753776134</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <f t="shared" si="4"/>
         <v>3.0711925399740725</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <f t="shared" si="5"/>
         <v>2.2365501546355481E-2</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <f t="shared" si="6"/>
         <v>7.3884592382370912E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -11466,39 +11883,42 @@
         <v>731.46833330000004</v>
       </c>
       <c r="H34">
+        <v>460</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="7"/>
         <v>10888.913535489</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>10.888913535489001</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>11.760026618328121</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <f t="shared" si="2"/>
         <v>86.086335762046602</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <f t="shared" si="3"/>
         <v>10.851836183185695</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <f t="shared" si="4"/>
         <v>2.9705733629509798</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <f t="shared" si="5"/>
         <v>2.0818279818384092E-2</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="6"/>
         <v>7.043641199833961E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -11521,39 +11941,42 @@
         <v>710.48</v>
       </c>
       <c r="H35">
+        <v>450</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="7"/>
         <v>11042.125561794999</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>11.042125561794998</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>11.925495606738599</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <f t="shared" si="2"/>
         <v>86.397088555196376</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <f t="shared" si="3"/>
         <v>10.614963943676271</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <f t="shared" si="4"/>
         <v>2.9016903630274848</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <f t="shared" si="5"/>
         <v>1.9286457268412081E-2</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <f t="shared" si="6"/>
         <v>6.697068083147098E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -11576,39 +11999,42 @@
         <v>710.35866669999996</v>
       </c>
       <c r="H36">
+        <v>450</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="7"/>
         <v>11224.862979446001</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>11.224862979446002</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>12.122852017801682</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <f t="shared" si="2"/>
         <v>86.734317833788893</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <f t="shared" si="3"/>
         <v>10.35725992494368</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <f t="shared" si="4"/>
         <v>2.8272364863705701</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <f t="shared" si="5"/>
         <v>1.7753235978461384E-2</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="6"/>
         <v>6.3432518918386083E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -11631,39 +12057,42 @@
         <v>710.23733330000005</v>
       </c>
       <c r="H37">
+        <v>450</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="7"/>
         <v>11405.267458208999</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>11.405267458208998</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>12.317688854865718</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <f t="shared" si="2"/>
         <v>87.058092845103801</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <f t="shared" si="3"/>
         <v>10.10987973955911</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <f t="shared" si="4"/>
         <v>2.7557315174909118</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <f t="shared" si="5"/>
         <v>1.6275911247165983E-2</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="6"/>
         <v>6.0019986599024994E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -11686,39 +12115,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H38">
+        <v>450</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -11741,39 +12173,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H39">
+        <v>450</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -11796,39 +12231,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H40">
+        <v>450</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -11851,39 +12289,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H41">
+        <v>450</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -11906,39 +12347,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H42">
+        <v>450</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -11961,39 +12405,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H43">
+        <v>450</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -12016,39 +12463,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H44">
+        <v>450</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -12071,39 +12521,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H45">
+        <v>450</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q45" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -12126,39 +12579,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H46">
+        <v>450</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -12181,39 +12637,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H47">
+        <v>450</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -12236,39 +12695,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H48">
+        <v>450</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -12291,39 +12753,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H49">
+        <v>450</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -12346,39 +12811,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H50">
+        <v>450</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -12401,39 +12869,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H51">
+        <v>450</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -12456,39 +12927,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H52">
+        <v>450</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -12511,39 +12985,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H53">
+        <v>450</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -12566,39 +13043,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H54">
+        <v>450</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -12621,39 +13101,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H55">
+        <v>450</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M55" s="1">
+      <c r="N55" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -12676,39 +13159,42 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H56">
+        <v>450</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N56" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -12731,41 +13217,45 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H57">
+        <v>450</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="7"/>
         <v>11586.804713208998</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <f t="shared" si="0"/>
         <v>11.586804713208998</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="1"/>
         <v>12.513749090265719</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <f t="shared" si="2"/>
         <v>87.343104941285929</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <f t="shared" si="3"/>
         <v>9.8692386754078338</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <f t="shared" si="4"/>
         <v>2.7125558579726343</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <f t="shared" si="5"/>
         <v>1.6020907014026042E-2</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <f t="shared" si="6"/>
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12777,20 +13267,20 @@
       <selection activeCell="E5" sqref="E5:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>777/437</f>
         <v>1.7780320366132722</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -12807,7 +13297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -12822,7 +13312,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -12841,7 +13331,7 @@
         <v>48010000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -12860,7 +13350,7 @@
         <v>36630000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -12879,7 +13369,7 @@
         <v>4980000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -12898,7 +13388,7 @@
         <v>3734000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -12917,7 +13407,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -12936,7 +13426,7 @@
         <v>2258000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -12955,7 +13445,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -12974,10 +13464,10 @@
         <v>302300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\CircularEconomy-MassFlowCalculator\PV_ICE\baselines\SupportingMaterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676EC985-6439-427D-8009-24899C71BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F88A0-58E2-4E89-8F70-1A7F3D05DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,14 +314,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9811,21 +9811,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="15" max="17" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9874,11 +9874,11 @@
       <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -10080,14 +10080,14 @@
       <c r="AD4" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="14">
         <v>1.4</v>
       </c>
       <c r="AF4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>4.77869653138338E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>4.8065784447906171E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>4.8331438116228594E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>4.8531377498372941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>4.8887541573030449E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>5.0075280602955533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>5.078003298333645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>5.1041737890265351E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>5.1299107380319051E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>5.1437610456850573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>5.1572925913924178E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>5.1685042083370235E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>5.131827407938086E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>5.2655256274270583E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>5.2116366507948091E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>5.7023773489340179E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>6.1997410105212668E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>7.1324627023774678E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>7.3558288045949494E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>7.7850658981809651E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>7.9217316147318195E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>7.7449986417066921E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>7.3884592382370912E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>7.043641199833961E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>6.697068083147098E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>6.3432518918386083E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>6.0019986599024994E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>5.9079618319588779E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -13267,21 +13267,21 @@
       <selection activeCell="E5" sqref="E5:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D1">
         <f>777/437</f>
         <v>1.7780320366132722</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -13297,8 +13297,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>48010000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>36630000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>4980000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>3734000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>2258000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -13464,10 +13464,10 @@
         <v>302300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F88A0-58E2-4E89-8F70-1A7F3D05DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163F7F1-8083-46B6-B6D0-676450FF259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6718,172 +6718,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>532</c:v>
+                  <c:v>186.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>532</c:v>
+                  <c:v>192.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>532</c:v>
+                  <c:v>199.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>532</c:v>
+                  <c:v>205.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>532</c:v>
+                  <c:v>212.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>532</c:v>
+                  <c:v>218.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>532</c:v>
+                  <c:v>225.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>532</c:v>
+                  <c:v>231.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>532</c:v>
+                  <c:v>238.0421533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>532</c:v>
+                  <c:v>244.22710620000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>532</c:v>
+                  <c:v>270.84237130000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>532</c:v>
+                  <c:v>297.39114389999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>532</c:v>
+                  <c:v>323.87268519999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>532</c:v>
+                  <c:v>350.28624539999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>532</c:v>
+                  <c:v>376.63106340000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>532</c:v>
+                  <c:v>402.90636699999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>532</c:v>
+                  <c:v>424.82025850000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>532</c:v>
+                  <c:v>446.14037739999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>532</c:v>
+                  <c:v>450.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>532</c:v>
+                  <c:v>469.04871969999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>532</c:v>
+                  <c:v>488.55303370000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>532</c:v>
+                  <c:v>480.42291669999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>532</c:v>
+                  <c:v>472.89833329999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>532</c:v>
+                  <c:v>463.21199999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>532</c:v>
+                  <c:v>432.53280000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>520</c:v>
+                  <c:v>410.94400000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>510</c:v>
+                  <c:v>400.03859999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>500</c:v>
+                  <c:v>389.16559999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>490</c:v>
+                  <c:v>383.15249999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>480</c:v>
+                  <c:v>377.16320000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>470</c:v>
+                  <c:v>362.01006669999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>460</c:v>
+                  <c:v>346.84533329999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>450</c:v>
+                  <c:v>331.66899999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>450</c:v>
+                  <c:v>314.73022220000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>450</c:v>
+                  <c:v>297.78388890000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>450</c:v>
+                  <c:v>280.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9811,8 +9811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9901,7 +9901,7 @@
         <v>846</v>
       </c>
       <c r="H2">
-        <v>532</v>
+        <v>180</v>
       </c>
       <c r="I2">
         <f>SUM(B2:F2)</f>
@@ -9968,7 +9968,7 @@
         <v>846</v>
       </c>
       <c r="H3">
-        <v>532</v>
+        <v>186.48</v>
       </c>
       <c r="I3">
         <f>SUM(B3:F3)</f>
@@ -10043,7 +10043,7 @@
         <v>846</v>
       </c>
       <c r="H4">
-        <v>532</v>
+        <v>192.96</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I57" si="7">SUM(B4:F4)</f>
@@ -10110,7 +10110,7 @@
         <v>846</v>
       </c>
       <c r="H5">
-        <v>532</v>
+        <v>199.44</v>
       </c>
       <c r="I5">
         <f t="shared" si="7"/>
@@ -10180,7 +10180,7 @@
         <v>846</v>
       </c>
       <c r="H6">
-        <v>532</v>
+        <v>205.92</v>
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
@@ -10248,7 +10248,7 @@
         <v>846</v>
       </c>
       <c r="H7">
-        <v>532</v>
+        <v>212.4</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
@@ -10306,7 +10306,7 @@
         <v>846</v>
       </c>
       <c r="H8">
-        <v>532</v>
+        <v>218.88</v>
       </c>
       <c r="I8">
         <f t="shared" si="7"/>
@@ -10364,7 +10364,7 @@
         <v>846</v>
       </c>
       <c r="H9">
-        <v>532</v>
+        <v>225.36</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
@@ -10422,7 +10422,7 @@
         <v>846</v>
       </c>
       <c r="H10">
-        <v>532</v>
+        <v>231.84</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
@@ -10480,7 +10480,7 @@
         <v>846</v>
       </c>
       <c r="H11">
-        <v>532</v>
+        <v>238.0421533</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
@@ -10538,7 +10538,7 @@
         <v>846</v>
       </c>
       <c r="H12">
-        <v>532</v>
+        <v>244.22710620000001</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
@@ -10596,7 +10596,7 @@
         <v>846</v>
       </c>
       <c r="H13">
-        <v>532</v>
+        <v>270.84237130000002</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
@@ -10654,7 +10654,7 @@
         <v>846</v>
       </c>
       <c r="H14">
-        <v>532</v>
+        <v>297.39114389999997</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
@@ -10712,7 +10712,7 @@
         <v>846</v>
       </c>
       <c r="H15">
-        <v>532</v>
+        <v>323.87268519999998</v>
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
@@ -10770,7 +10770,7 @@
         <v>846</v>
       </c>
       <c r="H16">
-        <v>532</v>
+        <v>350.28624539999998</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
@@ -10828,7 +10828,7 @@
         <v>846</v>
       </c>
       <c r="H17">
-        <v>532</v>
+        <v>376.63106340000002</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
@@ -10886,7 +10886,7 @@
         <v>846</v>
       </c>
       <c r="H18">
-        <v>532</v>
+        <v>402.90636699999999</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
@@ -10944,7 +10944,7 @@
         <v>846</v>
       </c>
       <c r="H19">
-        <v>532</v>
+        <v>424.82025850000002</v>
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
@@ -11002,7 +11002,7 @@
         <v>846</v>
       </c>
       <c r="H20">
-        <v>532</v>
+        <v>446.14037739999998</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
@@ -11060,7 +11060,7 @@
         <v>848.09</v>
       </c>
       <c r="H21">
-        <v>532</v>
+        <v>450.12</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
@@ -11118,7 +11118,7 @@
         <v>850.28</v>
       </c>
       <c r="H22">
-        <v>532</v>
+        <v>469.04871969999999</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
@@ -11176,7 +11176,7 @@
         <v>852.81</v>
       </c>
       <c r="H23">
-        <v>532</v>
+        <v>488.55303370000001</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
@@ -11234,7 +11234,7 @@
         <v>847.99</v>
       </c>
       <c r="H24">
-        <v>532</v>
+        <v>480.42291669999997</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
@@ -11292,7 +11292,7 @@
         <v>848.95500000000004</v>
       </c>
       <c r="H25">
-        <v>532</v>
+        <v>472.89833329999999</v>
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
@@ -11350,7 +11350,7 @@
         <v>851.31</v>
       </c>
       <c r="H26">
-        <v>532</v>
+        <v>463.21199999999999</v>
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
@@ -11423,7 +11423,7 @@
         <v>849.44500000000005</v>
       </c>
       <c r="H27">
-        <v>532</v>
+        <v>432.53280000000001</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
@@ -11499,7 +11499,7 @@
         <v>849.14499999999998</v>
       </c>
       <c r="H28">
-        <v>520</v>
+        <v>410.94400000000002</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
@@ -11575,7 +11575,7 @@
         <v>839.24437499999999</v>
       </c>
       <c r="H29">
-        <v>510</v>
+        <v>400.03859999999997</v>
       </c>
       <c r="I29">
         <f t="shared" si="7"/>
@@ -11651,7 +11651,7 @@
         <v>829.23500000000001</v>
       </c>
       <c r="H30">
-        <v>500</v>
+        <v>389.16559999999998</v>
       </c>
       <c r="I30">
         <f t="shared" si="7"/>
@@ -11709,7 +11709,7 @@
         <v>801.36775</v>
       </c>
       <c r="H31">
-        <v>490</v>
+        <v>383.15249999999997</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
@@ -11767,7 +11767,7 @@
         <v>773.91700000000003</v>
       </c>
       <c r="H32">
-        <v>480</v>
+        <v>377.16320000000002</v>
       </c>
       <c r="I32">
         <f t="shared" si="7"/>
@@ -11825,7 +11825,7 @@
         <v>752.61400000000003</v>
       </c>
       <c r="H33">
-        <v>470</v>
+        <v>362.01006669999998</v>
       </c>
       <c r="I33">
         <f t="shared" si="7"/>
@@ -11883,7 +11883,7 @@
         <v>731.46833330000004</v>
       </c>
       <c r="H34">
-        <v>460</v>
+        <v>346.84533329999999</v>
       </c>
       <c r="I34">
         <f t="shared" si="7"/>
@@ -11941,7 +11941,7 @@
         <v>710.48</v>
       </c>
       <c r="H35">
-        <v>450</v>
+        <v>331.66899999999998</v>
       </c>
       <c r="I35">
         <f t="shared" si="7"/>
@@ -11999,7 +11999,7 @@
         <v>710.35866669999996</v>
       </c>
       <c r="H36">
-        <v>450</v>
+        <v>314.73022220000001</v>
       </c>
       <c r="I36">
         <f t="shared" si="7"/>
@@ -12057,7 +12057,7 @@
         <v>710.23733330000005</v>
       </c>
       <c r="H37">
-        <v>450</v>
+        <v>297.78388890000002</v>
       </c>
       <c r="I37">
         <f t="shared" si="7"/>
@@ -12115,7 +12115,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H38">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
@@ -12173,7 +12173,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H39">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I39">
         <f t="shared" si="7"/>
@@ -12231,7 +12231,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H40">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I40">
         <f t="shared" si="7"/>
@@ -12289,7 +12289,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H41">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I41">
         <f t="shared" si="7"/>
@@ -12347,7 +12347,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H42">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I42">
         <f t="shared" si="7"/>
@@ -12405,7 +12405,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H43">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I43">
         <f t="shared" si="7"/>
@@ -12463,7 +12463,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H44">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I44">
         <f t="shared" si="7"/>
@@ -12521,7 +12521,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H45">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I45">
         <f t="shared" si="7"/>
@@ -12579,7 +12579,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H46">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I46">
         <f t="shared" si="7"/>
@@ -12637,7 +12637,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H47">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I47">
         <f t="shared" si="7"/>
@@ -12695,7 +12695,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H48">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I48">
         <f t="shared" si="7"/>
@@ -12753,7 +12753,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H49">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I49">
         <f t="shared" si="7"/>
@@ -12811,7 +12811,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H50">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I50">
         <f t="shared" si="7"/>
@@ -12869,7 +12869,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H51">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I51">
         <f t="shared" si="7"/>
@@ -12927,7 +12927,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H52">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I52">
         <f t="shared" si="7"/>
@@ -12985,7 +12985,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H53">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I53">
         <f t="shared" si="7"/>
@@ -13043,7 +13043,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H54">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I54">
         <f t="shared" si="7"/>
@@ -13101,7 +13101,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H55">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I55">
         <f t="shared" si="7"/>
@@ -13159,7 +13159,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H56">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I56">
         <f t="shared" si="7"/>
@@ -13217,7 +13217,7 @@
         <v>710.11599999999999</v>
       </c>
       <c r="H57">
-        <v>450</v>
+        <v>280.83</v>
       </c>
       <c r="I57">
         <f t="shared" si="7"/>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615360A6-BBAA-4ACB-9206-1ACA9884CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD1E1A-4DF0-4F28-B5BB-E2F388F85D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
@@ -328,6 +328,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8C564B"/>
+      <color rgb="FF9467BD"/>
       <color rgb="FF2CA02C"/>
       <color rgb="FFD62728"/>
       <color rgb="FFFF7F0E"/>
@@ -360,7 +362,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Module Composition by Mass </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>over Time </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -2297,9 +2355,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
+              <a:srgbClr val="9467BD"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -2682,9 +2738,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
+              <a:srgbClr val="8C564B"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -3083,12 +3137,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4021,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4125,31 +4174,31 @@
         <v>13.0589828386</v>
       </c>
       <c r="L2" s="1">
-        <f>B2/$I2*100</f>
+        <f t="shared" ref="L2:R2" si="0">B2/$I2*100</f>
         <v>61.260513922672764</v>
       </c>
       <c r="M2" s="1">
-        <f>C2/$I2*100</f>
+        <f t="shared" si="0"/>
         <v>23.670950855858489</v>
       </c>
       <c r="N2" s="1">
-        <f>D2/$I2*100</f>
+        <f t="shared" si="0"/>
         <v>6.4968415923805267</v>
       </c>
       <c r="O2" s="1">
-        <f>E2/$I2*100</f>
+        <f t="shared" si="0"/>
         <v>0.67386565314940028</v>
       </c>
       <c r="P2" s="1">
-        <f>F2/$I2*100</f>
+        <f t="shared" si="0"/>
         <v>4.1167065356036099E-2</v>
       </c>
       <c r="Q2" s="1">
-        <f>G2/$I2*100</f>
+        <f t="shared" si="0"/>
         <v>6.4782993473226442</v>
       </c>
       <c r="R2" s="1">
-        <f>H2/$I2*100</f>
+        <f t="shared" si="0"/>
         <v>1.3783615632601371</v>
       </c>
       <c r="Y2" t="s">
@@ -4188,39 +4237,39 @@
         <v>186.48</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I57" si="0">SUM(B3:H3)</f>
+        <f t="shared" ref="I3:I57" si="1">SUM(B3:H3)</f>
         <v>12971.62968887</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J57" si="1">I3/1000</f>
+        <f t="shared" ref="J3:J57" si="2">I3/1000</f>
         <v>12.971629688869999</v>
       </c>
       <c r="L3" s="1">
-        <f>B3/$I3*100</f>
+        <f t="shared" ref="L3:L34" si="3">B3/$I3*100</f>
         <v>61.673052591566126</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M57" si="2">C3/$I3*100</f>
+        <f t="shared" ref="M3:M57" si="4">C3/$I3*100</f>
         <v>23.261661166514973</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N57" si="3">D3/$I3*100</f>
+        <f t="shared" ref="N3:N57" si="5">D3/$I3*100</f>
         <v>6.4123455128671614</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O57" si="4">E3/$I3*100</f>
+        <f t="shared" ref="O3:O57" si="6">E3/$I3*100</f>
         <v>0.65197227024268589</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P57" si="5">F3/$I3*100</f>
+        <f t="shared" ref="P3:P57" si="7">F3/$I3*100</f>
         <v>4.1444291341532435E-2</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q57" si="6">G3/$I3*100</f>
+        <f t="shared" ref="Q3:Q57" si="8">G3/$I3*100</f>
         <v>6.5219253115581175</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R57" si="7">H3/$I3*100</f>
+        <f t="shared" ref="R3:R57" si="9">H3/$I3*100</f>
         <v>1.4375988559094062</v>
       </c>
       <c r="Y3" t="s">
@@ -4267,39 +4316,39 @@
         <v>192.96</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12640.628857139998</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.640628857139998</v>
       </c>
       <c r="L4" s="1">
-        <f>B4/$I4*100</f>
+        <f t="shared" si="3"/>
         <v>63.287990577155803</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.359696819790088</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4486506898710685</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.64192104725997756</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.252952966784871E-2</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6927050035342273</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5265063327209982</v>
       </c>
       <c r="Y4" t="s">
@@ -4338,39 +4387,39 @@
         <v>199.44</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12467.417242410002</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.467417242410001</v>
       </c>
       <c r="L5" s="1">
-        <f>B5/$I5*100</f>
+        <f t="shared" si="3"/>
         <v>64.167259701445332</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.37609411481392</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4048091932282514</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.62333909420823641</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3120398519371265E-2</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7856877134278442</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5996897843570321</v>
       </c>
       <c r="Z5">
@@ -4412,39 +4461,39 @@
         <v>205.92</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12398.159199690001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.398159199690001</v>
       </c>
       <c r="L6" s="1">
-        <f>B6/$I6*100</f>
+        <f t="shared" si="3"/>
         <v>64.525707979294452</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.040869567654259</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3064085466780408</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.59916728841373013</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3361275762085871E-2</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8235936188103894</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6608917233870393</v>
       </c>
       <c r="Y6" t="s">
@@ -4484,39 +4533,39 @@
         <v>212.4</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12308.32969253</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.30832969253</v>
       </c>
       <c r="L7" s="1">
-        <f>B7/$I7*100</f>
+        <f t="shared" si="3"/>
         <v>64.99663398564347</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.774919301009515</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.2172762366320962</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36843806237593979</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3677738038352412E-2</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8733940439817971</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7256606323188342</v>
       </c>
     </row>
@@ -4546,39 +4595,39 @@
         <v>218.88</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12249.55130361</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.24955130361</v>
       </c>
       <c r="L8" s="1">
-        <f>B8/$I8*100</f>
+        <f t="shared" si="3"/>
         <v>65.308514587325021</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.490786362896269</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1113025640325453</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35229278722464091</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3887321802682427E-2</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9063754176096213</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7868409591092129</v>
       </c>
       <c r="U8" t="s">
@@ -4629,39 +4678,39 @@
         <v>225.36</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12194.5547766</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.1945547766</v>
       </c>
       <c r="L9" s="1">
-        <f>B9/$I9*100</f>
+        <f t="shared" si="3"/>
         <v>65.603051087614233</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.228970560693035</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.002444878139972</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33588762156858487</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.408525033087677E-2</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9375226525152058</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8480379491380932</v>
       </c>
       <c r="T9" t="s">
@@ -4709,39 +4758,39 @@
         <v>231.84</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12155.20948159</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.155209481589999</v>
       </c>
       <c r="L10" s="1">
-        <f>B10/$I10*100</f>
+        <f t="shared" si="3"/>
         <v>65.81540212956935</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.069124695141006</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8850134617871532</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.31892263435454288</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.4227950231070609E-2</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9599787752019582</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9073303537149195</v>
       </c>
       <c r="T10" t="s">
@@ -4789,39 +4838,39 @@
         <v>238.0421533</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12080.708843870001</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.080708843870001</v>
       </c>
       <c r="L11" s="1">
-        <f>B11/$I11*100</f>
+        <f t="shared" si="3"/>
         <v>66.221279755942163</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.674560335462019</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.7836010206845989</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.30272585030105326</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.450069999599314E-2</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0029003341908842</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9704320034232714</v>
       </c>
       <c r="T11" t="s">
@@ -4869,39 +4918,39 @@
         <v>244.22710620000001</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11826.063102059999</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.826063102059999</v>
       </c>
       <c r="L12" s="1">
-        <f>B12/$I12*100</f>
+        <f t="shared" si="3"/>
         <v>67.647195275040161</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.874357973210785</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9234474311115166</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29068966200604657</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5458915224826993E-2</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.153690900335496</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0651598430711715</v>
       </c>
     </row>
@@ -4931,39 +4980,39 @@
         <v>270.84237130000002</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11703.680709439999</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.703680709439999</v>
       </c>
       <c r="L13" s="1">
-        <f>B13/$I13*100</f>
+        <f t="shared" si="3"/>
         <v>68.354564675942754</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.801916616876767</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9799445282567665</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.27498064872909456</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.593426746223353E-2</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2284952144809456</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3141640482514445</v>
       </c>
     </row>
@@ -4993,39 +5042,39 @@
         <v>297.39114389999997</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11675.947875330001</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.675947875330001</v>
       </c>
       <c r="L14" s="1">
-        <f>B14/$I14*100</f>
+        <f t="shared" si="3"/>
         <v>68.516921156381002</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.597561944767826</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.7899278476137699</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25684057303272623</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6043371017088039E-2</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.245664412287292</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5470406949002822</v>
       </c>
     </row>
@@ -5055,39 +5104,39 @@
         <v>323.87268519999998</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11649.58719591</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.64958719591</v>
       </c>
       <c r="L15" s="1">
-        <f>B15/$I15*100</f>
+        <f t="shared" si="3"/>
         <v>68.671961207421006</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.402541316758107</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5985824471718795</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23858601375813698</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6147557931386918E-2</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2620598976847708</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7801215592747091</v>
       </c>
     </row>
@@ -5117,39 +5166,39 @@
         <v>350.28624539999998</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11647.782635400001</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.6477826354</v>
       </c>
       <c r="L16" s="1">
-        <f>B16/$I16*100</f>
+        <f t="shared" si="3"/>
         <v>68.682600374824645</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.181814364543836</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5991399661417485</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.21978432119943886</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.615470745188216E-2</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2631849896377059</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0073212762007442</v>
       </c>
     </row>
@@ -5179,39 +5228,39 @@
         <v>376.63106340000002</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11646.705138569998</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.646705138569997</v>
       </c>
       <c r="L17" s="1">
-        <f>B17/$I17*100</f>
+        <f t="shared" si="3"/>
         <v>68.68895455682717</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.06191266420252</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5994729411641355</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.1058446661380283</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6158977462187854E-2</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2638569443844725</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2337992498215118</v>
       </c>
     </row>
@@ -5241,39 +5290,39 @@
         <v>402.90636699999999</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11650.368343809998</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.650368343809998</v>
       </c>
       <c r="L18" s="1">
-        <f>B18/$I18*100</f>
+        <f t="shared" si="3"/>
         <v>68.667356807224991</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.880094019043426</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5983411650906079</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8176154666029141E-2</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6144463774455198E-2</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2615729823640427</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4583144078364674</v>
       </c>
     </row>
@@ -5303,39 +5352,39 @@
         <v>424.82025850000002</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11746.620733948999</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.746620733948999</v>
       </c>
       <c r="L19" s="1">
-        <f>B19/$I19*100</f>
+        <f t="shared" si="3"/>
         <v>68.785740026899219</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.711071570794473</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5688561799599867</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9962907930178536E-2</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5766353760471563E-2</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.202071294895636</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6165316657600401</v>
       </c>
     </row>
@@ -5365,39 +5414,39 @@
         <v>446.14037739999998</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11501.947299613999</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.501947299613999</v>
       </c>
       <c r="L20" s="1">
-        <f>B20/$I20*100</f>
+        <f t="shared" si="3"/>
         <v>70.944508677011981</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.079860442886469</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6447741332814911</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.001582831276806E-2</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.673991159897261E-2</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3552762672490379</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8788247396592772</v>
       </c>
     </row>
@@ -5427,39 +5476,39 @@
         <v>450.12</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11613.587606342002</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.613587606342001</v>
       </c>
       <c r="L21" s="1">
-        <f>B21/$I21*100</f>
+        <f t="shared" si="3"/>
         <v>71.405153007770693</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.714450521131209</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.609737268189809</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5996814447612042E-2</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6290605299814928E-2</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3025668617410791</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8758049214197716</v>
       </c>
     </row>
@@ -5489,39 +5538,39 @@
         <v>469.04871969999999</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11469.761856297</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.469761856297</v>
       </c>
       <c r="L22" s="1">
-        <f>B22/$I22*100</f>
+        <f t="shared" si="3"/>
         <v>71.716070508334397</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.036385957561086</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6550017799179026</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.9408425856012445E-2</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0464517681526662E-2</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4132315095381767</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0894373011109044</v>
       </c>
     </row>
@@ -5551,39 +5600,39 @@
         <v>488.55303370000001</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11342.296926708999</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.342296926708999</v>
       </c>
       <c r="L23" s="1">
-        <f>B23/$I23*100</f>
+        <f t="shared" si="3"/>
         <v>71.933291402267358</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.453617861773335</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6960767533145331</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6145738693772286E-2</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.466547067198884E-2</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.5188474213877354</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3073553518912782</v>
       </c>
     </row>
@@ -5613,39 +5662,39 @@
         <v>480.42291669999997</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11428.486763000998</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.428486763000997</v>
       </c>
       <c r="L24" s="1">
-        <f>B24/$I24*100</f>
+        <f t="shared" si="3"/>
         <v>72.535849862796724</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.073522283519484</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6682021749125897</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5692479552112369E-2</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.3034066971333208E-2</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4199674688806043</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.2037316633671811</v>
       </c>
     </row>
@@ -5675,39 +5724,39 @@
         <v>472.89833329999999</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11456.292562422999</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.456292562423</v>
       </c>
       <c r="L25" s="1">
-        <f>B25/$I25*100</f>
+        <f t="shared" si="3"/>
         <v>72.887017807041303</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.8857532625023</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5862824387674714</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7645981887248853E-2</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5070963921187885E-2</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4103816341475</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.1278479117329931</v>
       </c>
     </row>
@@ -5737,39 +5786,39 @@
         <v>463.21199999999999</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11680.218155509996</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.680218155509996</v>
       </c>
       <c r="L26" s="1">
-        <f>B26/$I26*100</f>
+        <f t="shared" si="3"/>
         <v>73.692972899992625</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.50361269893021</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4429208542675651</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5507126277804661E-2</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0727446097425165E-2</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2884768817302019</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.965782092704198</v>
       </c>
     </row>
@@ -5799,39 +5848,39 @@
         <v>432.53280000000001</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11992.999087745</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.992999087745</v>
       </c>
       <c r="L27" s="1">
-        <f>B27/$I27*100</f>
+        <f t="shared" si="3"/>
         <v>74.839495395039094</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.203595107190498</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1689653315187583</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9975533381583444E-2</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.8584012554499155E-2</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0828405287548319</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6065440915607336</v>
       </c>
     </row>
@@ -5861,39 +5910,39 @@
         <v>410.94400000000002</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11938.257171469</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.938257171469001</v>
       </c>
       <c r="L28" s="1">
-        <f>B28/$I28*100</f>
+        <f t="shared" si="3"/>
         <v>75.614052121221221</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.656299765767727</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0773364681571347</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7987995408452537E-2</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9273763173442915E-2</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.1128053936495395</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4422444926224807</v>
       </c>
     </row>
@@ -5923,39 +5972,39 @@
         <v>400.03859999999997</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11962.633483022</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.962633483022</v>
       </c>
       <c r="L29" s="1">
-        <f>B29/$I29*100</f>
+        <f t="shared" si="3"/>
         <v>76.124542417222969</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.455350786890776</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9651221907234593</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5860810885752272E-2</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9507103195971989E-2</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0155486765610577</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3440680145200123</v>
       </c>
     </row>
@@ -5985,39 +6034,39 @@
         <v>389.16559999999998</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11991.026175282001</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.991026175282</v>
       </c>
       <c r="L30" s="1">
-        <f>B30/$I30*100</f>
+        <f t="shared" si="3"/>
         <v>76.586856418767042</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.25178412614957</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9063070024680702</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4175277742080534E-2</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.994030266807226E-2</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9154631795347434</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2454736926704086</v>
       </c>
     </row>
@@ -6047,39 +6096,39 @@
         <v>383.15249999999997</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11861.781752107001</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.861781752107001</v>
       </c>
       <c r="L31" s="1">
-        <f>B31/$I31*100</f>
+        <f t="shared" si="3"/>
         <v>76.79137241234443</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.242980568953566</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8856151112306554</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2702284220679263E-2</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1306656763412191E-2</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7558800755852175</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2301428909020422</v>
       </c>
     </row>
@@ -6109,39 +6158,39 @@
         <v>377.16320000000002</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11732.635745882</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.732635745882</v>
       </c>
       <c r="L32" s="1">
-        <f>B32/$I32*100</f>
+        <f t="shared" si="3"/>
         <v>76.999748357233798</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.233897207807136</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8639029351775069</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1674166863081403E-2</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9851425634486958E-2</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.5962756942457252</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2146502130382704</v>
       </c>
     </row>
@@ -6171,39 +6220,39 @@
         <v>362.01006669999998</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11851.079951774002</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.851079951774002</v>
       </c>
       <c r="L33" s="1">
-        <f>B33/$I33*100</f>
+        <f t="shared" si="3"/>
         <v>77.674004145268313</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.051206099758794</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.782339107843427</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0261969514774492E-2</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.6935559453487295E-2</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3505942332904466</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0546588848707437</v>
       </c>
     </row>
@@ -6233,39 +6282,39 @@
         <v>346.84533329999999</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11967.227202089</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.967227202088999</v>
       </c>
       <c r="L34" s="1">
-        <f>B34/$I34*100</f>
+        <f t="shared" si="3"/>
         <v>78.329478572644618</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.8740254450398641</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7029081970093816</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8942437130334524E-2</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4089699898579405E-2</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.1122624393085383</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8982932089686964</v>
       </c>
     </row>
@@ -6295,39 +6344,39 @@
         <v>331.66899999999998</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12084.274561794999</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.084274561794999</v>
       </c>
       <c r="L35" s="1">
-        <f>B35/$I35*100</f>
+        <f t="shared" ref="L35:L57" si="10">B35/$I35*100</f>
         <v>78.946195331918361</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.6995284326434046</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6514483071494079</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7623191339370427E-2</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.1195122877955768E-2</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.8793765100820856</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7446331039894365</v>
       </c>
     </row>
@@ -6357,39 +6406,39 @@
         <v>314.73022220000001</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12249.951868346001</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.249951868346001</v>
       </c>
       <c r="L36" s="1">
-        <f>B36/$I36*100</f>
+        <f t="shared" si="10"/>
         <v>79.476298663323135</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.4905534935540405</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5906503561050265</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.626762647247092E-2</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.8124418850972817E-2</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7988690431966017</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5692363984977451</v>
       </c>
     </row>
@@ -6419,39 +6468,39 @@
         <v>297.78388890000002</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12413.288680408998</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.413288680408998</v>
       </c>
       <c r="L37" s="1">
-        <f>B37/$I37*100</f>
+        <f t="shared" si="10"/>
         <v>79.988539609737401</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.2889068617230333</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5319523141037945</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4954225723676939E-2</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5146063031657894E-2</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7215887875137925</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3989121381666645</v>
       </c>
     </row>
@@ -6481,39 +6530,39 @@
         <v>280.83</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L38" s="1">
-        <f>B38/$I38*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6543,39 +6592,39 @@
         <v>280.83</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L39" s="1">
-        <f>B39/$I39*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6605,39 +6654,39 @@
         <v>280.83</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L40" s="1">
-        <f>B40/$I40*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6667,39 +6716,39 @@
         <v>280.83</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L41" s="1">
-        <f>B41/$I41*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6729,39 +6778,39 @@
         <v>280.83</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L42" s="1">
-        <f>B42/$I42*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6791,39 +6840,39 @@
         <v>280.83</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L43" s="1">
-        <f>B43/$I43*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6853,39 +6902,39 @@
         <v>280.83</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L44" s="1">
-        <f>B44/$I44*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6915,39 +6964,39 @@
         <v>280.83</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L45" s="1">
-        <f>B45/$I45*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -6977,39 +7026,39 @@
         <v>280.83</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L46" s="1">
-        <f>B46/$I46*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7039,39 +7088,39 @@
         <v>280.83</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L47" s="1">
-        <f>B47/$I47*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7101,39 +7150,39 @@
         <v>280.83</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L48" s="1">
-        <f>B48/$I48*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7163,39 +7212,39 @@
         <v>280.83</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L49" s="1">
-        <f>B49/$I49*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7225,39 +7274,39 @@
         <v>280.83</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L50" s="1">
-        <f>B50/$I50*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7287,39 +7336,39 @@
         <v>280.83</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L51" s="1">
-        <f>B51/$I51*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7349,39 +7398,39 @@
         <v>280.83</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L52" s="1">
-        <f>B52/$I52*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7411,39 +7460,39 @@
         <v>280.83</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L53" s="1">
-        <f>B53/$I53*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7473,39 +7522,39 @@
         <v>280.83</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L54" s="1">
-        <f>B54/$I54*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7535,39 +7584,39 @@
         <v>280.83</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L55" s="1">
-        <f>B55/$I55*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7597,39 +7646,39 @@
         <v>280.83</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L56" s="1">
-        <f>B56/$I56*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>
@@ -7659,39 +7708,39 @@
         <v>280.83</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12577.750713208998</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.577750713208998</v>
       </c>
       <c r="L57" s="1">
-        <f>B57/$I57*100</f>
+        <f t="shared" si="10"/>
         <v>80.461723489016308</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0916844996703556</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4988454387947723</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4758689779489149E-2</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4424993435519466E-2</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6458107350962603</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2327521542073163</v>
       </c>
     </row>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD1E1A-4DF0-4F28-B5BB-E2F388F85D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D5989-C3E8-426A-B852-E0EDE7F726C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="28680" yWindow="-6405" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
                   <c:v>8158.8874999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8289.75</c:v>
+                  <c:v>8289.7499999999909</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8350.15</c:v>
@@ -709,94 +709,94 @@
                   <c:v>8975.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9027</c:v>
+                  <c:v>9284.5874999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9106.5</c:v>
+                  <c:v>9626.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9183.5499999999993</c:v>
+                  <c:v>9805.4500000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9108.8250000000007</c:v>
+                  <c:v>9977.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9034.1</c:v>
+                  <c:v>9940.2374999999993</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9205.2083330000005</c:v>
+                  <c:v>9901.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9373.8666670000002</c:v>
+                  <c:v>10008.405555555501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9540.0750000000007</c:v>
+                  <c:v>10113.405555555501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9735.8083330000009</c:v>
+                  <c:v>10216.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9929.2083330000005</c:v>
+                  <c:v>10170.9111111111</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10120.275</c:v>
+                  <c:v>10125.0111111111</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10120.275</c:v>
+                  <c:v>10078.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,172 +1014,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>3091.18541</c:v>
+                  <c:v>3091.1854103343398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3017.4165459999999</c:v>
+                  <c:v>3017.4165457184299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2700</c:v>
+                  <c:v>2699.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2540.3726710000001</c:v>
+                  <c:v>2540.37267080745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2484.6989140000001</c:v>
+                  <c:v>2484.69891411648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2433.9622639999998</c:v>
+                  <c:v>2433.96226415094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2387.5338750000001</c:v>
+                  <c:v>2387.53387533875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2344.8873480000002</c:v>
+                  <c:v>2344.8873483535499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2317.892053</c:v>
+                  <c:v>2317.8920526986799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2256.0192619999998</c:v>
+                  <c:v>2256.0192616372301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2113.8328529999999</c:v>
+                  <c:v>2113.83285302593</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2083.4794809999999</c:v>
+                  <c:v>2083.4794808839001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2054.6821599999998</c:v>
+                  <c:v>2054.6821599453101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2027.3242250000001</c:v>
+                  <c:v>2027.3242252582399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2001.3003900000001</c:v>
+                  <c:v>2001.30039011703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1987.1506589999999</c:v>
+                  <c:v>1987.15065852875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1966.59313</c:v>
+                  <c:v>1966.5931295304099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1962.9861980000001</c:v>
+                  <c:v>1962.9861982434099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1619.458128</c:v>
+                  <c:v>1619.45812807881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1592.739726</c:v>
+                  <c:v>1592.7397260273899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1495.242424</c:v>
+                  <c:v>1495.2424242424199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1412.526316</c:v>
+                  <c:v>1412.5263157894699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1379.8208959999999</c:v>
+                  <c:v>1379.8208955223799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1361.666667</c:v>
+                  <c:v>1361.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1343.6470589999999</c:v>
+                  <c:v>1343.64705882352</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1343.6470589999999</c:v>
+                  <c:v>1315.0588235294099</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1272.176471</c:v>
+                  <c:v>1343.64705882352</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1250.7352940000001</c:v>
+                  <c:v>1315.0588235294099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1229.294118</c:v>
+                  <c:v>1286.4705882352901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1215</c:v>
+                  <c:v>1257.88235294117</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1200.705882</c:v>
+                  <c:v>1222.14705882352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1191.176471</c:v>
+                  <c:v>1186.4117647058799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1181.6470589999999</c:v>
+                  <c:v>1181.64705882352</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1172.117647</c:v>
+                  <c:v>1176.88235294117</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1162.5882349999999</c:v>
+                  <c:v>1172.11764705882</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1153.058824</c:v>
+                  <c:v>1167.35294117647</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1162.5882352941101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1143.5294120000001</c:v>
+                  <c:v>1157.8235294117601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,31 +1397,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>848.42142860000001</c:v>
+                  <c:v>848.42142857142801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>831.7857143</c:v>
+                  <c:v>831.78571428571399</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>815.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>798.51428569999996</c:v>
+                  <c:v>798.51428571428505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>781.87857140000006</c:v>
+                  <c:v>781.87857142857104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>765.24285710000004</c:v>
+                  <c:v>765.24285714285702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>748.60714289999999</c:v>
+                  <c:v>748.60714285714198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>731.97142859999997</c:v>
+                  <c:v>731.97142857142796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>715.33571429999995</c:v>
+                  <c:v>715.33571428571395</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>698.7</c:v>
@@ -1460,52 +1460,52 @@
                   <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>419.22</c:v>
+                  <c:v>419.219999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>419.22</c:v>
+                  <c:v>419.219999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>410.85500830000001</c:v>
+                  <c:v>410.8550082557</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>402.1406667</c:v>
+                  <c:v>402.14066674430001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>380.05398330000003</c:v>
+                  <c:v>395.54183337214999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>367.38034160000001</c:v>
+                  <c:v>388.94299999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>354.70670000000001</c:v>
+                  <c:v>384.28500000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>348.49603339999999</c:v>
+                  <c:v>374.96899999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>342.2853667</c:v>
+                  <c:v>365.65300000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>336.01129950000001</c:v>
+                  <c:v>359.83049999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>329.73723219999999</c:v>
+                  <c:v>354.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>323.463165</c:v>
+                  <c:v>348.57366666666599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>320.40829330000003</c:v>
+                  <c:v>343.13933333333301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>317.35342170000001</c:v>
+                  <c:v>337.70499999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>335.37599999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>314.29854999999998</c:v>
@@ -1783,169 +1783,169 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.571428569999995</c:v>
+                  <c:v>84.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.142857140000004</c:v>
+                  <c:v>81.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.714285709999999</c:v>
+                  <c:v>77.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.285714290000001</c:v>
+                  <c:v>74.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.34857143</c:v>
+                  <c:v>45.348571428571397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.154285710000003</c:v>
+                  <c:v>43.154285714285699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.96</c:v>
+                  <c:v>40.959999999999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.765714289999998</c:v>
+                  <c:v>38.765714285714203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.571428570000002</c:v>
+                  <c:v>36.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.377142859999999</c:v>
+                  <c:v>34.3771428571428</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.182857140000003</c:v>
+                  <c:v>32.182857142857102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.98857143</c:v>
+                  <c:v>29.988571428571401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.79428571</c:v>
+                  <c:v>27.794285714285699</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.327416169999999</c:v>
+                  <c:v>12.327416173570001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.272846810000001</c:v>
+                  <c:v>10.2728468113083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2182774490000003</c:v>
+                  <c:v>8.2182774490466795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7527942139999997</c:v>
+                  <c:v>5.7527942143326696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3418803419999996</c:v>
+                  <c:v>5.3418803418803398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5200525970000003</c:v>
+                  <c:v>4.5200525969756704</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0997570090000002</c:v>
+                  <c:v>4.0997570089490099</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.079110301</c:v>
+                  <c:v>4.0797067542614096</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3128338230000001</c:v>
+                  <c:v>4.3143250717191401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1473098100000003</c:v>
+                  <c:v>4.1223937921719198</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5949654450000001</c:v>
+                  <c:v>3.3920347419549</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3412788689999999</c:v>
+                  <c:v>3.4053681699243099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0936340219999998</c:v>
+                  <c:v>3.1786072836069499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8988638820000001</c:v>
+                  <c:v>3.0168606482795002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.692895407</c:v>
+                  <c:v>2.6551843155685</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.542951049</c:v>
+                  <c:v>2.3330387718046399</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4012622069999998</c:v>
+                  <c:v>2.1767377735542599</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2668844890000002</c:v>
+                  <c:v>2.06856477579512</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1296348279999999</c:v>
+                  <c:v>1.9645133024313699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9927764130000001</c:v>
+                  <c:v>1.84095440417322</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.856311209</c:v>
+                  <c:v>1.7075395688916299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,97 +2238,97 @@
                   <c:v>8.26112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.2252799999999997</c:v>
+                  <c:v>6.2540800000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2700800000000001</c:v>
+                  <c:v>1.7203200000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.3148800000000005</c:v>
+                  <c:v>1.68448</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3865599999999993</c:v>
+                  <c:v>1.66656</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.45824</c:v>
+                  <c:v>1.6486400000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.1954133329999994</c:v>
+                  <c:v>1.63968</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.9325866669999998</c:v>
+                  <c:v>1.6307199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.6697600000000001</c:v>
+                  <c:v>1.6128</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.3949866670000004</c:v>
+                  <c:v>1.5948800000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1202133329999997</c:v>
+                  <c:v>1.5769599999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.54112</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.50528</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.84544</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,97 +2621,97 @@
                   <c:v>851.31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>849.44500000000005</c:v>
+                  <c:v>849.44499999999903</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>849.14499999999998</c:v>
+                  <c:v>809.70999999999901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>839.24437499999999</c:v>
+                  <c:v>782.70749999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>829.23500000000001</c:v>
+                  <c:v>778.33499999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>801.36775</c:v>
+                  <c:v>756.04499999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>773.91700000000003</c:v>
+                  <c:v>720.426999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>752.61400000000003</c:v>
+                  <c:v>692.09266666666599</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>731.46833330000004</c:v>
+                  <c:v>680.278111111111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>710.48</c:v>
+                  <c:v>668.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>710.35866669999996</c:v>
+                  <c:v>670.19733333333295</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>710.23733330000005</c:v>
+                  <c:v>671.74133333333305</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>673.28533333333303</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>710.11599999999999</c:v>
+                  <c:v>675.15200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,157 +2767,157 @@
                   <c:v>205.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.4</c:v>
+                  <c:v>212.39999999999901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>218.88</c:v>
+                  <c:v>218.879999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225.36</c:v>
+                  <c:v>225.35999999999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231.84</c:v>
+                  <c:v>231.83999999999901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>238.0421533</c:v>
+                  <c:v>238.042153284671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>244.22710620000001</c:v>
+                  <c:v>244.22710622710599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.84237130000002</c:v>
+                  <c:v>270.84237132352899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>297.39114389999997</c:v>
+                  <c:v>297.39114391143897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>323.87268519999998</c:v>
+                  <c:v>323.87268518518499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>350.28624539999998</c:v>
+                  <c:v>350.28624535315902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>376.63106340000002</c:v>
+                  <c:v>376.63106343283499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>402.90636699999999</c:v>
+                  <c:v>402.906367041198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>424.82025850000002</c:v>
+                  <c:v>424.82025845864598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>446.14037739999998</c:v>
+                  <c:v>446.14037735849001</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>450.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>469.04871969999999</c:v>
+                  <c:v>469.048719691119</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>488.55303370000001</c:v>
+                  <c:v>488.55303370786498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>480.42291669999997</c:v>
+                  <c:v>480.42291666666603</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>472.89833329999999</c:v>
+                  <c:v>472.89833333333303</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>463.21199999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>432.53280000000001</c:v>
+                  <c:v>432.53279999999899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>410.94400000000002</c:v>
+                  <c:v>380.7099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>400.03859999999997</c:v>
+                  <c:v>347.3032</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>389.16559999999998</c:v>
+                  <c:v>326.60479999999899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>383.15249999999997</c:v>
+                  <c:v>305.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>377.16320000000002</c:v>
+                  <c:v>295.85219999999902</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>362.01006669999998</c:v>
+                  <c:v>285.7568</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>346.84533329999999</c:v>
+                  <c:v>269.70993333333303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>331.66899999999998</c:v>
+                  <c:v>253.74666666666599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>314.73022220000001</c:v>
+                  <c:v>237.866999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>297.78388890000002</c:v>
+                  <c:v>235.91555555555499</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>280.83</c:v>
+                  <c:v>233.96788888888801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4148,10 +4148,10 @@
         <v>8000</v>
       </c>
       <c r="C2">
-        <v>3091.18541</v>
+        <v>3091.1854103343398</v>
       </c>
       <c r="D2">
-        <v>848.42142860000001</v>
+        <v>848.42142857142801</v>
       </c>
       <c r="E2">
         <v>88</v>
@@ -4167,39 +4167,39 @@
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>13058.982838600001</v>
+        <v>13058.982838905767</v>
       </c>
       <c r="J2">
         <f>I2/1000</f>
-        <v>13.0589828386</v>
+        <v>13.058982838905768</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:R2" si="0">B2/$I2*100</f>
-        <v>61.260513922672764</v>
+        <v>61.260513921238392</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>23.670950855858489</v>
+        <v>23.670950857864479</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>6.4968415923805267</v>
+        <v>6.4968415920096154</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.67386565314940028</v>
+        <v>0.67386565313362234</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>4.1167065356036099E-2</v>
+        <v>4.1167065355072197E-2</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>6.4782993473226442</v>
+        <v>6.4782993471709602</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" si="0"/>
-        <v>1.3783615632601371</v>
+        <v>1.3783615632278639</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -4219,13 +4219,13 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>3017.4165459999999</v>
+        <v>3017.4165457184299</v>
       </c>
       <c r="D3">
-        <v>831.7857143</v>
+        <v>831.78571428571399</v>
       </c>
       <c r="E3">
-        <v>84.571428569999995</v>
+        <v>84.571428571428498</v>
       </c>
       <c r="F3">
         <v>5.3760000000000003</v>
@@ -4238,39 +4238,39 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I57" si="1">SUM(B3:H3)</f>
-        <v>12971.62968887</v>
+        <v>12971.629688575573</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J57" si="2">I3/1000</f>
-        <v>12.971629688869999</v>
+        <v>12.971629688575574</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L34" si="3">B3/$I3*100</f>
-        <v>61.673052591566126</v>
+        <v>61.673052592965959</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M57" si="4">C3/$I3*100</f>
-        <v>23.261661166514973</v>
+        <v>23.261661164872301</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N57" si="5">D3/$I3*100</f>
-        <v>6.4123455128671614</v>
+        <v>6.4123455129025748</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O57" si="6">E3/$I3*100</f>
-        <v>0.65197227024268589</v>
+        <v>0.6519722702684968</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P57" si="7">F3/$I3*100</f>
-        <v>4.1444291341532435E-2</v>
+        <v>4.1444291342473127E-2</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q57" si="8">G3/$I3*100</f>
-        <v>6.5219253115581175</v>
+        <v>6.5219253117061502</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R57" si="9">H3/$I3*100</f>
-        <v>1.4375988559094062</v>
+        <v>1.4375988559420365</v>
       </c>
       <c r="Y3" t="s">
         <v>27</v>
@@ -4298,13 +4298,13 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>2700</v>
+        <v>2699.99999999999</v>
       </c>
       <c r="D4">
         <v>815.15</v>
       </c>
       <c r="E4">
-        <v>81.142857140000004</v>
+        <v>81.142857142857096</v>
       </c>
       <c r="F4">
         <v>5.3760000000000003</v>
@@ -4317,39 +4317,39 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>12640.628857139998</v>
+        <v>12640.628857142845</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>12.640628857139998</v>
+        <v>12.640628857142845</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="3"/>
-        <v>63.287990577155803</v>
+        <v>63.287990577141549</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="4"/>
-        <v>21.359696819790088</v>
+        <v>21.359696819785196</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>6.4486506898710685</v>
+        <v>6.4486506898696172</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="6"/>
-        <v>0.64192104725997756</v>
+        <v>0.64192104728243538</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>4.252952966784871E-2</v>
+        <v>4.2529529667839128E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="8"/>
-        <v>6.6927050035342273</v>
+        <v>6.69270500353272</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="9"/>
-        <v>1.5265063327209982</v>
+        <v>1.5265063327206543</v>
       </c>
       <c r="Y4" t="s">
         <v>29</v>
@@ -4369,13 +4369,13 @@
         <v>8000</v>
       </c>
       <c r="C5">
-        <v>2540.3726710000001</v>
+        <v>2540.37267080745</v>
       </c>
       <c r="D5">
-        <v>798.51428569999996</v>
+        <v>798.51428571428505</v>
       </c>
       <c r="E5">
-        <v>77.714285709999999</v>
+        <v>77.714285714285694</v>
       </c>
       <c r="F5">
         <v>5.3760000000000003</v>
@@ -4388,39 +4388,39 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>12467.417242410002</v>
+        <v>12467.417242236023</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>12.467417242410001</v>
+        <v>12.467417242236023</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>64.167259701445332</v>
+        <v>64.167259702340772</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="4"/>
-        <v>20.37609411481392</v>
+        <v>20.376094113553837</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="5"/>
-        <v>6.4048091932282514</v>
+        <v>6.4048091934322082</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="6"/>
-        <v>0.62333909420823641</v>
+        <v>0.62333909425131018</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>4.3120398519371265E-2</v>
+        <v>4.3120398519972999E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="8"/>
-        <v>6.7856877134278442</v>
+        <v>6.7856877135225364</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="9"/>
-        <v>1.5996897843570321</v>
+        <v>1.5996897843793552</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -4443,13 +4443,13 @@
         <v>8000</v>
       </c>
       <c r="C6">
-        <v>2484.6989140000001</v>
+        <v>2484.69891411648</v>
       </c>
       <c r="D6">
-        <v>781.87857140000006</v>
+        <v>781.87857142857104</v>
       </c>
       <c r="E6">
-        <v>74.285714290000001</v>
+        <v>74.285714285714207</v>
       </c>
       <c r="F6">
         <v>5.3760000000000003</v>
@@ -4462,39 +4462,39 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>12398.159199690001</v>
+        <v>12398.159199830765</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>12.398159199690001</v>
+        <v>12.398159199830765</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>64.525707979294452</v>
+        <v>64.525707978561854</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="4"/>
-        <v>20.040869567654259</v>
+        <v>20.040869568366215</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="5"/>
-        <v>6.3064085466780408</v>
+        <v>6.3064085468368862</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="6"/>
-        <v>0.59916728841373013</v>
+        <v>0.59916728837235944</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>4.3361275762085871E-2</v>
+        <v>4.3361275761593564E-2</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="8"/>
-        <v>6.8235936188103894</v>
+        <v>6.8235936187329163</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="9"/>
-        <v>1.6608917233870393</v>
+        <v>1.6608917233681817</v>
       </c>
       <c r="Y6" t="s">
         <v>30</v>
@@ -4515,13 +4515,13 @@
         <v>8000</v>
       </c>
       <c r="C7">
-        <v>2433.9622639999998</v>
+        <v>2433.96226415094</v>
       </c>
       <c r="D7">
-        <v>765.24285710000004</v>
+        <v>765.24285714285702</v>
       </c>
       <c r="E7">
-        <v>45.34857143</v>
+        <v>45.348571428571397</v>
       </c>
       <c r="F7">
         <v>5.3760000000000003</v>
@@ -4530,43 +4530,43 @@
         <v>846</v>
       </c>
       <c r="H7">
-        <v>212.4</v>
+        <v>212.39999999999901</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>12308.32969253</v>
+        <v>12308.329692722367</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>12.30832969253</v>
+        <v>12.308329692722367</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>64.99663398564347</v>
+        <v>64.996633984627621</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="4"/>
-        <v>19.774919301009515</v>
+        <v>19.774919301926776</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="5"/>
-        <v>6.2172762366320962</v>
+        <v>6.2172762368831211</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="6"/>
-        <v>0.36843806237593979</v>
+        <v>0.36843806235857468</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>4.3677738038352412E-2</v>
+        <v>4.3677738037669771E-2</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="8"/>
-        <v>6.8733940439817971</v>
+        <v>6.8733940438743719</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="9"/>
-        <v>1.7256606323188342</v>
+        <v>1.7256606322918557</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
@@ -4577,13 +4577,13 @@
         <v>8000</v>
       </c>
       <c r="C8">
-        <v>2387.5338750000001</v>
+        <v>2387.53387533875</v>
       </c>
       <c r="D8">
-        <v>748.60714289999999</v>
+        <v>748.60714285714198</v>
       </c>
       <c r="E8">
-        <v>43.154285710000003</v>
+        <v>43.154285714285699</v>
       </c>
       <c r="F8">
         <v>5.3760000000000003</v>
@@ -4592,43 +4592,43 @@
         <v>846</v>
       </c>
       <c r="H8">
-        <v>218.88</v>
+        <v>218.879999999999</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>12249.55130361</v>
+        <v>12249.551303910175</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>12.24955130361</v>
+        <v>12.249551303910176</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
-        <v>65.308514587325021</v>
+        <v>65.308514585724637</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>19.490786362896269</v>
+        <v>19.490786365184054</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>6.1113025640325453</v>
+        <v>6.1113025635329139</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="6"/>
-        <v>0.35229278722464091</v>
+        <v>0.35229278725099455</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>4.3887321802682427E-2</v>
+        <v>4.3887321801606961E-2</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="8"/>
-        <v>6.9063754176096213</v>
+        <v>6.9063754174403815</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="9"/>
-        <v>1.7868409591092129</v>
+        <v>1.786840959065418</v>
       </c>
       <c r="U8" t="s">
         <v>3</v>
@@ -4660,13 +4660,13 @@
         <v>8000</v>
       </c>
       <c r="C9">
-        <v>2344.8873480000002</v>
+        <v>2344.8873483535499</v>
       </c>
       <c r="D9">
-        <v>731.97142859999997</v>
+        <v>731.97142857142796</v>
       </c>
       <c r="E9">
-        <v>40.96</v>
+        <v>40.959999999999901</v>
       </c>
       <c r="F9">
         <v>5.3760000000000003</v>
@@ -4675,43 +4675,43 @@
         <v>846</v>
       </c>
       <c r="H9">
-        <v>225.36</v>
+        <v>225.35999999999899</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>12194.5547766</v>
+        <v>12194.554776924975</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>12.1945547766</v>
+        <v>12.194554776924976</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
-        <v>65.603051087614233</v>
+        <v>65.603051085865971</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="4"/>
-        <v>19.228970560693035</v>
+        <v>19.228970563079841</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="5"/>
-        <v>6.002444878139972</v>
+        <v>6.0024448777457096</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
-        <v>0.33588762156858487</v>
+        <v>0.33588762155963292</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>4.408525033087677E-2</v>
+        <v>4.4085250329701932E-2</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="8"/>
-        <v>6.9375226525152058</v>
+        <v>6.9375226523303262</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="9"/>
-        <v>1.8480379491380932</v>
+        <v>1.8480379490888359</v>
       </c>
       <c r="T9" t="s">
         <v>8</v>
@@ -4740,13 +4740,13 @@
         <v>8000</v>
       </c>
       <c r="C10">
-        <v>2317.892053</v>
+        <v>2317.8920526986799</v>
       </c>
       <c r="D10">
-        <v>715.33571429999995</v>
+        <v>715.33571428571395</v>
       </c>
       <c r="E10">
-        <v>38.765714289999998</v>
+        <v>38.765714285714203</v>
       </c>
       <c r="F10">
         <v>5.3760000000000003</v>
@@ -4755,43 +4755,43 @@
         <v>846</v>
       </c>
       <c r="H10">
-        <v>231.84</v>
+        <v>231.83999999999901</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>12155.20948159</v>
+        <v>12155.209481270105</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>12.155209481589999</v>
+        <v>12.155209481270106</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>65.81540212956935</v>
+        <v>65.815402131301454</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="4"/>
-        <v>19.069124695141006</v>
+        <v>19.069124693163921</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>5.8850134617871532</v>
+        <v>5.885013461824502</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="6"/>
-        <v>0.31892263435454288</v>
+        <v>0.3189226343276772</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-        <v>4.4227950231070609E-2</v>
+        <v>4.4227950232234574E-2</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="8"/>
-        <v>6.9599787752019582</v>
+        <v>6.9599787753851281</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="9"/>
-        <v>1.9073303537149195</v>
+        <v>1.9073303537651076</v>
       </c>
       <c r="T10" t="s">
         <v>9</v>
@@ -4820,13 +4820,13 @@
         <v>8000</v>
       </c>
       <c r="C11">
-        <v>2256.0192619999998</v>
+        <v>2256.0192616372301</v>
       </c>
       <c r="D11">
         <v>698.7</v>
       </c>
       <c r="E11">
-        <v>36.571428570000002</v>
+        <v>36.571428571428498</v>
       </c>
       <c r="F11">
         <v>5.3760000000000003</v>
@@ -4835,43 +4835,43 @@
         <v>846</v>
       </c>
       <c r="H11">
-        <v>238.0421533</v>
+        <v>238.042153284671</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>12080.708843870001</v>
+        <v>12080.70884349333</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>12.080708843870001</v>
+        <v>12.08070884349333</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>66.221279755942163</v>
+        <v>66.221279758006915</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="4"/>
-        <v>18.674560335462019</v>
+        <v>18.674560333041402</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>5.7836010206845989</v>
+        <v>5.7836010208649293</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>0.30272585030105326</v>
+        <v>0.30272585032231675</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>4.450069999599314E-2</v>
+        <v>4.4500699997380655E-2</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="8"/>
-        <v>7.0029003341908842</v>
+        <v>7.0029003344092313</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="9"/>
-        <v>1.9704320034232714</v>
+        <v>1.9704320033578204</v>
       </c>
       <c r="T11" t="s">
         <v>1</v>
@@ -4900,13 +4900,13 @@
         <v>8000</v>
       </c>
       <c r="C12">
-        <v>2113.8328529999999</v>
+        <v>2113.83285302593</v>
       </c>
       <c r="D12">
         <v>582.25</v>
       </c>
       <c r="E12">
-        <v>34.377142859999999</v>
+        <v>34.3771428571428</v>
       </c>
       <c r="F12">
         <v>5.3760000000000003</v>
@@ -4915,43 +4915,43 @@
         <v>846</v>
       </c>
       <c r="H12">
-        <v>244.22710620000001</v>
+        <v>244.22710622710599</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>11826.063102059999</v>
+        <v>11826.06310211018</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>11.826063102059999</v>
+        <v>11.826063102110179</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>67.647195275040161</v>
+        <v>67.64719527475313</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="4"/>
-        <v>17.874357973210785</v>
+        <v>17.874357973354201</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>4.9234474311115166</v>
+        <v>4.9234474310906258</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
-        <v>0.29068966200604657</v>
+        <v>0.29068966198065294</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>4.5458915224826993E-2</v>
+        <v>4.5458915224634099E-2</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="8"/>
-        <v>7.153690900335496</v>
+        <v>7.1536909003051434</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="9"/>
-        <v>2.0651598430711715</v>
+        <v>2.0651598432916138</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -4962,13 +4962,13 @@
         <v>8000</v>
       </c>
       <c r="C13">
-        <v>2083.4794809999999</v>
+        <v>2083.4794808839001</v>
       </c>
       <c r="D13">
         <v>465.8</v>
       </c>
       <c r="E13">
-        <v>32.182857140000003</v>
+        <v>32.182857142857102</v>
       </c>
       <c r="F13">
         <v>5.3760000000000003</v>
@@ -4977,43 +4977,43 @@
         <v>846</v>
       </c>
       <c r="H13">
-        <v>270.84237130000002</v>
+        <v>270.84237132352899</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>11703.680709439999</v>
+        <v>11703.680709350287</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>11.703680709439999</v>
+        <v>11.703680709350287</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>68.354564675942754</v>
+        <v>68.354564676466708</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="4"/>
-        <v>17.801916616876767</v>
+        <v>17.801916616021231</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>3.9799445282567665</v>
+        <v>3.979944528287275</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
-        <v>0.27498064872909456</v>
+        <v>0.27498064875561429</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-        <v>4.593426746223353E-2</v>
+        <v>4.593426746258563E-2</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="8"/>
-        <v>7.2284952144809456</v>
+        <v>7.2284952145363555</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="9"/>
-        <v>2.3141640482514445</v>
+        <v>2.3141640484702219</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
@@ -5024,13 +5024,13 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>2054.6821599999998</v>
+        <v>2054.6821599453101</v>
       </c>
       <c r="D14">
         <v>442.51</v>
       </c>
       <c r="E14">
-        <v>29.98857143</v>
+        <v>29.988571428571401</v>
       </c>
       <c r="F14">
         <v>5.3760000000000003</v>
@@ -5039,43 +5039,43 @@
         <v>846</v>
       </c>
       <c r="H14">
-        <v>297.39114389999997</v>
+        <v>297.39114391143897</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>11675.947875330001</v>
+        <v>11675.947875285321</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>11.675947875330001</v>
+        <v>11.675947875285321</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>68.516921156381002</v>
+        <v>68.516921156643193</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>17.597561944767826</v>
+        <v>17.597561944366767</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>3.7899278476137699</v>
+        <v>3.7899278476282725</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="6"/>
-        <v>0.25684057303272623</v>
+        <v>0.25684057302147367</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-        <v>4.6043371017088039E-2</v>
+        <v>4.6043371017264231E-2</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="8"/>
-        <v>7.245664412287292</v>
+        <v>7.2456644123150182</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="9"/>
-        <v>2.5470406949002822</v>
+        <v>2.5470406950079996</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
@@ -5086,13 +5086,13 @@
         <v>8000</v>
       </c>
       <c r="C15">
-        <v>2027.3242250000001</v>
+        <v>2027.3242252582399</v>
       </c>
       <c r="D15">
         <v>419.22</v>
       </c>
       <c r="E15">
-        <v>27.79428571</v>
+        <v>27.794285714285699</v>
       </c>
       <c r="F15">
         <v>5.3760000000000003</v>
@@ -5101,43 +5101,43 @@
         <v>846</v>
       </c>
       <c r="H15">
-        <v>323.87268519999998</v>
+        <v>323.87268518518499</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>11649.58719591</v>
+        <v>11649.58719615771</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>11.64958719591</v>
+        <v>11.649587196157711</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="3"/>
-        <v>68.671961207421006</v>
+        <v>68.671961205960812</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>17.402541316758107</v>
+        <v>17.402541318604801</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>3.5985824471718795</v>
+        <v>3.5985824470953616</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="6"/>
-        <v>0.23858601375813698</v>
+        <v>0.23858601378985225</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>4.6147557931386918E-2</v>
+        <v>4.6147557930405661E-2</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="8"/>
-        <v>7.2620598976847708</v>
+        <v>7.2620598975303556</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="9"/>
-        <v>2.7801215592747091</v>
+        <v>2.7801215590884225</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -5148,7 +5148,7 @@
         <v>8000</v>
       </c>
       <c r="C16">
-        <v>2001.3003900000001</v>
+        <v>2001.30039011703</v>
       </c>
       <c r="D16">
         <v>419.22</v>
@@ -5163,43 +5163,43 @@
         <v>846</v>
       </c>
       <c r="H16">
-        <v>350.28624539999998</v>
+        <v>350.28624535315902</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>11647.782635400001</v>
+        <v>11647.78263547019</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>11.6477826354</v>
+        <v>11.64778263547019</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
-        <v>68.682600374824645</v>
+        <v>68.682600374410768</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="4"/>
-        <v>17.181814364543836</v>
+        <v>17.181814365445039</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="5"/>
-        <v>3.5991399661417485</v>
+        <v>3.59913996612006</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="6"/>
-        <v>0.21978432119943886</v>
+        <v>0.21978432119811445</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-        <v>4.615470745188216E-2</v>
+        <v>4.6154707451604035E-2</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="8"/>
-        <v>7.2631849896377059</v>
+        <v>7.2631849895939373</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="9"/>
-        <v>3.0073212762007442</v>
+        <v>3.0073212757804773</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -5210,13 +5210,13 @@
         <v>8000</v>
       </c>
       <c r="C17">
-        <v>1987.1506589999999</v>
+        <v>1987.15065852875</v>
       </c>
       <c r="D17">
         <v>419.22</v>
       </c>
       <c r="E17">
-        <v>12.327416169999999</v>
+        <v>12.327416173570001</v>
       </c>
       <c r="F17">
         <v>5.3760000000000003</v>
@@ -5225,43 +5225,43 @@
         <v>846</v>
       </c>
       <c r="H17">
-        <v>376.63106340000002</v>
+        <v>376.63106343283499</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>11646.705138569998</v>
+        <v>11646.705138135154</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>11.646705138569997</v>
+        <v>11.646705138135154</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
-        <v>68.68895455682717</v>
+        <v>68.688954559391746</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="4"/>
-        <v>17.06191266420252</v>
+        <v>17.06191266079334</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="5"/>
-        <v>3.5994729411641355</v>
+        <v>3.5994729412985267</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>0.1058446661380283</v>
+        <v>0.10584466617263258</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
-        <v>4.6158977462187854E-2</v>
+        <v>4.615897746391126E-2</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="8"/>
-        <v>7.2638569443844725</v>
+        <v>7.2638569446556778</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="9"/>
-        <v>3.2337992498215118</v>
+        <v>3.2337992502241746</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -5272,13 +5272,13 @@
         <v>8000</v>
       </c>
       <c r="C18">
-        <v>1966.59313</v>
+        <v>1966.5931295304099</v>
       </c>
       <c r="D18">
         <v>419.22</v>
       </c>
       <c r="E18">
-        <v>10.272846810000001</v>
+        <v>10.2728468113083</v>
       </c>
       <c r="F18">
         <v>5.3760000000000003</v>
@@ -5287,43 +5287,43 @@
         <v>846</v>
       </c>
       <c r="H18">
-        <v>402.90636699999999</v>
+        <v>402.906367041198</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>11650.368343809998</v>
+        <v>11650.368343382917</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>11.650368343809998</v>
+        <v>11.650368343382917</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
-        <v>68.667356807224991</v>
+        <v>68.667356809742202</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="4"/>
-        <v>16.880094019043426</v>
+        <v>16.880094015631528</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="5"/>
-        <v>3.5983411650906079</v>
+        <v>3.5983411652225161</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="6"/>
-        <v>8.8176154666029141E-2</v>
+        <v>8.8176154680491184E-2</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="7"/>
-        <v>4.6144463774455198E-2</v>
+        <v>4.6144463776146762E-2</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="8"/>
-        <v>7.2615729823640427</v>
+        <v>7.2615729826302378</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="9"/>
-        <v>3.4583144078364674</v>
+        <v>3.4583144083168627</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -5334,13 +5334,13 @@
         <v>8080</v>
       </c>
       <c r="C19">
-        <v>1962.9861980000001</v>
+        <v>1962.9861982434099</v>
       </c>
       <c r="D19">
         <v>419.22</v>
       </c>
       <c r="E19">
-        <v>8.2182774490000003</v>
+        <v>8.2182774490466795</v>
       </c>
       <c r="F19">
         <v>5.3760000000000003</v>
@@ -5349,43 +5349,43 @@
         <v>846</v>
       </c>
       <c r="H19">
-        <v>424.82025850000002</v>
+        <v>424.82025845864598</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>11746.620733948999</v>
+        <v>11746.620734151102</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>11.746620733948999</v>
+        <v>11.746620734151101</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="3"/>
-        <v>68.785740026899219</v>
+        <v>68.785740025715754</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="4"/>
-        <v>16.711071570794473</v>
+        <v>16.711071572579122</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="5"/>
-        <v>3.5688561799599867</v>
+        <v>3.5688561798985843</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="6"/>
-        <v>6.9962907930178536E-2</v>
+        <v>6.9962907929372195E-2</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="7"/>
-        <v>4.5766353760471563E-2</v>
+        <v>4.5766353759684145E-2</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="8"/>
-        <v>7.202071294895636</v>
+        <v>7.2020712947717236</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="9"/>
-        <v>3.6165316657600401</v>
+        <v>3.6165316653457666</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -5396,13 +5396,13 @@
         <v>8160</v>
       </c>
       <c r="C20">
-        <v>1619.458128</v>
+        <v>1619.45812807881</v>
       </c>
       <c r="D20">
         <v>419.22</v>
       </c>
       <c r="E20">
-        <v>5.7527942139999997</v>
+        <v>5.7527942143326696</v>
       </c>
       <c r="F20">
         <v>5.3760000000000003</v>
@@ -5411,43 +5411,43 @@
         <v>846</v>
       </c>
       <c r="H20">
-        <v>446.14037739999998</v>
+        <v>446.14037735849001</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>11501.947299613999</v>
+        <v>11501.947299651632</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>11.501947299613999</v>
+        <v>11.501947299651633</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>70.944508677011981</v>
+        <v>70.944508676779876</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="4"/>
-        <v>14.079860442886469</v>
+        <v>14.079860443525591</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="5"/>
-        <v>3.6447741332814911</v>
+        <v>3.644774133269566</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="6"/>
-        <v>5.001582831276806E-2</v>
+        <v>5.0015828315496703E-2</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="7"/>
-        <v>4.673991159897261E-2</v>
+        <v>4.6739911598819683E-2</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="8"/>
-        <v>7.3552762672490379</v>
+        <v>7.3552762672249719</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="9"/>
-        <v>3.8788247396592772</v>
+        <v>3.8788247392856912</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -5458,13 +5458,13 @@
         <v>8292.7000000000007</v>
       </c>
       <c r="C21">
-        <v>1592.739726</v>
+        <v>1592.7397260273899</v>
       </c>
       <c r="D21">
         <v>419.22</v>
       </c>
       <c r="E21">
-        <v>5.3418803419999996</v>
+        <v>5.3418803418803398</v>
       </c>
       <c r="F21">
         <v>5.3760000000000003</v>
@@ -5477,39 +5477,39 @@
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>11613.587606342002</v>
+        <v>11613.587606369272</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>11.613587606342001</v>
+        <v>11.613587606369272</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>71.405153007770693</v>
+        <v>71.405153007603033</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="4"/>
-        <v>13.714450521131209</v>
+        <v>13.714450521334848</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="5"/>
-        <v>3.609737268189809</v>
+        <v>3.6097372681813331</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="6"/>
-        <v>4.5996814447612042E-2</v>
+        <v>4.5996814446473695E-2</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="7"/>
-        <v>4.6290605299814928E-2</v>
+        <v>4.6290605299706231E-2</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="8"/>
-        <v>7.3025668617410791</v>
+        <v>7.3025668617239319</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="9"/>
-        <v>3.8758049214197716</v>
+        <v>3.8758049214106709</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -5520,13 +5520,13 @@
         <v>8225.6625000000004</v>
       </c>
       <c r="C22">
-        <v>1495.242424</v>
+        <v>1495.2424242424199</v>
       </c>
       <c r="D22">
         <v>419.22</v>
       </c>
       <c r="E22">
-        <v>4.5200525970000003</v>
+        <v>4.5200525969756704</v>
       </c>
       <c r="F22">
         <v>5.7881600000000004</v>
@@ -5535,43 +5535,43 @@
         <v>850.28</v>
       </c>
       <c r="H22">
-        <v>469.04871969999999</v>
+        <v>469.048719691119</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>11469.761856297</v>
+        <v>11469.761856530517</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>11.469761856297</v>
+        <v>11.469761856530516</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>71.716070508334397</v>
+        <v>71.716070506874303</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="4"/>
-        <v>13.036385957561086</v>
+        <v>13.036385959409232</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="5"/>
-        <v>3.6550017799179026</v>
+        <v>3.6550017798434893</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="6"/>
-        <v>3.9408425856012445E-2</v>
+        <v>3.9408425854998E-2</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="7"/>
-        <v>5.0464517681526662E-2</v>
+        <v>5.0464517680499241E-2</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>7.4132315095381767</v>
+        <v>7.4132315093872467</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="9"/>
-        <v>4.0894373011109044</v>
+        <v>4.089437300950217</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
@@ -5582,13 +5582,13 @@
         <v>8158.8874999999998</v>
       </c>
       <c r="C23">
-        <v>1412.526316</v>
+        <v>1412.5263157894699</v>
       </c>
       <c r="D23">
-        <v>419.22</v>
+        <v>419.219999999999</v>
       </c>
       <c r="E23">
-        <v>4.0997570090000002</v>
+        <v>4.0997570089490099</v>
       </c>
       <c r="F23">
         <v>6.2003199999999996</v>
@@ -5597,43 +5597,43 @@
         <v>852.81</v>
       </c>
       <c r="H23">
-        <v>488.55303370000001</v>
+        <v>488.55303370786498</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>11342.296926708999</v>
+        <v>11342.296926506284</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>11.342296926708999</v>
+        <v>11.342296926506284</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>71.933291402267358</v>
+        <v>71.933291403552985</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="4"/>
-        <v>12.453617861773335</v>
+        <v>12.453617860139762</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="5"/>
-        <v>3.6960767533145331</v>
+        <v>3.6960767533805816</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="6"/>
-        <v>3.6145738693772286E-2</v>
+        <v>3.6145738693968747E-2</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="7"/>
-        <v>5.466547067198884E-2</v>
+        <v>5.4665470672965844E-2</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="8"/>
-        <v>7.5188474213877354</v>
+        <v>7.5188474215221168</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="9"/>
-        <v>4.3073553518912782</v>
+        <v>4.3073553520376038</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -5641,16 +5641,16 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>8289.75</v>
+        <v>8289.7499999999909</v>
       </c>
       <c r="C24">
-        <v>1379.8208959999999</v>
+        <v>1379.8208955223799</v>
       </c>
       <c r="D24">
-        <v>419.22</v>
+        <v>419.219999999999</v>
       </c>
       <c r="E24">
-        <v>4.079110301</v>
+        <v>4.0797067542614096</v>
       </c>
       <c r="F24">
         <v>7.2038399999999996</v>
@@ -5659,43 +5659,43 @@
         <v>847.99</v>
       </c>
       <c r="H24">
-        <v>480.42291669999997</v>
+        <v>480.42291666666603</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>11428.486763000998</v>
+        <v>11428.487358943297</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>11.428486763000997</v>
+        <v>11.428487358943297</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="3"/>
-        <v>72.535849862796724</v>
+        <v>72.535846080390471</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="4"/>
-        <v>12.073522283519484</v>
+        <v>12.073521649762416</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="5"/>
-        <v>3.6682021749125897</v>
+        <v>3.66820198363295</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="6"/>
-        <v>3.5692479552112369E-2</v>
+        <v>3.5697696695344887E-2</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="7"/>
-        <v>6.3034066971333208E-2</v>
+        <v>6.303406368440069E-2</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="8"/>
-        <v>7.4199674688806043</v>
+        <v>7.4199670819639154</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>4.2037316633671811</v>
+        <v>4.2037314438705122</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -5706,13 +5706,13 @@
         <v>8350.15</v>
       </c>
       <c r="C25">
-        <v>1361.666667</v>
+        <v>1361.6666666666599</v>
       </c>
       <c r="D25">
-        <v>410.85500830000001</v>
+        <v>410.8550082557</v>
       </c>
       <c r="E25">
-        <v>4.3128338230000001</v>
+        <v>4.3143250717191401</v>
       </c>
       <c r="F25">
         <v>7.45472</v>
@@ -5721,43 +5721,43 @@
         <v>848.95500000000004</v>
       </c>
       <c r="H25">
-        <v>472.89833329999999</v>
+        <v>472.89833333333303</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>11456.292562422999</v>
+        <v>11456.29405332741</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>11.456292562423</v>
+        <v>11.45629405332741</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="3"/>
-        <v>72.887017807041303</v>
+        <v>72.887008321637396</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="4"/>
-        <v>11.8857532625023</v>
+        <v>11.885751712799063</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="5"/>
-        <v>3.5862824387674714</v>
+        <v>3.5862819716675278</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="6"/>
-        <v>3.7645981887248853E-2</v>
+        <v>3.7658993838989942E-2</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="7"/>
-        <v>6.5070963921187885E-2</v>
+        <v>6.5070955452953147E-2</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="8"/>
-        <v>7.4103816341475</v>
+        <v>7.4103806697718824</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="9"/>
-        <v>4.1278479117329931</v>
+        <v>4.1278473748322009</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -5768,13 +5768,13 @@
         <v>8607.5</v>
       </c>
       <c r="C26">
-        <v>1343.6470589999999</v>
+        <v>1343.64705882352</v>
       </c>
       <c r="D26">
-        <v>402.1406667</v>
+        <v>402.14066674430001</v>
       </c>
       <c r="E26">
-        <v>4.1473098100000003</v>
+        <v>4.1223937921719198</v>
       </c>
       <c r="F26">
         <v>8.26112</v>
@@ -5787,39 +5787,39 @@
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>11680.218155509996</v>
+        <v>11680.193239359991</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>11.680218155509996</v>
+        <v>11.680193239359991</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="3"/>
-        <v>73.692972899992625</v>
+        <v>73.693130101601326</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="4"/>
-        <v>11.50361269893021</v>
+        <v>11.503637236888251</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="5"/>
-        <v>3.4429208542675651</v>
+        <v>3.4429281990743426</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>3.5507126277804661E-2</v>
+        <v>3.529388348028567E-2</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="7"/>
-        <v>7.0727446097425165E-2</v>
+        <v>7.0727596972981782E-2</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="8"/>
-        <v>7.2884768817302019</v>
+        <v>7.2884924294852409</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="9"/>
-        <v>3.965782092704198</v>
+        <v>3.9657905524975834</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -5830,58 +5830,58 @@
         <v>8975.5</v>
       </c>
       <c r="C27">
-        <v>1343.6470589999999</v>
+        <v>1315.0588235294099</v>
       </c>
       <c r="D27">
-        <v>380.05398330000003</v>
+        <v>395.54183337214999</v>
       </c>
       <c r="E27">
-        <v>3.5949654450000001</v>
+        <v>3.3920347419549</v>
       </c>
       <c r="F27">
-        <v>8.2252799999999997</v>
+        <v>6.2540800000000001</v>
       </c>
       <c r="G27">
-        <v>849.44500000000005</v>
+        <v>849.44499999999903</v>
       </c>
       <c r="H27">
-        <v>432.53280000000001</v>
+        <v>432.53279999999899</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>11992.999087745</v>
+        <v>11977.724571643514</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>11.992999087745</v>
+        <v>11.977724571643513</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="3"/>
-        <v>74.839495395039094</v>
+        <v>74.934933979438085</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="4"/>
-        <v>11.203595107190498</v>
+        <v>10.979204068882385</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="5"/>
-        <v>3.1689653315187583</v>
+        <v>3.3023119792599811</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="6"/>
-        <v>2.9975533381583444E-2</v>
+        <v>2.8319525312723606E-2</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="7"/>
-        <v>6.8584012554499155E-2</v>
+        <v>5.2214257913444834E-2</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="8"/>
-        <v>7.0828405287548319</v>
+        <v>7.0918728755126406</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="9"/>
-        <v>3.6065440915607336</v>
+        <v>3.6111433136807336</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -5889,61 +5889,61 @@
         <v>2021</v>
       </c>
       <c r="B28">
-        <v>9027</v>
+        <v>9284.5874999999996</v>
       </c>
       <c r="C28">
-        <v>1272.176471</v>
+        <v>1343.64705882352</v>
       </c>
       <c r="D28">
-        <v>367.38034160000001</v>
+        <v>388.94299999999998</v>
       </c>
       <c r="E28">
-        <v>3.3412788689999999</v>
+        <v>3.4053681699243099</v>
       </c>
       <c r="F28">
-        <v>8.2700800000000001</v>
+        <v>1.7203200000000001</v>
       </c>
       <c r="G28">
-        <v>849.14499999999998</v>
+        <v>809.70999999999901</v>
       </c>
       <c r="H28">
-        <v>410.94400000000002</v>
+        <v>380.7099</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>11938.257171469</v>
+        <v>12212.723146993443</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>11.938257171469001</v>
+        <v>12.212723146993444</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="3"/>
-        <v>75.614052121221221</v>
+        <v>76.023892364134213</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="4"/>
-        <v>10.656299765767727</v>
+        <v>11.002026678663409</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="5"/>
-        <v>3.0773364681571347</v>
+        <v>3.1847360766198234</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="6"/>
-        <v>2.7987995408452537E-2</v>
+        <v>2.7883774396070309E-2</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="7"/>
-        <v>6.9273763173442915E-2</v>
+        <v>1.4086293280328005E-2</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="8"/>
-        <v>7.1128053936495395</v>
+        <v>6.6300528576162421</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="9"/>
-        <v>3.4422444926224807</v>
+        <v>3.1173219552899147</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
@@ -5951,61 +5951,61 @@
         <v>2022</v>
       </c>
       <c r="B29">
-        <v>9106.5</v>
+        <v>9626.5</v>
       </c>
       <c r="C29">
-        <v>1250.7352940000001</v>
+        <v>1315.0588235294099</v>
       </c>
       <c r="D29">
-        <v>354.70670000000001</v>
+        <v>384.28500000000003</v>
       </c>
       <c r="E29">
-        <v>3.0936340219999998</v>
+        <v>3.1786072836069499</v>
       </c>
       <c r="F29">
-        <v>8.3148800000000005</v>
+        <v>1.68448</v>
       </c>
       <c r="G29">
-        <v>839.24437499999999</v>
+        <v>782.70749999999998</v>
       </c>
       <c r="H29">
-        <v>400.03859999999997</v>
+        <v>347.3032</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>11962.633483022</v>
+        <v>12460.717610813017</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>11.962633483022</v>
+        <v>12.460717610813017</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>76.124542417222969</v>
+        <v>77.254780187349951</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="4"/>
-        <v>10.455350786890776</v>
+        <v>10.553636352277524</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="5"/>
-        <v>2.9651221907234593</v>
+        <v>3.0839716620054825</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="6"/>
-        <v>2.5860810885752272E-2</v>
+        <v>2.5509022697446052E-2</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="7"/>
-        <v>6.9507103195971989E-2</v>
+        <v>1.3518322560638575E-2</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="8"/>
-        <v>7.0155486765610577</v>
+        <v>6.2813998715514687</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" si="9"/>
-        <v>3.3440680145200123</v>
+        <v>2.7871845815574963</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -6013,61 +6013,61 @@
         <v>2023</v>
       </c>
       <c r="B30">
-        <v>9183.5499999999993</v>
+        <v>9805.4500000000007</v>
       </c>
       <c r="C30">
-        <v>1229.294118</v>
+        <v>1286.4705882352901</v>
       </c>
       <c r="D30">
-        <v>348.49603339999999</v>
+        <v>374.96899999999999</v>
       </c>
       <c r="E30">
-        <v>2.8988638820000001</v>
+        <v>3.0168606482795002</v>
       </c>
       <c r="F30">
-        <v>8.3865599999999993</v>
+        <v>1.66656</v>
       </c>
       <c r="G30">
-        <v>829.23500000000001</v>
+        <v>778.33499999999901</v>
       </c>
       <c r="H30">
-        <v>389.16559999999998</v>
+        <v>326.60479999999899</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>11991.026175282001</v>
+        <v>12576.512808883568</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>11.991026175282</v>
+        <v>12.576512808883567</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="3"/>
-        <v>76.586856418767042</v>
+        <v>77.966365947433431</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="4"/>
-        <v>10.25178412614957</v>
+        <v>10.229151814854244</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="5"/>
-        <v>2.9063070024680702</v>
+        <v>2.9815021516547593</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="6"/>
-        <v>2.4175277742080534E-2</v>
+        <v>2.3988053716674985E-2</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="7"/>
-        <v>6.994030266807226E-2</v>
+        <v>1.3251368048723377E-2</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="8"/>
-        <v>6.9154631795347434</v>
+        <v>6.1887982132075035</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" si="9"/>
-        <v>3.2454736926704086</v>
+        <v>2.5969424510846744</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -6075,61 +6075,61 @@
         <v>2024</v>
       </c>
       <c r="B31">
-        <v>9108.8250000000007</v>
+        <v>9977.4</v>
       </c>
       <c r="C31">
-        <v>1215</v>
+        <v>1257.88235294117</v>
       </c>
       <c r="D31">
-        <v>342.2853667</v>
+        <v>365.65300000000002</v>
       </c>
       <c r="E31">
-        <v>2.692895407</v>
+        <v>2.6551843155685</v>
       </c>
       <c r="F31">
-        <v>8.45824</v>
+        <v>1.6486400000000001</v>
       </c>
       <c r="G31">
-        <v>801.36775</v>
+        <v>756.04499999999996</v>
       </c>
       <c r="H31">
-        <v>383.15249999999997</v>
+        <v>305.94</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>11861.781752107001</v>
+        <v>12667.224177256738</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>11.861781752107001</v>
+        <v>12.667224177256738</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="3"/>
-        <v>76.79137241234443</v>
+        <v>78.765480585034879</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="4"/>
-        <v>10.242980568953566</v>
+        <v>9.9302130864599718</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="5"/>
-        <v>2.8856151112306554</v>
+        <v>2.8866071594162568</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="6"/>
-        <v>2.2702284220679263E-2</v>
+        <v>2.0961058858780825E-2</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="7"/>
-        <v>7.1306656763412191E-2</v>
+        <v>1.301500610496842E-2</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="8"/>
-        <v>6.7558800755852175</v>
+        <v>5.9685136176671971</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="9"/>
-        <v>3.2301428909020422</v>
+        <v>2.4152094864579521</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -6137,61 +6137,61 @@
         <v>2025</v>
       </c>
       <c r="B32">
-        <v>9034.1</v>
+        <v>9940.2374999999993</v>
       </c>
       <c r="C32">
-        <v>1200.705882</v>
+        <v>1222.14705882352</v>
       </c>
       <c r="D32">
-        <v>336.01129950000001</v>
+        <v>359.83049999999997</v>
       </c>
       <c r="E32">
-        <v>2.542951049</v>
+        <v>2.3330387718046399</v>
       </c>
       <c r="F32">
-        <v>8.1954133329999994</v>
+        <v>1.63968</v>
       </c>
       <c r="G32">
-        <v>773.91700000000003</v>
+        <v>720.426999999999</v>
       </c>
       <c r="H32">
-        <v>377.16320000000002</v>
+        <v>295.85219999999902</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>11732.635745882</v>
+        <v>12542.466977595324</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>11.732635745882</v>
+        <v>12.542466977595325</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="3"/>
-        <v>76.999748357233798</v>
+        <v>79.252650357830717</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="4"/>
-        <v>10.233897207807136</v>
+        <v>9.7440723663586102</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="5"/>
-        <v>2.8639029351775069</v>
+        <v>2.8688973281154904</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="6"/>
-        <v>2.1674166863081403E-2</v>
+        <v>1.8601115521947632E-2</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="7"/>
-        <v>6.9851425634486958E-2</v>
+        <v>1.307302624698131E-2</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="8"/>
-        <v>6.5962756942457252</v>
+        <v>5.7439019077100344</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" si="9"/>
-        <v>3.2146502130382704</v>
+        <v>2.3588038982162072</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -6199,61 +6199,61 @@
         <v>2026</v>
       </c>
       <c r="B33">
-        <v>9205.2083330000005</v>
+        <v>9901.5</v>
       </c>
       <c r="C33">
-        <v>1191.176471</v>
+        <v>1186.4117647058799</v>
       </c>
       <c r="D33">
-        <v>329.73723219999999</v>
+        <v>354.00799999999998</v>
       </c>
       <c r="E33">
-        <v>2.4012622069999998</v>
+        <v>2.1767377735542599</v>
       </c>
       <c r="F33">
-        <v>7.9325866669999998</v>
+        <v>1.6307199999999999</v>
       </c>
       <c r="G33">
-        <v>752.61400000000003</v>
+        <v>692.09266666666599</v>
       </c>
       <c r="H33">
-        <v>362.01006669999998</v>
+        <v>285.7568</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>11851.079951774002</v>
+        <v>12423.576689146097</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>11.851079951774002</v>
+        <v>12.423576689146097</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="3"/>
-        <v>77.674004145268313</v>
+        <v>79.699270570370288</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="4"/>
-        <v>10.051206099758794</v>
+        <v>9.5496795680618511</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="5"/>
-        <v>2.782339107843427</v>
+        <v>2.8494853684871631</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>2.0261969514774492E-2</v>
+        <v>1.752102335759697E-2</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="7"/>
-        <v>6.6935559453487295E-2</v>
+        <v>1.3126010655407187E-2</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="8"/>
-        <v>6.3505942332904466</v>
+        <v>5.5708004545205991</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="9"/>
-        <v>3.0546588848707437</v>
+        <v>2.3001170045471078</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -6261,61 +6261,61 @@
         <v>2027</v>
       </c>
       <c r="B34">
-        <v>9373.8666670000002</v>
+        <v>10008.405555555501</v>
       </c>
       <c r="C34">
-        <v>1181.6470589999999</v>
+        <v>1181.64705882352</v>
       </c>
       <c r="D34">
-        <v>323.463165</v>
+        <v>348.57366666666599</v>
       </c>
       <c r="E34">
-        <v>2.2668844890000002</v>
+        <v>2.06856477579512</v>
       </c>
       <c r="F34">
-        <v>7.6697600000000001</v>
+        <v>1.6128</v>
       </c>
       <c r="G34">
-        <v>731.46833330000004</v>
+        <v>680.278111111111</v>
       </c>
       <c r="H34">
-        <v>346.84533329999999</v>
+        <v>269.70993333333303</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>11967.227202089</v>
+        <v>12492.295690265926</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>11.967227202088999</v>
+        <v>12.492295690265927</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="3"/>
-        <v>78.329478572644618</v>
+        <v>80.116623907278409</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="4"/>
-        <v>9.8740254450398641</v>
+        <v>9.4590064798439464</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="5"/>
-        <v>2.7029081970093816</v>
+        <v>2.7903091257940424</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="6"/>
-        <v>1.8942437130334524E-2</v>
+        <v>1.6558724089495883E-2</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="7"/>
-        <v>6.4089699898579405E-2</v>
+        <v>1.2910357231270979E-2</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="8"/>
-        <v>6.1122624393085383</v>
+        <v>5.4455812444560356</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="9"/>
-        <v>2.8982932089686964</v>
+        <v>2.1590101613068016</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -6323,61 +6323,61 @@
         <v>2028</v>
       </c>
       <c r="B35">
-        <v>9540.0750000000007</v>
+        <v>10113.405555555501</v>
       </c>
       <c r="C35">
-        <v>1172.117647</v>
+        <v>1176.88235294117</v>
       </c>
       <c r="D35">
-        <v>320.40829330000003</v>
+        <v>343.13933333333301</v>
       </c>
       <c r="E35">
-        <v>2.1296348279999999</v>
+        <v>1.9645133024313699</v>
       </c>
       <c r="F35">
-        <v>7.3949866670000004</v>
+        <v>1.5948800000000001</v>
       </c>
       <c r="G35">
-        <v>710.48</v>
+        <v>668.33333333333303</v>
       </c>
       <c r="H35">
-        <v>331.66899999999998</v>
+        <v>253.74666666666599</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>12084.274561794999</v>
+        <v>12559.066635132433</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>12.084274561794999</v>
+        <v>12.559066635132433</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ref="L35:L57" si="10">B35/$I35*100</f>
-        <v>78.946195331918361</v>
+        <v>80.526729010772996</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="4"/>
-        <v>9.6995284326434046</v>
+        <v>9.3707787937758642</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="5"/>
-        <v>2.6514483071494079</v>
+        <v>2.7322040984593809</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="6"/>
-        <v>1.7623191339370427E-2</v>
+        <v>1.5642191888176525E-2</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="7"/>
-        <v>6.1195122877955768E-2</v>
+        <v>1.2699032868720683E-2</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="8"/>
-        <v>5.8793765100820856</v>
+        <v>5.3215207208452364</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="9"/>
-        <v>2.7446331039894365</v>
+        <v>2.0204261513896355</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -6385,61 +6385,61 @@
         <v>2029</v>
       </c>
       <c r="B36">
-        <v>9735.8083330000009</v>
+        <v>10216.5</v>
       </c>
       <c r="C36">
-        <v>1162.5882349999999</v>
+        <v>1172.11764705882</v>
       </c>
       <c r="D36">
-        <v>317.35342170000001</v>
+        <v>337.70499999999998</v>
       </c>
       <c r="E36">
-        <v>1.9927764130000001</v>
+        <v>1.84095440417322</v>
       </c>
       <c r="F36">
-        <v>7.1202133329999997</v>
+        <v>1.5769599999999999</v>
       </c>
       <c r="G36">
-        <v>710.35866669999996</v>
+        <v>670.19733333333295</v>
       </c>
       <c r="H36">
-        <v>314.73022220000001</v>
+        <v>237.866999999999</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>12249.951868346001</v>
+        <v>12637.804894796325</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>12.249951868346001</v>
+        <v>12.637804894796325</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="10"/>
-        <v>79.476298663323135</v>
+        <v>80.840779589869214</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="4"/>
-        <v>9.4905534935540405</v>
+        <v>9.2746933254322101</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="5"/>
-        <v>2.5906503561050265</v>
+        <v>2.6721808321241896</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="6"/>
-        <v>1.626762647247092E-2</v>
+        <v>1.4567042453165592E-2</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="7"/>
-        <v>5.8124418850972817E-2</v>
+        <v>1.2478116359030993E-2</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="8"/>
-        <v>5.7988690431966017</v>
+        <v>5.3031150497448314</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" si="9"/>
-        <v>2.5692363984977451</v>
+        <v>1.8821860440173581</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -6447,61 +6447,61 @@
         <v>2030</v>
       </c>
       <c r="B37">
-        <v>9929.2083330000005</v>
+        <v>10170.9111111111</v>
       </c>
       <c r="C37">
-        <v>1153.058824</v>
+        <v>1167.35294117647</v>
       </c>
       <c r="D37">
-        <v>314.29854999999998</v>
+        <v>335.37599999999998</v>
       </c>
       <c r="E37">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F37">
-        <v>6.84544</v>
+        <v>1.54112</v>
       </c>
       <c r="G37">
-        <v>710.23733330000005</v>
+        <v>671.74133333333305</v>
       </c>
       <c r="H37">
-        <v>297.78388890000002</v>
+        <v>235.91555555555499</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>12413.288680408998</v>
+        <v>12584.54560074535</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>12.413288680408998</v>
+        <v>12.584545600745351</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="10"/>
-        <v>79.988539609737401</v>
+        <v>80.82064648014547</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="4"/>
-        <v>9.2889068617230333</v>
+        <v>9.276083366151342</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="5"/>
-        <v>2.5319523141037945</v>
+        <v>2.6649829929507867</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="6"/>
-        <v>1.4954225723676939E-2</v>
+        <v>1.3568543696885619E-2</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="7"/>
-        <v>5.5146063031657894E-2</v>
+        <v>1.2246131476600341E-2</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="8"/>
-        <v>5.7215887875137925</v>
+        <v>5.3378274801876637</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="9"/>
-        <v>2.3989121381666645</v>
+        <v>1.874645005391234</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -6509,61 +6509,61 @@
         <v>2031</v>
       </c>
       <c r="B38">
-        <v>10120.275</v>
+        <v>10125.0111111111</v>
       </c>
       <c r="C38">
-        <v>1143.5294120000001</v>
+        <v>1162.5882352941101</v>
       </c>
       <c r="D38">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E38">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F38">
-        <v>6.84544</v>
+        <v>1.50528</v>
       </c>
       <c r="G38">
-        <v>710.11599999999999</v>
+        <v>673.28533333333303</v>
       </c>
       <c r="H38">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12531.112388196323</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.531112388196323</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.798980947999084</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2776139841280933</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.6577608569987254</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.3626400562012725E-2</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.2012341389722894E-2</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.3729095428713407</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8670959260510185</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -6571,61 +6571,61 @@
         <v>2032</v>
       </c>
       <c r="B39">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C39">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D39">
         <v>314.29854999999998</v>
       </c>
       <c r="E39">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F39">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G39">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H39">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -6633,61 +6633,61 @@
         <v>2033</v>
       </c>
       <c r="B40">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C40">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D40">
         <v>314.29854999999998</v>
       </c>
       <c r="E40">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F40">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G40">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H40">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -6695,61 +6695,61 @@
         <v>2034</v>
       </c>
       <c r="B41">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C41">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D41">
         <v>314.29854999999998</v>
       </c>
       <c r="E41">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F41">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G41">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H41">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -6757,61 +6757,61 @@
         <v>2035</v>
       </c>
       <c r="B42">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C42">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D42">
         <v>314.29854999999998</v>
       </c>
       <c r="E42">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F42">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G42">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H42">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -6819,61 +6819,61 @@
         <v>2036</v>
       </c>
       <c r="B43">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C43">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D43">
         <v>314.29854999999998</v>
       </c>
       <c r="E43">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F43">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G43">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H43">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -6881,61 +6881,61 @@
         <v>2037</v>
       </c>
       <c r="B44">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C44">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D44">
         <v>314.29854999999998</v>
       </c>
       <c r="E44">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F44">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G44">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H44">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -6943,61 +6943,61 @@
         <v>2038</v>
       </c>
       <c r="B45">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C45">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D45">
         <v>314.29854999999998</v>
       </c>
       <c r="E45">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F45">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G45">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H45">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -7005,61 +7005,61 @@
         <v>2039</v>
       </c>
       <c r="B46">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C46">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D46">
         <v>314.29854999999998</v>
       </c>
       <c r="E46">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F46">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G46">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H46">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -7067,61 +7067,61 @@
         <v>2040</v>
       </c>
       <c r="B47">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C47">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D47">
         <v>314.29854999999998</v>
       </c>
       <c r="E47">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F47">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G47">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H47">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -7129,61 +7129,61 @@
         <v>2041</v>
       </c>
       <c r="B48">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C48">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D48">
         <v>314.29854999999998</v>
       </c>
       <c r="E48">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F48">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G48">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H48">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -7191,61 +7191,61 @@
         <v>2042</v>
       </c>
       <c r="B49">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C49">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D49">
         <v>314.29854999999998</v>
       </c>
       <c r="E49">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F49">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G49">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H49">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -7253,61 +7253,61 @@
         <v>2043</v>
       </c>
       <c r="B50">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C50">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D50">
         <v>314.29854999999998</v>
       </c>
       <c r="E50">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F50">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G50">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H50">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -7315,61 +7315,61 @@
         <v>2044</v>
       </c>
       <c r="B51">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C51">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D51">
         <v>314.29854999999998</v>
       </c>
       <c r="E51">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F51">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G51">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H51">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q51" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -7377,61 +7377,61 @@
         <v>2045</v>
       </c>
       <c r="B52">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C52">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D52">
         <v>314.29854999999998</v>
       </c>
       <c r="E52">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F52">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G52">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H52">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -7439,61 +7439,61 @@
         <v>2046</v>
       </c>
       <c r="B53">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C53">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D53">
         <v>314.29854999999998</v>
       </c>
       <c r="E53">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F53">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G53">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H53">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -7501,61 +7501,61 @@
         <v>2047</v>
       </c>
       <c r="B54">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C54">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D54">
         <v>314.29854999999998</v>
       </c>
       <c r="E54">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F54">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G54">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H54">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -7563,61 +7563,61 @@
         <v>2048</v>
       </c>
       <c r="B55">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C55">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D55">
         <v>314.29854999999998</v>
       </c>
       <c r="E55">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F55">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G55">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H55">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -7625,61 +7625,61 @@
         <v>2049</v>
       </c>
       <c r="B56">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C56">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D56">
         <v>314.29854999999998</v>
       </c>
       <c r="E56">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F56">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G56">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H56">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -7687,61 +7687,61 @@
         <v>2050</v>
       </c>
       <c r="B57">
-        <v>10120.275</v>
+        <v>10078.799999999999</v>
       </c>
       <c r="C57">
-        <v>1143.5294120000001</v>
+        <v>1157.8235294117601</v>
       </c>
       <c r="D57">
         <v>314.29854999999998</v>
       </c>
       <c r="E57">
-        <v>1.856311209</v>
+        <v>1.7075395688916299</v>
       </c>
       <c r="F57">
-        <v>6.84544</v>
+        <v>1.4694400000000001</v>
       </c>
       <c r="G57">
-        <v>710.11599999999999</v>
+        <v>675.15200000000004</v>
       </c>
       <c r="H57">
-        <v>280.83</v>
+        <v>233.96788888888801</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>12577.750713208998</v>
+        <v>12463.21894786954</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>12.577750713208998</v>
+        <v>12.463218947869541</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="10"/>
-        <v>80.461723489016308</v>
+        <v>80.868353851096131</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="4"/>
-        <v>9.0916844996703556</v>
+        <v>9.2899236886926246</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="5"/>
-        <v>2.4988454387947723</v>
+        <v>2.5218087824231485</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" si="6"/>
-        <v>1.4758689779489149E-2</v>
+        <v>1.370063043932576E-2</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="7"/>
-        <v>5.4424993435519466E-2</v>
+        <v>1.1790212513687611E-2</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="8"/>
-        <v>5.6458107350962603</v>
+        <v>5.4171558954712129</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="9"/>
-        <v>2.2327521542073163</v>
+        <v>1.8772669393638666</v>
       </c>
     </row>
   </sheetData>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D5989-C3E8-426A-B852-E0EDE7F726C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D76C35-8795-4929-905E-319595C46042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6405" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>year</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t xml:space="preserve">QUICK ENCAPSULANT </t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>#00bfbf</t>
+  </si>
+  <si>
+    <t>#ff7f0e</t>
+  </si>
+  <si>
+    <t>#1f77be</t>
+  </si>
+  <si>
+    <t>#2ca02c</t>
+  </si>
+  <si>
+    <t>#d62728</t>
+  </si>
+  <si>
+    <t>#9467BD</t>
+  </si>
+  <si>
+    <t>#8C564B</t>
   </si>
 </sst>
 </file>
@@ -3733,15 +3757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>117474</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>111124</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>460374</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
+      <xdr:colOff>454024</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4070,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12:AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4952,6 +4976,30 @@
       <c r="R12" s="1">
         <f t="shared" si="9"/>
         <v>2.0651598432916138</v>
+      </c>
+      <c r="T12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D76C35-8795-4929-905E-319595C46042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB716AF-0462-43A3-B369-B41D6522E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView minimized="1" xWindow="28035" yWindow="8070" windowWidth="9600" windowHeight="4395" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3757,15 +3757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>111124</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>174624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>454024</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:colOff>517524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4094,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12:AA12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB716AF-0462-43A3-B369-B41D6522E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F44250-0108-4624-B988-301E3E994DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28035" yWindow="8070" windowWidth="9600" windowHeight="4395" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3757,15 +3757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>174624</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>34924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>517524</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
+      <xdr:colOff>377824</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4094,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29:P29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F44250-0108-4624-B988-301E3E994DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FC2DA-8843-4E0C-B0E9-408451A3275D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="28680" yWindow="-6405" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3191,7 +3191,2206 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Module Composition by Mass</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00BFBF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8080</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8292.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8225.6625000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8158.8874999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8289.7499999999909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8350.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8607.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8975.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9284.5874999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9626.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9805.4500000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9977.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9940.2374999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9901.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10008.405555555501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10113.405555555501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10216.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10170.9111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77BE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3091.1854103343398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3017.4165457184299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2699.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2540.37267080745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2484.69891411648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2433.96226415094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2387.53387533875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2344.8873483535499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2317.8920526986799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2256.0192616372301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2113.83285302593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2083.4794808839001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2054.6821599453101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027.3242252582399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001.30039011703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1987.15065852875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1966.5931295304099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1962.9861982434099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1619.45812807881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1592.7397260273899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1495.2424242424199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1412.5263157894699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1379.8208955223799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1361.6666666666599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1343.64705882352</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1315.0588235294099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1343.64705882352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1315.0588235294099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1286.4705882352901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1257.88235294117</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1222.14705882352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1186.4117647058799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1181.64705882352</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1176.88235294117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1172.11764705882</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1167.35294117647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silicon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7F0E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>848.42142857142801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>831.78571428571399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>815.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>798.51428571428505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>781.87857142857104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765.24285714285702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>748.60714285714198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>731.97142857142796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>715.33571428571395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>698.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>465.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>442.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>419.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>419.219999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>419.219999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>410.8550082557</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>402.14066674430001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>395.54183337214999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>388.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>384.28500000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>374.96899999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>365.65300000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>359.83049999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>354.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>348.57366666666599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>343.13933333333301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>337.70499999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>335.37599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D62728"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.348571428571397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.154285714285699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.959999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.765714285714203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.3771428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.182857142857102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.988571428571401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.794285714285699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.327416173570001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.2728468113083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2182774490466795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7527942143326696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3418803418803398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5200525969756704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0997570089490099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0797067542614096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3143250717191401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1223937921719198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3920347419549</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4053681699243099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1786072836069499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0168606482795002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6551843155685</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3330387718046399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1767377735542599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.06856477579512</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9645133024313699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.84095440417322</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7075395688916299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CA02C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7881600000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2003199999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2038399999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.45472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.26112</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2540800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7203200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.68448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.66656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6486400000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.63968</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6307199999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5948800000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5769599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.54112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encapsulant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9467BD"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>848.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>850.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>852.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>847.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>848.95500000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>851.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>849.44499999999903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>809.70999999999901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>782.70749999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>778.33499999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>756.04499999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>720.426999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>692.09266666666599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>680.278111111111</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>668.33333333333303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>670.19733333333295</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>671.74133333333305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backsheets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8C564B"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.39999999999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>218.879999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225.35999999999899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231.83999999999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238.042153284671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244.22710622710599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270.84237132352899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>297.39114391143897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>323.87268518518499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350.28624535315902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>376.63106343283499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>402.906367041198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>424.82025845864598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>446.14037735849001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>469.048719691119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>488.55303370786498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>480.42291666666603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>472.89833333333303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>463.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>432.53279999999899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>380.7099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>347.3032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>326.60479999999899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>295.85219999999902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>285.7568</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>269.70993333333303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>253.74666666666599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>237.866999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>235.91555555555499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-04EC-43AC-A097-26AE89B31CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585770424"/>
+        <c:axId val="585766160"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="585770424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:alpha val="99000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585766160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="585766160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Module Composition [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585770424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8349895083744851E-2"/>
+          <c:y val="0.85645640930389311"/>
+          <c:w val="0.90165010491625519"/>
+          <c:h val="0.12643475230404819"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3752,6 +5951,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3787,6 +6507,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC61229-DADA-4721-B7E9-B6B4BCE33E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4094,8 +6852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FC2DA-8843-4E0C-B0E9-408451A3275D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF1096-38DF-491C-A1A8-9CD63F8B4E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6405" windowWidth="29040" windowHeight="15840" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CSA Scaling" sheetId="2" r:id="rId2"/>
+    <sheet name="Silicon" sheetId="1" r:id="rId1"/>
+    <sheet name="CdTe" sheetId="3" r:id="rId2"/>
+    <sheet name="CSA Scaling" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="1">'CSA Scaling'!$A$14</definedName>
-    <definedName name="_ftnref1" localSheetId="1">'CSA Scaling'!$A$8</definedName>
+    <definedName name="_ftn1" localSheetId="2">'CSA Scaling'!$A$14</definedName>
+    <definedName name="_ftnref1" localSheetId="2">'CSA Scaling'!$A$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -175,11 +176,20 @@
   <si>
     <t>#8C564B</t>
   </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -343,6 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -352,11 +363,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7F0E"/>
+      <color rgb="FF2CA02C"/>
       <color rgb="FF8C564B"/>
       <color rgb="FF9467BD"/>
-      <color rgb="FF2CA02C"/>
       <color rgb="FFD62728"/>
-      <color rgb="FFFF7F0E"/>
       <color rgb="FF1F77BE"/>
       <color rgb="FF00BFBF"/>
     </mruColors>
@@ -453,7 +464,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Silicon!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -473,7 +484,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Silicon!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -650,7 +661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$57</c:f>
+              <c:f>Silicon!$B$2:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -836,7 +847,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Silicon!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -856,7 +867,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Silicon!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1033,7 +1044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$57</c:f>
+              <c:f>Silicon!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1219,7 +1230,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Silicon!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1239,7 +1250,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Silicon!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1416,7 +1427,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$57</c:f>
+              <c:f>Silicon!$D$2:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1602,7 +1613,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Silicon!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1622,7 +1633,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Silicon!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1799,7 +1810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$57</c:f>
+              <c:f>Silicon!$E$2:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -1985,7 +1996,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Silicon!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2005,7 +2016,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Silicon!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -2182,7 +2193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$57</c:f>
+              <c:f>Silicon!$F$2:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -2368,7 +2379,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Silicon!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2388,7 +2399,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Silicon!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -2565,7 +2576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$57</c:f>
+              <c:f>Silicon!$G$2:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -2751,7 +2762,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Silicon!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2771,7 +2782,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$57</c:f>
+              <c:f>Silicon!$H$2:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -3265,7 +3276,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Silicon!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3285,7 +3296,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3402,7 +3413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Silicon!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3528,7 +3539,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Silicon!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3548,7 +3559,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3665,7 +3676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:f>Silicon!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3791,7 +3802,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Silicon!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3811,7 +3822,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3928,7 +3939,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$37</c:f>
+              <c:f>Silicon!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4054,7 +4065,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Silicon!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4074,7 +4085,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4191,7 +4202,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:f>Silicon!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4317,7 +4328,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Silicon!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4337,7 +4348,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4454,7 +4465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$37</c:f>
+              <c:f>Silicon!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4580,7 +4591,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Silicon!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4600,7 +4611,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4717,7 +4728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$37</c:f>
+              <c:f>Silicon!$G$2:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4843,7 +4854,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Silicon!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4863,7 +4874,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Silicon!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4980,7 +4991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$37</c:f>
+              <c:f>Silicon!$H$2:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -5350,6 +5361,4122 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Module Composition by Mass </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>over Time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1440" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CdTe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12972670891352628"/>
+          <c:y val="2.4612546196974013E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00BFBF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$B$2:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15947.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15842.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15790</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15475</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14915</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14810</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14635</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14460</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14302.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14145</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14063.333329999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13981.666670000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13806.666670000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13713.333329999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52DD-403A-98F5-B5696608A5C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77BE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$C$2:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117.5326831</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202.0802826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>405.7539683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1217.2619050000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1623.0158730000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1623.0158730000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1217.2619050000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>405.7539683</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>202.0802826</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117.5326831</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.150793649999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.150793649999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81.150793649999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.150793649999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.150793649999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52DD-403A-98F5-B5696608A5C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$D$2:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-52DD-403A-98F5-B5696608A5C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encapsulant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9467BD"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>388.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-52DD-403A-98F5-B5696608A5C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cadmium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CA02C"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$O$2:$O$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6626196431783171E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6626196431783171E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6626196431783171E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6743409047962153E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6861374289711923E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6980099429325855E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7099591833092069E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6912089140031634E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6958377265877924E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6893515280103914E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7245138396020214E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7488358293829127E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.790086151173179E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7358816738217331E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3449041002148655E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3775034019167795E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4821148648421285E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5934137190508093E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6127613509706079E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.635129621691132E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7596025291393026E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8378063866570708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8606667501377381E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-52DD-403A-98F5-B5696608A5C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tellurium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7F0E"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$G$2:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-52DD-403A-98F5-B5696608A5C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585770424"/>
+        <c:axId val="585766160"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="585770424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:alpha val="99000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585766160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="585766160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Module Composition [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585770424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Module Composition by Mass CdTe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00BFBF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15947.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15842.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15790</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15475</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14915</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14810</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14635</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14460</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14302.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14145</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14063.333329999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13981.666670000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13806.666670000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE56-4C21-984F-BF08717ECFA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77BE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117.5326831</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202.0802826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>405.7539683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1217.2619050000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1623.0158730000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1623.0158730000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1217.2619050000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>811.50793650000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE56-4C21-984F-BF08717ECFA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE56-4C21-984F-BF08717ECFA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encapsulant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9467BD"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>388.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>388.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EE56-4C21-984F-BF08717ECFA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cadmium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CA02C"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$O$2:$O$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9930614620160123E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6626196431783171E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6626196431783171E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6626196431783171E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6743409047962153E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6861374289711923E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6980099429325855E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7099591833092069E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6912089140031634E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6958377265877924E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6893515280103914E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7245138396020214E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7488358293829127E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.790086151173179E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7358816738217331E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3449041002148655E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3775034019167795E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4821148648421285E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5934137190508093E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6127613509706079E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.635129621691132E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7596025291393026E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8378063866570708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8606667501377381E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8705878762569611E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8929019902176343E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EE56-4C21-984F-BF08717ECFA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CdTe!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tellurium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>CdTe!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CdTe!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3303223600000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8422363969999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2202149069999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EE56-4C21-984F-BF08717ECFA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585770424"/>
+        <c:axId val="585766160"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="585770424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:alpha val="99000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585766160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="585766160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Module Composition [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585770424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8349895083744851E-2"/>
+          <c:y val="0.85645640930389311"/>
+          <c:w val="0.83912069894627217"/>
+          <c:h val="0.12944238582891326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5391,6 +9518,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6472,6 +10679,1048 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6553,10 +11802,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>377824</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF42D0D-E887-4E98-A71B-98B3283D58DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600415</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9100DF38-422D-4313-A694-8534732CDE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6594,7 +11924,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6700,7 +12030,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6842,7 +12172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6852,7 +12182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
@@ -10558,6 +15888,3323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCC222-30DE-4579-B7D5-14187B1877AA}">
+  <dimension ref="A1:AA57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB47" sqref="AB47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>16000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>56.55</v>
+      </c>
+      <c r="E2">
+        <v>388.1</v>
+      </c>
+      <c r="F2">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G2" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I2">
+        <f>H2/1000</f>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <f>B2/$H2*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L2" s="1">
+        <f>C2/$H2*100</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>D2/$H2*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N2" s="1">
+        <f>E2/$H2*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:P17" si="0">F2/$H2*100</f>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2">
+        <v>380</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>16000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>56.55</v>
+      </c>
+      <c r="E3">
+        <v>388.1</v>
+      </c>
+      <c r="F3">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G3" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B3:G3)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I57" si="1">H3/1000</f>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <f>B3/$H3*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L3" s="1">
+        <f>C3/$H3*100</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>D3/$H3*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N3" s="1">
+        <f>E3/$H3*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f>G3/$H3*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <f>1*1*X2/1000000</f>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3">
+        <f>X3*Z5</f>
+        <v>380</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>16000</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>56.55</v>
+      </c>
+      <c r="E4">
+        <v>388.1</v>
+      </c>
+      <c r="F4">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G4" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B4:G4)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <f>B4/$H4*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L4" s="1">
+        <f>C4/$H4*100</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f>D4/$H4*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N4" s="1">
+        <f>E4/$H4*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f>G4/$H4*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>16000</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>56.55</v>
+      </c>
+      <c r="E5">
+        <v>388.1</v>
+      </c>
+      <c r="F5">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G5" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H5">
+        <f>SUM(B5:G5)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <f>B5/$H5*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L5" s="1">
+        <f>C5/$H5*100</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f>D5/$H5*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N5" s="1">
+        <f>E5/$H5*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f>G5/$H5*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5">
+        <v>1000000</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>16000</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>56.55</v>
+      </c>
+      <c r="E6">
+        <v>388.1</v>
+      </c>
+      <c r="F6">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G6" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H6">
+        <f>SUM(B6:G6)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <f>B6/$H6*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L6" s="1">
+        <f>C6/$H6*100</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f>D6/$H6*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N6" s="1">
+        <f>E6/$H6*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f>G6/$H6*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6">
+        <f>Z3*X4</f>
+        <v>532</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>16000</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>56.55</v>
+      </c>
+      <c r="E7">
+        <v>388.1</v>
+      </c>
+      <c r="F7">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G7" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H7">
+        <f>SUM(B7:G7)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <f>B7/$H7*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L7" s="1">
+        <f>C7/$H7*100</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f>D7/$H7*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N7" s="1">
+        <f>E7/$H7*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f>G7/$H7*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>16000</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>56.55</v>
+      </c>
+      <c r="E8">
+        <v>388.1</v>
+      </c>
+      <c r="F8">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G8" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H8">
+        <f>SUM(B8:G8)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <f>B8/$H8*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L8" s="1">
+        <f>C8/$H8*100</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f>D8/$H8*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N8" s="1">
+        <f>E8/$H8*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f>G8/$H8*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>16000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>56.55</v>
+      </c>
+      <c r="E9">
+        <v>388.1</v>
+      </c>
+      <c r="F9">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G9" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H9">
+        <f>SUM(B9:G9)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <f>B9/$H9*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L9" s="1">
+        <f>C9/$H9*100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f>D9/$H9*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N9" s="1">
+        <f>E9/$H9*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <f>G9/$H9*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>255</v>
+      </c>
+      <c r="U9">
+        <v>31</v>
+      </c>
+      <c r="V9">
+        <v>44</v>
+      </c>
+      <c r="W9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>16000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>56.55</v>
+      </c>
+      <c r="E10">
+        <v>388.1</v>
+      </c>
+      <c r="F10">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G10" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H10">
+        <f>SUM(B10:G10)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <f>B10/$H10*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L10" s="1">
+        <f>C10/$H10*100</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f>D10/$H10*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N10" s="1">
+        <f>E10/$H10*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <f>G10/$H10*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>191</v>
+      </c>
+      <c r="T10">
+        <v>127</v>
+      </c>
+      <c r="U10">
+        <v>119</v>
+      </c>
+      <c r="V10">
+        <v>160</v>
+      </c>
+      <c r="W10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>16000</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>56.55</v>
+      </c>
+      <c r="E11">
+        <v>388.1</v>
+      </c>
+      <c r="F11">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G11" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H11">
+        <f>SUM(B11:G11)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <f>B11/$H11*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L11" s="1">
+        <f>C11/$H11*100</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f>D11/$H11*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N11" s="1">
+        <f>E11/$H11*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f>G11/$H11*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>191</v>
+      </c>
+      <c r="T11">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <v>190</v>
+      </c>
+      <c r="V11">
+        <v>44</v>
+      </c>
+      <c r="W11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>16000</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>56.55</v>
+      </c>
+      <c r="E12">
+        <v>388.1</v>
+      </c>
+      <c r="F12">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G12" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H12">
+        <f>SUM(B12:G12)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <f>B12/$H12*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L12" s="1">
+        <f>C12/$H12*100</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f>D12/$H12*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N12" s="1">
+        <f>E12/$H12*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <f>G12/$H12*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>16000</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>56.55</v>
+      </c>
+      <c r="E13">
+        <v>388.1</v>
+      </c>
+      <c r="F13">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G13" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H13">
+        <f>SUM(B13:G13)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <f>B13/$H13*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L13" s="1">
+        <f>C13/$H13*100</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f>D13/$H13*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N13" s="1">
+        <f>E13/$H13*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <f>G13/$H13*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>16000</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>56.55</v>
+      </c>
+      <c r="E14">
+        <v>388.1</v>
+      </c>
+      <c r="F14">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G14" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H14">
+        <f>SUM(B14:G14)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <f>B14/$H14*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L14" s="1">
+        <f>C14/$H14*100</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f>D14/$H14*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N14" s="1">
+        <f>E14/$H14*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f>G14/$H14*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>16000</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>56.55</v>
+      </c>
+      <c r="E15">
+        <v>388.1</v>
+      </c>
+      <c r="F15">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G15" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H15">
+        <f>SUM(B15:G15)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <f>B15/$H15*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L15" s="1">
+        <f>C15/$H15*100</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f>D15/$H15*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N15" s="1">
+        <f>E15/$H15*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f>G15/$H15*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>16000</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>56.55</v>
+      </c>
+      <c r="E16">
+        <v>388.1</v>
+      </c>
+      <c r="F16">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G16" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H16">
+        <f>SUM(B16:G16)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <f>B16/$H16*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L16" s="1">
+        <f>C16/$H16*100</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f>D16/$H16*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N16" s="1">
+        <f>E16/$H16*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <f>G16/$H16*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>16000</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>56.55</v>
+      </c>
+      <c r="E17">
+        <v>388.1</v>
+      </c>
+      <c r="F17">
+        <v>8.2196776400000005</v>
+      </c>
+      <c r="G17" s="18">
+        <v>9.3303223600000003</v>
+      </c>
+      <c r="H17">
+        <f>SUM(B17:G17)</f>
+        <v>16462.2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <f>B17/$H17*100</f>
+        <v>97.192355821214662</v>
+      </c>
+      <c r="L17" s="1">
+        <f>C17/$H17*100</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f>D17/$H17*100</f>
+        <v>0.34351423260560554</v>
+      </c>
+      <c r="N17" s="1">
+        <f>E17/$H17*100</f>
+        <v>2.3575220808883381</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9930614620160123E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <f>G17/$H17*100</f>
+        <v>5.6677250671234712E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>16000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>56.55</v>
+      </c>
+      <c r="E18">
+        <v>388.1</v>
+      </c>
+      <c r="F18">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G18" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H18">
+        <f>SUM(B18:G18)</f>
+        <v>16457.519999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>16.457519999999995</v>
+      </c>
+      <c r="K18" s="1">
+        <f>B18/$H18*100</f>
+        <v>97.219994264020357</v>
+      </c>
+      <c r="L18" s="1">
+        <f>C18/$H18*100</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f>D18/$H18*100</f>
+        <v>0.34361191722689693</v>
+      </c>
+      <c r="N18" s="1">
+        <f>E18/$H18*100</f>
+        <v>2.3581924858666441</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O57" si="2">F18/$H18*100</f>
+        <v>3.6626196431783171E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f>G18/$H18*100</f>
+        <v>4.1575136454338205E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>16000</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>56.55</v>
+      </c>
+      <c r="E19">
+        <v>388.1</v>
+      </c>
+      <c r="F19">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G19" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H19">
+        <f>SUM(B19:G19)</f>
+        <v>16457.519999999997</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>16.457519999999995</v>
+      </c>
+      <c r="K19" s="1">
+        <f>B19/$H19*100</f>
+        <v>97.219994264020357</v>
+      </c>
+      <c r="L19" s="1">
+        <f>C19/$H19*100</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f>D19/$H19*100</f>
+        <v>0.34361191722689693</v>
+      </c>
+      <c r="N19" s="1">
+        <f>E19/$H19*100</f>
+        <v>2.3581924858666441</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6626196431783171E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f>G19/$H19*100</f>
+        <v>4.1575136454338205E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>16000</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>56.55</v>
+      </c>
+      <c r="E20">
+        <v>388.1</v>
+      </c>
+      <c r="F20">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G20" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H20">
+        <f>SUM(B20:G20)</f>
+        <v>16457.519999999997</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>16.457519999999995</v>
+      </c>
+      <c r="K20" s="1">
+        <f>B20/$H20*100</f>
+        <v>97.219994264020357</v>
+      </c>
+      <c r="L20" s="1">
+        <f>C20/$H20*100</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f>D20/$H20*100</f>
+        <v>0.34361191722689693</v>
+      </c>
+      <c r="N20" s="1">
+        <f>E20/$H20*100</f>
+        <v>2.3581924858666441</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6626196431783171E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <f>G20/$H20*100</f>
+        <v>4.1575136454338205E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>15947.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>56.55</v>
+      </c>
+      <c r="E21">
+        <v>388.1</v>
+      </c>
+      <c r="F21">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G21" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H21">
+        <f>SUM(B21:G21)</f>
+        <v>16405.019999999997</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>16.405019999999997</v>
+      </c>
+      <c r="K21" s="1">
+        <f>B21/$H21*100</f>
+        <v>97.211097578668017</v>
+      </c>
+      <c r="L21" s="1">
+        <f>C21/$H21*100</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f>D21/$H21*100</f>
+        <v>0.34471155780364793</v>
+      </c>
+      <c r="N21" s="1">
+        <f>E21/$H21*100</f>
+        <v>2.3657392676144258</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6743409047962153E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <f>G21/$H21*100</f>
+        <v>4.1708186865971518E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>15895</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>56.55</v>
+      </c>
+      <c r="E22">
+        <v>388.1</v>
+      </c>
+      <c r="F22">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G22" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H22">
+        <f>SUM(B22:G22)</f>
+        <v>16352.52</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>16.352520000000002</v>
+      </c>
+      <c r="K22" s="1">
+        <f>B22/$H22*100</f>
+        <v>97.2021437674438</v>
+      </c>
+      <c r="L22" s="1">
+        <f>C22/$H22*100</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f>D22/$H22*100</f>
+        <v>0.34581825920408599</v>
+      </c>
+      <c r="N22" s="1">
+        <f>E22/$H22*100</f>
+        <v>2.3733345074642931</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6861374289711923E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <f>G22/$H22*100</f>
+        <v>4.1842091598114542E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>15842.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>56.55</v>
+      </c>
+      <c r="E23">
+        <v>388.1</v>
+      </c>
+      <c r="F23">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G23" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H23">
+        <f>SUM(B23:G23)</f>
+        <v>16300.02</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>16.30002</v>
+      </c>
+      <c r="K23" s="1">
+        <f>B23/$H23*100</f>
+        <v>97.193132278365297</v>
+      </c>
+      <c r="L23" s="1">
+        <f>C23/$H23*100</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f>D23/$H23*100</f>
+        <v>0.34693208965387767</v>
+      </c>
+      <c r="N23" s="1">
+        <f>E23/$H23*100</f>
+        <v>2.380978673645799</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6980099429325855E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <f>G23/$H23*100</f>
+        <v>4.1976858905694588E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>15790</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>56.55</v>
+      </c>
+      <c r="E24">
+        <v>388.1</v>
+      </c>
+      <c r="F24">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G24" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H24">
+        <f>SUM(B24:G24)</f>
+        <v>16247.52</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>16.247520000000002</v>
+      </c>
+      <c r="K24" s="1">
+        <f>B24/$H24*100</f>
+        <v>97.18406255231568</v>
+      </c>
+      <c r="L24" s="1">
+        <f>C24/$H24*100</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f>D24/$H24*100</f>
+        <v>0.34805311826050989</v>
+      </c>
+      <c r="N24" s="1">
+        <f>E24/$H24*100</f>
+        <v>2.3886722404403873</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7099591833092069E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <f>G24/$H24*100</f>
+        <v>4.2112497150334327E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>15755</v>
+      </c>
+      <c r="C25">
+        <v>117.5326831</v>
+      </c>
+      <c r="D25">
+        <v>56.55</v>
+      </c>
+      <c r="E25">
+        <v>388.1</v>
+      </c>
+      <c r="F25">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G25" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H25">
+        <f>SUM(B25:G25)</f>
+        <v>16330.052683100001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>16.3300526831</v>
+      </c>
+      <c r="K25" s="1">
+        <f>B25/$H25*100</f>
+        <v>96.478561984707355</v>
+      </c>
+      <c r="L25" s="1">
+        <f>C25/$H25*100</f>
+        <v>0.71973241838732571</v>
+      </c>
+      <c r="M25" s="1">
+        <f>D25/$H25*100</f>
+        <v>0.34629404507998734</v>
+      </c>
+      <c r="N25" s="1">
+        <f>E25/$H25*100</f>
+        <v>2.3765998036347145</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6912089140031634E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <f>G25/$H25*100</f>
+        <v>4.1899659050586173E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>15650</v>
+      </c>
+      <c r="C26">
+        <v>202.0802826</v>
+      </c>
+      <c r="D26">
+        <v>56.55</v>
+      </c>
+      <c r="E26">
+        <v>388.1</v>
+      </c>
+      <c r="F26">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H26">
+        <f>SUM(B26:G26)</f>
+        <v>16309.6002826</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>16.309600282600002</v>
+      </c>
+      <c r="K26" s="1">
+        <f>B26/$H26*100</f>
+        <v>95.955754456449199</v>
+      </c>
+      <c r="L26" s="1">
+        <f>C26/$H26*100</f>
+        <v>1.2390265800418825</v>
+      </c>
+      <c r="M26" s="1">
+        <f>D26/$H26*100</f>
+        <v>0.34672830124678605</v>
+      </c>
+      <c r="N26" s="1">
+        <f>E26/$H26*100</f>
+        <v>2.3795800833576952</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6958377265877924E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <f>G26/$H26*100</f>
+        <v>4.1952201638563037E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>15475</v>
+      </c>
+      <c r="C27">
+        <v>405.7539683</v>
+      </c>
+      <c r="D27">
+        <v>56.55</v>
+      </c>
+      <c r="E27">
+        <v>388.1</v>
+      </c>
+      <c r="F27">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H27">
+        <f>SUM(B27:G27)</f>
+        <v>16338.2739683</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>16.338273968300001</v>
+      </c>
+      <c r="K27" s="1">
+        <f>B27/$H27*100</f>
+        <v>94.716247444650818</v>
+      </c>
+      <c r="L27" s="1">
+        <f>C27/$H27*100</f>
+        <v>2.4834567536770149</v>
+      </c>
+      <c r="M27" s="1">
+        <f>D27/$H27*100</f>
+        <v>0.34611979276219734</v>
+      </c>
+      <c r="N27" s="1">
+        <f>E27/$H27*100</f>
+        <v>2.3754039181433919</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6893515280103914E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <f>G27/$H27*100</f>
+        <v>4.1878575486465147E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>14915</v>
+      </c>
+      <c r="C28">
+        <v>811.50793650000003</v>
+      </c>
+      <c r="D28">
+        <v>56.55</v>
+      </c>
+      <c r="E28">
+        <v>388.1</v>
+      </c>
+      <c r="F28">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H28">
+        <f>SUM(B28:G28)</f>
+        <v>16184.027936500001</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>16.184027936500001</v>
+      </c>
+      <c r="K28" s="1">
+        <f>B28/$H28*100</f>
+        <v>92.158763309855956</v>
+      </c>
+      <c r="L28" s="1">
+        <f>C28/$H28*100</f>
+        <v>5.0142519506519019</v>
+      </c>
+      <c r="M28" s="1">
+        <f>D28/$H28*100</f>
+        <v>0.34941857627706024</v>
+      </c>
+      <c r="N28" s="1">
+        <f>E28/$H28*100</f>
+        <v>2.3980433148209923</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7245138396020214E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <f>G28/$H28*100</f>
+        <v>4.2277709998069367E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>14810</v>
+      </c>
+      <c r="C29">
+        <v>811.50793650000003</v>
+      </c>
+      <c r="D29">
+        <v>56.55</v>
+      </c>
+      <c r="E29">
+        <v>388.1</v>
+      </c>
+      <c r="F29">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G29" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H29">
+        <f>SUM(B29:G29)</f>
+        <v>16079.027936500001</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>16.079027936500001</v>
+      </c>
+      <c r="K29" s="1">
+        <f>B29/$H29*100</f>
+        <v>92.107558109161189</v>
+      </c>
+      <c r="L29" s="1">
+        <f>C29/$H29*100</f>
+        <v>5.0469962469425553</v>
+      </c>
+      <c r="M29" s="1">
+        <f>D29/$H29*100</f>
+        <v>0.35170036536617594</v>
+      </c>
+      <c r="N29" s="1">
+        <f>E29/$H29*100</f>
+        <v>2.4137031264122526</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7488358293829127E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <f>G29/$H29*100</f>
+        <v>4.2553793823990223E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>14635</v>
+      </c>
+      <c r="C30">
+        <v>811.50793650000003</v>
+      </c>
+      <c r="D30">
+        <v>56.55</v>
+      </c>
+      <c r="E30">
+        <v>388.1</v>
+      </c>
+      <c r="F30">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G30" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H30">
+        <f>SUM(B30:G30)</f>
+        <v>15904.027936500001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>15.9040279365</v>
+      </c>
+      <c r="K30" s="1">
+        <f>B30/$H30*100</f>
+        <v>92.020713610622124</v>
+      </c>
+      <c r="L30" s="1">
+        <f>C30/$H30*100</f>
+        <v>5.1025308792219626</v>
+      </c>
+      <c r="M30" s="1">
+        <f>D30/$H30*100</f>
+        <v>0.35557030096895664</v>
+      </c>
+      <c r="N30" s="1">
+        <f>E30/$H30*100</f>
+        <v>2.4402623131043697</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>3.790086151173179E-2</v>
+      </c>
+      <c r="P30" s="1">
+        <f>G30/$H30*100</f>
+        <v>4.3022034570858347E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>14460</v>
+      </c>
+      <c r="C31">
+        <v>1217.2619050000001</v>
+      </c>
+      <c r="D31">
+        <v>56.55</v>
+      </c>
+      <c r="E31">
+        <v>388.1</v>
+      </c>
+      <c r="F31">
+        <v>6.0277636030000004</v>
+      </c>
+      <c r="G31" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H31">
+        <f>SUM(B31:G31)</f>
+        <v>16134.781905</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>16.134781905000001</v>
+      </c>
+      <c r="K31" s="1">
+        <f>B31/$H31*100</f>
+        <v>89.620052413097682</v>
+      </c>
+      <c r="L31" s="1">
+        <f>C31/$H31*100</f>
+        <v>7.5443344209244216</v>
+      </c>
+      <c r="M31" s="1">
+        <f>D31/$H31*100</f>
+        <v>0.35048505974831767</v>
+      </c>
+      <c r="N31" s="1">
+        <f>E31/$H31*100</f>
+        <v>2.4053625409075527</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7358816738217331E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <f>G31/$H31*100</f>
+        <v>4.2406748583813596E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2025</v>
+      </c>
+      <c r="B32">
+        <v>14302.5</v>
+      </c>
+      <c r="C32">
+        <v>1623.0158730000001</v>
+      </c>
+      <c r="D32">
+        <v>56.55</v>
+      </c>
+      <c r="E32">
+        <v>388.1</v>
+      </c>
+      <c r="F32">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G32" s="18">
+        <v>6.8422363969999997</v>
+      </c>
+      <c r="H32">
+        <f>SUM(B32:G32)</f>
+        <v>16382.487894490001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>16.382487894490001</v>
+      </c>
+      <c r="K32" s="1">
+        <f>B32/$H32*100</f>
+        <v>87.303589614190571</v>
+      </c>
+      <c r="L32" s="1">
+        <f>C32/$H32*100</f>
+        <v>9.9070170748966451</v>
+      </c>
+      <c r="M32" s="1">
+        <f>D32/$H32*100</f>
+        <v>0.34518566632983583</v>
+      </c>
+      <c r="N32" s="1">
+        <f>E32/$H32*100</f>
+        <v>2.3689930522123657</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3449041002148655E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <f>G32/$H32*100</f>
+        <v>4.1765551368429708E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2026</v>
+      </c>
+      <c r="B33">
+        <v>14145</v>
+      </c>
+      <c r="C33">
+        <v>1623.0158730000001</v>
+      </c>
+      <c r="D33">
+        <v>56.55</v>
+      </c>
+      <c r="E33">
+        <v>388.1</v>
+      </c>
+      <c r="F33">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G33" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H33">
+        <f>SUM(B33:G33)</f>
+        <v>16224.365873000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>16.224365873</v>
+      </c>
+      <c r="K33" s="1">
+        <f>B33/$H33*100</f>
+        <v>87.183684778334509</v>
+      </c>
+      <c r="L33" s="1">
+        <f>C33/$H33*100</f>
+        <v>10.003570467434811</v>
+      </c>
+      <c r="M33" s="1">
+        <f>D33/$H33*100</f>
+        <v>0.34854983204063744</v>
+      </c>
+      <c r="N33" s="1">
+        <f>E33/$H33*100</f>
+        <v>2.3920811638368065</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3775034019167795E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <f>G33/$H33*100</f>
+        <v>3.8338724334067535E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2027</v>
+      </c>
+      <c r="B34">
+        <v>14063.333329999999</v>
+      </c>
+      <c r="C34">
+        <v>1217.2619050000001</v>
+      </c>
+      <c r="D34">
+        <v>56.55</v>
+      </c>
+      <c r="E34">
+        <v>388.1</v>
+      </c>
+      <c r="F34">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G34" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H34">
+        <f>SUM(B34:G34)</f>
+        <v>15736.945234999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>15.736945234999999</v>
+      </c>
+      <c r="K34" s="1">
+        <f>B34/$H34*100</f>
+        <v>89.365077656381644</v>
+      </c>
+      <c r="L34" s="1">
+        <f>C34/$H34*100</f>
+        <v>7.7350584044273711</v>
+      </c>
+      <c r="M34" s="1">
+        <f>D34/$H34*100</f>
+        <v>0.35934547115426879</v>
+      </c>
+      <c r="N34" s="1">
+        <f>E34/$H34*100</f>
+        <v>2.4661711291772188</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4821148648421285E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <f>G34/$H34*100</f>
+        <v>3.9526190211082605E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2028</v>
+      </c>
+      <c r="B35">
+        <v>13981.666670000001</v>
+      </c>
+      <c r="C35">
+        <v>811.50793650000003</v>
+      </c>
+      <c r="D35">
+        <v>56.55</v>
+      </c>
+      <c r="E35">
+        <v>388.1</v>
+      </c>
+      <c r="F35">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G35" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H35">
+        <f>SUM(B35:G35)</f>
+        <v>15249.524606500001</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>15.249524606500001</v>
+      </c>
+      <c r="K35" s="1">
+        <f>B35/$H35*100</f>
+        <v>91.685918287842327</v>
+      </c>
+      <c r="L35" s="1">
+        <f>C35/$H35*100</f>
+        <v>5.3215294079010214</v>
+      </c>
+      <c r="M35" s="1">
+        <f>D35/$H35*100</f>
+        <v>0.37083123218081149</v>
+      </c>
+      <c r="N35" s="1">
+        <f>E35/$H35*100</f>
+        <v>2.5449973688660115</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5934137190508093E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <f>G35/$H35*100</f>
+        <v>4.0789566019314973E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2029</v>
+      </c>
+      <c r="B36">
+        <v>13900</v>
+      </c>
+      <c r="C36">
+        <v>811.50793650000003</v>
+      </c>
+      <c r="D36">
+        <v>56.55</v>
+      </c>
+      <c r="E36">
+        <v>388.1</v>
+      </c>
+      <c r="F36">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G36" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H36">
+        <f>SUM(B36:G36)</f>
+        <v>15167.857936500001</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>15.167857936500001</v>
+      </c>
+      <c r="K36" s="1">
+        <f>B36/$H36*100</f>
+        <v>91.641153669767561</v>
+      </c>
+      <c r="L36" s="1">
+        <f>C36/$H36*100</f>
+        <v>5.3501815477001777</v>
+      </c>
+      <c r="M36" s="1">
+        <f>D36/$H36*100</f>
+        <v>0.37282785899462989</v>
+      </c>
+      <c r="N36" s="1">
+        <f>E36/$H36*100</f>
+        <v>2.558700125124949</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6127613509706079E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <f>G36/$H36*100</f>
+        <v>4.1009184902975962E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2030</v>
+      </c>
+      <c r="B37">
+        <v>13806.666670000001</v>
+      </c>
+      <c r="C37">
+        <v>811.50793650000003</v>
+      </c>
+      <c r="D37">
+        <v>56.55</v>
+      </c>
+      <c r="E37">
+        <v>388.1</v>
+      </c>
+      <c r="F37">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G37" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H37">
+        <f>SUM(B37:G37)</f>
+        <v>15074.524606500001</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>15.074524606500001</v>
+      </c>
+      <c r="K37" s="1">
+        <f>B37/$H37*100</f>
+        <v>91.589400199371383</v>
+      </c>
+      <c r="L37" s="1">
+        <f>C37/$H37*100</f>
+        <v>5.3833069876716708</v>
+      </c>
+      <c r="M37" s="1">
+        <f>D37/$H37*100</f>
+        <v>0.3751362081137613</v>
+      </c>
+      <c r="N37" s="1">
+        <f>E37/$H37*100</f>
+        <v>2.5745422169575733</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="2"/>
+        <v>3.635129621691132E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <f>G37/$H37*100</f>
+        <v>4.126309166869447E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2031</v>
+      </c>
+      <c r="B38">
+        <v>13713.333329999999</v>
+      </c>
+      <c r="C38">
+        <v>405.7539683</v>
+      </c>
+      <c r="D38">
+        <v>56.55</v>
+      </c>
+      <c r="E38">
+        <v>388.1</v>
+      </c>
+      <c r="F38">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G38" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H38">
+        <f>SUM(B38:G38)</f>
+        <v>14575.437298299999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>14.575437298299999</v>
+      </c>
+      <c r="K38" s="1">
+        <f>B38/$H38*100</f>
+        <v>94.085227422984076</v>
+      </c>
+      <c r="L38" s="1">
+        <f>C38/$H38*100</f>
+        <v>2.7838202037843827</v>
+      </c>
+      <c r="M38" s="1">
+        <f>D38/$H38*100</f>
+        <v>0.38798149820585953</v>
+      </c>
+      <c r="N38" s="1">
+        <f>E38/$H38*100</f>
+        <v>2.662698840914131</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7596025291393026E-2</v>
+      </c>
+      <c r="P38" s="1">
+        <f>G38/$H38*100</f>
+        <v>4.2676008820164132E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2032</v>
+      </c>
+      <c r="B39">
+        <v>13620</v>
+      </c>
+      <c r="C39">
+        <v>202.0802826</v>
+      </c>
+      <c r="D39">
+        <v>56.55</v>
+      </c>
+      <c r="E39">
+        <v>388.1</v>
+      </c>
+      <c r="F39">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G39" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H39">
+        <f>SUM(B39:G39)</f>
+        <v>14278.4302826</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>14.2784302826</v>
+      </c>
+      <c r="K39" s="1">
+        <f>B39/$H39*100</f>
+        <v>95.388636778915554</v>
+      </c>
+      <c r="L39" s="1">
+        <f>C39/$H39*100</f>
+        <v>1.4152836033121885</v>
+      </c>
+      <c r="M39" s="1">
+        <f>D39/$H39*100</f>
+        <v>0.39605193904902158</v>
+      </c>
+      <c r="N39" s="1">
+        <f>E39/$H39*100</f>
+        <v>2.7180858982303322</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8378063866570708E-2</v>
+      </c>
+      <c r="P39" s="1">
+        <f>G39/$H39*100</f>
+        <v>4.3563716626330323E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2033</v>
+      </c>
+      <c r="B40">
+        <v>13620</v>
+      </c>
+      <c r="C40">
+        <v>117.5326831</v>
+      </c>
+      <c r="D40">
+        <v>56.55</v>
+      </c>
+      <c r="E40">
+        <v>388.1</v>
+      </c>
+      <c r="F40">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G40" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H40">
+        <f>SUM(B40:G40)</f>
+        <v>14193.882683100001</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>14.1938826831</v>
+      </c>
+      <c r="K40" s="1">
+        <f>B40/$H40*100</f>
+        <v>95.956830869235688</v>
+      </c>
+      <c r="L40" s="1">
+        <f>C40/$H40*100</f>
+        <v>0.82805167355610687</v>
+      </c>
+      <c r="M40" s="1">
+        <f>D40/$H40*100</f>
+        <v>0.39841107089980016</v>
+      </c>
+      <c r="N40" s="1">
+        <f>E40/$H40*100</f>
+        <v>2.7342765095705119</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8606667501377381E-2</v>
+      </c>
+      <c r="P40" s="1">
+        <f>G40/$H40*100</f>
+        <v>4.3823209236512305E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2034</v>
+      </c>
+      <c r="B41">
+        <v>13620</v>
+      </c>
+      <c r="C41">
+        <v>81.150793649999997</v>
+      </c>
+      <c r="D41">
+        <v>56.55</v>
+      </c>
+      <c r="E41">
+        <v>388.1</v>
+      </c>
+      <c r="F41">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G41" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H41">
+        <f>SUM(B41:G41)</f>
+        <v>14157.500793650001</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>14.15750079365</v>
+      </c>
+      <c r="K41" s="1">
+        <f>B41/$H41*100</f>
+        <v>96.203420353039405</v>
+      </c>
+      <c r="L41" s="1">
+        <f>C41/$H41*100</f>
+        <v>0.57319999364858376</v>
+      </c>
+      <c r="M41" s="1">
+        <f>D41/$H41*100</f>
+        <v>0.39943490609136401</v>
+      </c>
+      <c r="N41" s="1">
+        <f>E41/$H41*100</f>
+        <v>2.7413030425120848</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8705878762569611E-2</v>
+      </c>
+      <c r="P41" s="1">
+        <f>G41/$H41*100</f>
+        <v>4.3935825945988466E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2035</v>
+      </c>
+      <c r="B42">
+        <v>13620</v>
+      </c>
+      <c r="C42">
+        <v>81.150793649999997</v>
+      </c>
+      <c r="D42">
+        <v>56.55</v>
+      </c>
+      <c r="E42">
+        <v>388.1</v>
+      </c>
+      <c r="F42">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G42" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H42">
+        <f>SUM(B42:G42)</f>
+        <v>14157.500793650001</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>14.15750079365</v>
+      </c>
+      <c r="K42" s="1">
+        <f>B42/$H42*100</f>
+        <v>96.203420353039405</v>
+      </c>
+      <c r="L42" s="1">
+        <f>C42/$H42*100</f>
+        <v>0.57319999364858376</v>
+      </c>
+      <c r="M42" s="1">
+        <f>D42/$H42*100</f>
+        <v>0.39943490609136401</v>
+      </c>
+      <c r="N42" s="1">
+        <f>E42/$H42*100</f>
+        <v>2.7413030425120848</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8705878762569611E-2</v>
+      </c>
+      <c r="P42" s="1">
+        <f>G42/$H42*100</f>
+        <v>4.3935825945988466E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2036</v>
+      </c>
+      <c r="B43">
+        <v>13620</v>
+      </c>
+      <c r="C43">
+        <v>81.150793649999997</v>
+      </c>
+      <c r="D43">
+        <v>56.55</v>
+      </c>
+      <c r="E43">
+        <v>388.1</v>
+      </c>
+      <c r="F43">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G43" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H43">
+        <f>SUM(B43:G43)</f>
+        <v>14157.500793650001</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>14.15750079365</v>
+      </c>
+      <c r="K43" s="1">
+        <f>B43/$H43*100</f>
+        <v>96.203420353039405</v>
+      </c>
+      <c r="L43" s="1">
+        <f>C43/$H43*100</f>
+        <v>0.57319999364858376</v>
+      </c>
+      <c r="M43" s="1">
+        <f>D43/$H43*100</f>
+        <v>0.39943490609136401</v>
+      </c>
+      <c r="N43" s="1">
+        <f>E43/$H43*100</f>
+        <v>2.7413030425120848</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8705878762569611E-2</v>
+      </c>
+      <c r="P43" s="1">
+        <f>G43/$H43*100</f>
+        <v>4.3935825945988466E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2037</v>
+      </c>
+      <c r="B44">
+        <v>13620</v>
+      </c>
+      <c r="C44">
+        <v>81.150793649999997</v>
+      </c>
+      <c r="D44">
+        <v>56.55</v>
+      </c>
+      <c r="E44">
+        <v>388.1</v>
+      </c>
+      <c r="F44">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G44" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H44">
+        <f>SUM(B44:G44)</f>
+        <v>14157.500793650001</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>14.15750079365</v>
+      </c>
+      <c r="K44" s="1">
+        <f>B44/$H44*100</f>
+        <v>96.203420353039405</v>
+      </c>
+      <c r="L44" s="1">
+        <f>C44/$H44*100</f>
+        <v>0.57319999364858376</v>
+      </c>
+      <c r="M44" s="1">
+        <f>D44/$H44*100</f>
+        <v>0.39943490609136401</v>
+      </c>
+      <c r="N44" s="1">
+        <f>E44/$H44*100</f>
+        <v>2.7413030425120848</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8705878762569611E-2</v>
+      </c>
+      <c r="P44" s="1">
+        <f>G44/$H44*100</f>
+        <v>4.3935825945988466E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2038</v>
+      </c>
+      <c r="B45">
+        <v>13620</v>
+      </c>
+      <c r="C45">
+        <v>81.150793649999997</v>
+      </c>
+      <c r="D45">
+        <v>56.55</v>
+      </c>
+      <c r="E45">
+        <v>388.1</v>
+      </c>
+      <c r="F45">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G45" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H45">
+        <f>SUM(B45:G45)</f>
+        <v>14157.500793650001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>14.15750079365</v>
+      </c>
+      <c r="K45" s="1">
+        <f>B45/$H45*100</f>
+        <v>96.203420353039405</v>
+      </c>
+      <c r="L45" s="1">
+        <f>C45/$H45*100</f>
+        <v>0.57319999364858376</v>
+      </c>
+      <c r="M45" s="1">
+        <f>D45/$H45*100</f>
+        <v>0.39943490609136401</v>
+      </c>
+      <c r="N45" s="1">
+        <f>E45/$H45*100</f>
+        <v>2.7413030425120848</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8705878762569611E-2</v>
+      </c>
+      <c r="P45" s="1">
+        <f>G45/$H45*100</f>
+        <v>4.3935825945988466E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2039</v>
+      </c>
+      <c r="B46">
+        <v>13620</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>56.55</v>
+      </c>
+      <c r="E46">
+        <v>388.1</v>
+      </c>
+      <c r="F46">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G46" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H46">
+        <f>SUM(B46:G46)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K46" s="1">
+        <f>B46/$H46*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L46" s="1">
+        <f>C46/$H46*100</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <f>D46/$H46*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N46" s="1">
+        <f>E46/$H46*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P46" s="1">
+        <f>G46/$H46*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2040</v>
+      </c>
+      <c r="B47">
+        <v>13620</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>56.55</v>
+      </c>
+      <c r="E47">
+        <v>388.1</v>
+      </c>
+      <c r="F47">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G47" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H47">
+        <f>SUM(B47:G47)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K47" s="1">
+        <f>B47/$H47*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L47" s="1">
+        <f>C47/$H47*100</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f>D47/$H47*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N47" s="1">
+        <f>E47/$H47*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P47" s="1">
+        <f>G47/$H47*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2041</v>
+      </c>
+      <c r="B48">
+        <v>13620</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>56.55</v>
+      </c>
+      <c r="E48">
+        <v>388.1</v>
+      </c>
+      <c r="F48">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G48" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H48">
+        <f>SUM(B48:G48)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K48" s="1">
+        <f>B48/$H48*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L48" s="1">
+        <f>C48/$H48*100</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f>D48/$H48*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N48" s="1">
+        <f>E48/$H48*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P48" s="1">
+        <f>G48/$H48*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2042</v>
+      </c>
+      <c r="B49">
+        <v>13620</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>56.55</v>
+      </c>
+      <c r="E49">
+        <v>388.1</v>
+      </c>
+      <c r="F49">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G49" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H49">
+        <f>SUM(B49:G49)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K49" s="1">
+        <f>B49/$H49*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L49" s="1">
+        <f>C49/$H49*100</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <f>D49/$H49*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N49" s="1">
+        <f>E49/$H49*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P49" s="1">
+        <f>G49/$H49*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2043</v>
+      </c>
+      <c r="B50">
+        <v>13620</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>56.55</v>
+      </c>
+      <c r="E50">
+        <v>388.1</v>
+      </c>
+      <c r="F50">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G50" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H50">
+        <f>SUM(B50:G50)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K50" s="1">
+        <f>B50/$H50*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L50" s="1">
+        <f>C50/$H50*100</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <f>D50/$H50*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N50" s="1">
+        <f>E50/$H50*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P50" s="1">
+        <f>G50/$H50*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2044</v>
+      </c>
+      <c r="B51">
+        <v>13620</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>56.55</v>
+      </c>
+      <c r="E51">
+        <v>388.1</v>
+      </c>
+      <c r="F51">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G51" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H51">
+        <f>SUM(B51:G51)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K51" s="1">
+        <f>B51/$H51*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L51" s="1">
+        <f>C51/$H51*100</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <f>D51/$H51*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N51" s="1">
+        <f>E51/$H51*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P51" s="1">
+        <f>G51/$H51*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2045</v>
+      </c>
+      <c r="B52">
+        <v>13620</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>56.55</v>
+      </c>
+      <c r="E52">
+        <v>388.1</v>
+      </c>
+      <c r="F52">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G52" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H52">
+        <f>SUM(B52:G52)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K52" s="1">
+        <f>B52/$H52*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L52" s="1">
+        <f>C52/$H52*100</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <f>D52/$H52*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N52" s="1">
+        <f>E52/$H52*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P52" s="1">
+        <f>G52/$H52*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2046</v>
+      </c>
+      <c r="B53">
+        <v>13620</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>56.55</v>
+      </c>
+      <c r="E53">
+        <v>388.1</v>
+      </c>
+      <c r="F53">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G53" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H53">
+        <f>SUM(B53:G53)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K53" s="1">
+        <f>B53/$H53*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L53" s="1">
+        <f>C53/$H53*100</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <f>D53/$H53*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N53" s="1">
+        <f>E53/$H53*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P53" s="1">
+        <f>G53/$H53*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2047</v>
+      </c>
+      <c r="B54">
+        <v>13620</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>56.55</v>
+      </c>
+      <c r="E54">
+        <v>388.1</v>
+      </c>
+      <c r="F54">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G54" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H54">
+        <f>SUM(B54:G54)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K54" s="1">
+        <f>B54/$H54*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L54" s="1">
+        <f>C54/$H54*100</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f>D54/$H54*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N54" s="1">
+        <f>E54/$H54*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P54" s="1">
+        <f>G54/$H54*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2048</v>
+      </c>
+      <c r="B55">
+        <v>13620</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>56.55</v>
+      </c>
+      <c r="E55">
+        <v>388.1</v>
+      </c>
+      <c r="F55">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G55" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H55">
+        <f>SUM(B55:G55)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K55" s="1">
+        <f>B55/$H55*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L55" s="1">
+        <f>C55/$H55*100</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f>D55/$H55*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N55" s="1">
+        <f>E55/$H55*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P55" s="1">
+        <f>G55/$H55*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2049</v>
+      </c>
+      <c r="B56">
+        <v>13620</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>56.55</v>
+      </c>
+      <c r="E56">
+        <v>388.1</v>
+      </c>
+      <c r="F56">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G56" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H56">
+        <f>SUM(B56:G56)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K56" s="1">
+        <f>B56/$H56*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L56" s="1">
+        <f>C56/$H56*100</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <f>D56/$H56*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N56" s="1">
+        <f>E56/$H56*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P56" s="1">
+        <f>G56/$H56*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2050</v>
+      </c>
+      <c r="B57">
+        <v>13620</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>56.55</v>
+      </c>
+      <c r="E57">
+        <v>388.1</v>
+      </c>
+      <c r="F57">
+        <v>5.4797850930000003</v>
+      </c>
+      <c r="G57" s="18">
+        <v>6.2202149069999999</v>
+      </c>
+      <c r="H57">
+        <f>SUM(B57:G57)</f>
+        <v>14076.35</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>14.07635</v>
+      </c>
+      <c r="K57" s="1">
+        <f>B57/$H57*100</f>
+        <v>96.758037417370275</v>
+      </c>
+      <c r="L57" s="1">
+        <f>C57/$H57*100</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <f>D57/$H57*100</f>
+        <v>0.40173766636947783</v>
+      </c>
+      <c r="N57" s="1">
+        <f>E57/$H57*100</f>
+        <v>2.7571067783907051</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8929019902176343E-2</v>
+      </c>
+      <c r="P57" s="1">
+        <f>G57/$H57*100</f>
+        <v>4.4189117967370801E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14664F1-E6DD-45E9-8C55-1E9289DFBD1B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -10781,4 +19428,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF1096-38DF-491C-A1A8-9CD63F8B4E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F78A9-08A9-46ED-B96B-ED31A41D9E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Silicon" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -347,13 +347,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15891,7 +15891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCC222-30DE-4579-B7D5-14187B1877AA}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
@@ -15980,11 +15980,11 @@
       <c r="F2">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H2">
-        <f>SUM(B2:G2)</f>
+        <f t="shared" ref="H2:H33" si="0">SUM(B2:G2)</f>
         <v>16462.2</v>
       </c>
       <c r="I2">
@@ -15992,27 +15992,27 @@
         <v>16.462199999999999</v>
       </c>
       <c r="K2" s="1">
-        <f>B2/$H2*100</f>
+        <f t="shared" ref="K2:K33" si="1">B2/$H2*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L2" s="1">
-        <f>C2/$H2*100</f>
+        <f t="shared" ref="L2:L33" si="2">C2/$H2*100</f>
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <f>D2/$H2*100</f>
+        <f t="shared" ref="M2:M33" si="3">D2/$H2*100</f>
         <v>0.34351423260560554</v>
       </c>
       <c r="N2" s="1">
-        <f>E2/$H2*100</f>
+        <f t="shared" ref="N2:N33" si="4">E2/$H2*100</f>
         <v>2.3575220808883381</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" ref="O2:P17" si="0">F2/$H2*100</f>
+        <f t="shared" ref="O2:P17" si="5">F2/$H2*100</f>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="W2" t="s">
@@ -16044,39 +16044,39 @@
       <c r="F3">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H3">
-        <f>SUM(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I57" si="1">H3/1000</f>
+        <f t="shared" ref="I3:I57" si="6">H3/1000</f>
         <v>16.462199999999999</v>
       </c>
       <c r="K3" s="1">
-        <f>B3/$H3*100</f>
+        <f t="shared" si="1"/>
         <v>97.192355821214662</v>
       </c>
       <c r="L3" s="1">
-        <f>C3/$H3*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>D3/$H3*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N3" s="1">
-        <f>E3/$H3*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P3" s="1">
-        <f>G3/$H3*100</f>
+        <f t="shared" ref="P3:P34" si="7">G3/$H3*100</f>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="W3" t="s">
@@ -16116,39 +16116,39 @@
       <c r="F4">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H4">
-        <f>SUM(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I4">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <f>B4/$H4*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L4" s="1">
-        <f>C4/$H4*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <f>D4/$H4*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N4" s="1">
-        <f>E4/$H4*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P4" s="1">
-        <f>G4/$H4*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="W4" t="s">
@@ -16180,39 +16180,39 @@
       <c r="F5">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H5">
-        <f>SUM(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I5">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K5" s="1">
-        <f>B5/$H5*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L5" s="1">
-        <f>C5/$H5*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f>D5/$H5*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N5" s="1">
-        <f>E5/$H5*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P5" s="1">
-        <f>G5/$H5*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="X5">
@@ -16247,39 +16247,39 @@
       <c r="F6">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H6">
-        <f>SUM(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I6">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K6" s="1">
-        <f>B6/$H6*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L6" s="1">
-        <f>C6/$H6*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>D6/$H6*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N6" s="1">
-        <f>E6/$H6*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P6" s="1">
-        <f>G6/$H6*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="W6" t="s">
@@ -16312,39 +16312,39 @@
       <c r="F7">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H7">
-        <f>SUM(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I7">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <f>B7/$H7*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L7" s="1">
-        <f>C7/$H7*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f>D7/$H7*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N7" s="1">
-        <f>E7/$H7*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P7" s="1">
-        <f>G7/$H7*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
     </row>
@@ -16367,39 +16367,39 @@
       <c r="F8">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H8">
-        <f>SUM(B8:G8)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I8">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <f>B8/$H8*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L8" s="1">
-        <f>C8/$H8*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f>D8/$H8*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N8" s="1">
-        <f>E8/$H8*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P8" s="1">
-        <f>G8/$H8*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="S8" t="s">
@@ -16443,39 +16443,39 @@
       <c r="F9">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H9">
-        <f>SUM(B9:G9)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I9">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <f>B9/$H9*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L9" s="1">
-        <f>C9/$H9*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f>D9/$H9*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N9" s="1">
-        <f>E9/$H9*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P9" s="1">
-        <f>G9/$H9*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="R9" t="s">
@@ -16516,39 +16516,39 @@
       <c r="F10">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H10">
-        <f>SUM(B10:G10)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I10">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <f>B10/$H10*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L10" s="1">
-        <f>C10/$H10*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f>D10/$H10*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N10" s="1">
-        <f>E10/$H10*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P10" s="1">
-        <f>G10/$H10*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="R10" t="s">
@@ -16589,39 +16589,39 @@
       <c r="F11">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H11">
-        <f>SUM(B11:G11)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I11">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <f>B11/$H11*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L11" s="1">
-        <f>C11/$H11*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f>D11/$H11*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N11" s="1">
-        <f>E11/$H11*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P11" s="1">
-        <f>G11/$H11*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="R11" t="s">
@@ -16662,39 +16662,39 @@
       <c r="F12">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H12">
-        <f>SUM(B12:G12)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I12">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K12" s="1">
-        <f>B12/$H12*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L12" s="1">
-        <f>C12/$H12*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f>D12/$H12*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N12" s="1">
-        <f>E12/$H12*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P12" s="1">
-        <f>G12/$H12*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
       <c r="R12" t="s">
@@ -16741,39 +16741,39 @@
       <c r="F13">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H13">
-        <f>SUM(B13:G13)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I13">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K13" s="1">
-        <f>B13/$H13*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L13" s="1">
-        <f>C13/$H13*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f>D13/$H13*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N13" s="1">
-        <f>E13/$H13*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P13" s="1">
-        <f>G13/$H13*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
     </row>
@@ -16796,39 +16796,39 @@
       <c r="F14">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H14">
-        <f>SUM(B14:G14)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I14">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K14" s="1">
-        <f>B14/$H14*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L14" s="1">
-        <f>C14/$H14*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f>D14/$H14*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N14" s="1">
-        <f>E14/$H14*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P14" s="1">
-        <f>G14/$H14*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
     </row>
@@ -16851,39 +16851,39 @@
       <c r="F15">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H15">
-        <f>SUM(B15:G15)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I15">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K15" s="1">
-        <f>B15/$H15*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L15" s="1">
-        <f>C15/$H15*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f>D15/$H15*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N15" s="1">
-        <f>E15/$H15*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P15" s="1">
-        <f>G15/$H15*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
     </row>
@@ -16906,39 +16906,39 @@
       <c r="F16">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H16">
-        <f>SUM(B16:G16)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I16">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K16" s="1">
-        <f>B16/$H16*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L16" s="1">
-        <f>C16/$H16*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <f>D16/$H16*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N16" s="1">
-        <f>E16/$H16*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P16" s="1">
-        <f>G16/$H16*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
     </row>
@@ -16961,39 +16961,39 @@
       <c r="F17">
         <v>8.2196776400000005</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>9.3303223600000003</v>
       </c>
       <c r="H17">
-        <f>SUM(B17:G17)</f>
+        <f t="shared" si="0"/>
         <v>16462.2</v>
       </c>
       <c r="I17">
+        <f t="shared" si="6"/>
+        <v>16.462199999999999</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>16.462199999999999</v>
-      </c>
-      <c r="K17" s="1">
-        <f>B17/$H17*100</f>
         <v>97.192355821214662</v>
       </c>
       <c r="L17" s="1">
-        <f>C17/$H17*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f>D17/$H17*100</f>
+        <f t="shared" si="3"/>
         <v>0.34351423260560554</v>
       </c>
       <c r="N17" s="1">
-        <f>E17/$H17*100</f>
+        <f t="shared" si="4"/>
         <v>2.3575220808883381</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9930614620160123E-2</v>
       </c>
       <c r="P17" s="1">
-        <f>G17/$H17*100</f>
+        <f t="shared" si="7"/>
         <v>5.6677250671234712E-2</v>
       </c>
     </row>
@@ -17016,39 +17016,39 @@
       <c r="F18">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H18">
-        <f>SUM(B18:G18)</f>
+        <f t="shared" si="0"/>
         <v>16457.519999999997</v>
       </c>
       <c r="I18">
+        <f t="shared" si="6"/>
+        <v>16.457519999999995</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>16.457519999999995</v>
-      </c>
-      <c r="K18" s="1">
-        <f>B18/$H18*100</f>
         <v>97.219994264020357</v>
       </c>
       <c r="L18" s="1">
-        <f>C18/$H18*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f>D18/$H18*100</f>
+        <f t="shared" si="3"/>
         <v>0.34361191722689693</v>
       </c>
       <c r="N18" s="1">
-        <f>E18/$H18*100</f>
+        <f t="shared" si="4"/>
         <v>2.3581924858666441</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" ref="O18:O57" si="2">F18/$H18*100</f>
+        <f t="shared" ref="O18:O57" si="8">F18/$H18*100</f>
         <v>3.6626196431783171E-2</v>
       </c>
       <c r="P18" s="1">
-        <f>G18/$H18*100</f>
+        <f t="shared" si="7"/>
         <v>4.1575136454338205E-2</v>
       </c>
     </row>
@@ -17071,39 +17071,39 @@
       <c r="F19">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H19">
-        <f>SUM(B19:G19)</f>
+        <f t="shared" si="0"/>
         <v>16457.519999999997</v>
       </c>
       <c r="I19">
+        <f t="shared" si="6"/>
+        <v>16.457519999999995</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>16.457519999999995</v>
-      </c>
-      <c r="K19" s="1">
-        <f>B19/$H19*100</f>
         <v>97.219994264020357</v>
       </c>
       <c r="L19" s="1">
-        <f>C19/$H19*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f>D19/$H19*100</f>
+        <f t="shared" si="3"/>
         <v>0.34361191722689693</v>
       </c>
       <c r="N19" s="1">
-        <f>E19/$H19*100</f>
+        <f t="shared" si="4"/>
         <v>2.3581924858666441</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6626196431783171E-2</v>
       </c>
       <c r="P19" s="1">
-        <f>G19/$H19*100</f>
+        <f t="shared" si="7"/>
         <v>4.1575136454338205E-2</v>
       </c>
     </row>
@@ -17126,39 +17126,39 @@
       <c r="F20">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H20">
-        <f>SUM(B20:G20)</f>
+        <f t="shared" si="0"/>
         <v>16457.519999999997</v>
       </c>
       <c r="I20">
+        <f t="shared" si="6"/>
+        <v>16.457519999999995</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>16.457519999999995</v>
-      </c>
-      <c r="K20" s="1">
-        <f>B20/$H20*100</f>
         <v>97.219994264020357</v>
       </c>
       <c r="L20" s="1">
-        <f>C20/$H20*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f>D20/$H20*100</f>
+        <f t="shared" si="3"/>
         <v>0.34361191722689693</v>
       </c>
       <c r="N20" s="1">
-        <f>E20/$H20*100</f>
+        <f t="shared" si="4"/>
         <v>2.3581924858666441</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6626196431783171E-2</v>
       </c>
       <c r="P20" s="1">
-        <f>G20/$H20*100</f>
+        <f t="shared" si="7"/>
         <v>4.1575136454338205E-2</v>
       </c>
     </row>
@@ -17181,39 +17181,39 @@
       <c r="F21">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H21">
-        <f>SUM(B21:G21)</f>
+        <f t="shared" si="0"/>
         <v>16405.019999999997</v>
       </c>
       <c r="I21">
+        <f t="shared" si="6"/>
+        <v>16.405019999999997</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>16.405019999999997</v>
-      </c>
-      <c r="K21" s="1">
-        <f>B21/$H21*100</f>
         <v>97.211097578668017</v>
       </c>
       <c r="L21" s="1">
-        <f>C21/$H21*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f>D21/$H21*100</f>
+        <f t="shared" si="3"/>
         <v>0.34471155780364793</v>
       </c>
       <c r="N21" s="1">
-        <f>E21/$H21*100</f>
+        <f t="shared" si="4"/>
         <v>2.3657392676144258</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6743409047962153E-2</v>
       </c>
       <c r="P21" s="1">
-        <f>G21/$H21*100</f>
+        <f t="shared" si="7"/>
         <v>4.1708186865971518E-2</v>
       </c>
     </row>
@@ -17236,39 +17236,39 @@
       <c r="F22">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H22">
-        <f>SUM(B22:G22)</f>
+        <f t="shared" si="0"/>
         <v>16352.52</v>
       </c>
       <c r="I22">
+        <f t="shared" si="6"/>
+        <v>16.352520000000002</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>16.352520000000002</v>
-      </c>
-      <c r="K22" s="1">
-        <f>B22/$H22*100</f>
         <v>97.2021437674438</v>
       </c>
       <c r="L22" s="1">
-        <f>C22/$H22*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f>D22/$H22*100</f>
+        <f t="shared" si="3"/>
         <v>0.34581825920408599</v>
       </c>
       <c r="N22" s="1">
-        <f>E22/$H22*100</f>
+        <f t="shared" si="4"/>
         <v>2.3733345074642931</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6861374289711923E-2</v>
       </c>
       <c r="P22" s="1">
-        <f>G22/$H22*100</f>
+        <f t="shared" si="7"/>
         <v>4.1842091598114542E-2</v>
       </c>
     </row>
@@ -17291,39 +17291,39 @@
       <c r="F23">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H23">
-        <f>SUM(B23:G23)</f>
+        <f t="shared" si="0"/>
         <v>16300.02</v>
       </c>
       <c r="I23">
+        <f t="shared" si="6"/>
+        <v>16.30002</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>16.30002</v>
-      </c>
-      <c r="K23" s="1">
-        <f>B23/$H23*100</f>
         <v>97.193132278365297</v>
       </c>
       <c r="L23" s="1">
-        <f>C23/$H23*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f>D23/$H23*100</f>
+        <f t="shared" si="3"/>
         <v>0.34693208965387767</v>
       </c>
       <c r="N23" s="1">
-        <f>E23/$H23*100</f>
+        <f t="shared" si="4"/>
         <v>2.380978673645799</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6980099429325855E-2</v>
       </c>
       <c r="P23" s="1">
-        <f>G23/$H23*100</f>
+        <f t="shared" si="7"/>
         <v>4.1976858905694588E-2</v>
       </c>
     </row>
@@ -17346,39 +17346,39 @@
       <c r="F24">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H24">
-        <f>SUM(B24:G24)</f>
+        <f t="shared" si="0"/>
         <v>16247.52</v>
       </c>
       <c r="I24">
+        <f t="shared" si="6"/>
+        <v>16.247520000000002</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>16.247520000000002</v>
-      </c>
-      <c r="K24" s="1">
-        <f>B24/$H24*100</f>
         <v>97.18406255231568</v>
       </c>
       <c r="L24" s="1">
-        <f>C24/$H24*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f>D24/$H24*100</f>
+        <f t="shared" si="3"/>
         <v>0.34805311826050989</v>
       </c>
       <c r="N24" s="1">
-        <f>E24/$H24*100</f>
+        <f t="shared" si="4"/>
         <v>2.3886722404403873</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.7099591833092069E-2</v>
       </c>
       <c r="P24" s="1">
-        <f>G24/$H24*100</f>
+        <f t="shared" si="7"/>
         <v>4.2112497150334327E-2</v>
       </c>
     </row>
@@ -17401,39 +17401,39 @@
       <c r="F25">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H25">
-        <f>SUM(B25:G25)</f>
+        <f t="shared" si="0"/>
         <v>16330.052683100001</v>
       </c>
       <c r="I25">
+        <f t="shared" si="6"/>
+        <v>16.3300526831</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="1"/>
-        <v>16.3300526831</v>
-      </c>
-      <c r="K25" s="1">
-        <f>B25/$H25*100</f>
         <v>96.478561984707355</v>
       </c>
       <c r="L25" s="1">
-        <f>C25/$H25*100</f>
+        <f t="shared" si="2"/>
         <v>0.71973241838732571</v>
       </c>
       <c r="M25" s="1">
-        <f>D25/$H25*100</f>
+        <f t="shared" si="3"/>
         <v>0.34629404507998734</v>
       </c>
       <c r="N25" s="1">
-        <f>E25/$H25*100</f>
+        <f t="shared" si="4"/>
         <v>2.3765998036347145</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6912089140031634E-2</v>
       </c>
       <c r="P25" s="1">
-        <f>G25/$H25*100</f>
+        <f t="shared" si="7"/>
         <v>4.1899659050586173E-2</v>
       </c>
     </row>
@@ -17456,39 +17456,39 @@
       <c r="F26">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H26">
-        <f>SUM(B26:G26)</f>
+        <f t="shared" si="0"/>
         <v>16309.6002826</v>
       </c>
       <c r="I26">
+        <f t="shared" si="6"/>
+        <v>16.309600282600002</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>16.309600282600002</v>
-      </c>
-      <c r="K26" s="1">
-        <f>B26/$H26*100</f>
         <v>95.955754456449199</v>
       </c>
       <c r="L26" s="1">
-        <f>C26/$H26*100</f>
+        <f t="shared" si="2"/>
         <v>1.2390265800418825</v>
       </c>
       <c r="M26" s="1">
-        <f>D26/$H26*100</f>
+        <f t="shared" si="3"/>
         <v>0.34672830124678605</v>
       </c>
       <c r="N26" s="1">
-        <f>E26/$H26*100</f>
+        <f t="shared" si="4"/>
         <v>2.3795800833576952</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6958377265877924E-2</v>
       </c>
       <c r="P26" s="1">
-        <f>G26/$H26*100</f>
+        <f t="shared" si="7"/>
         <v>4.1952201638563037E-2</v>
       </c>
     </row>
@@ -17511,39 +17511,39 @@
       <c r="F27">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H27">
-        <f>SUM(B27:G27)</f>
+        <f t="shared" si="0"/>
         <v>16338.2739683</v>
       </c>
       <c r="I27">
+        <f t="shared" si="6"/>
+        <v>16.338273968300001</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>16.338273968300001</v>
-      </c>
-      <c r="K27" s="1">
-        <f>B27/$H27*100</f>
         <v>94.716247444650818</v>
       </c>
       <c r="L27" s="1">
-        <f>C27/$H27*100</f>
+        <f t="shared" si="2"/>
         <v>2.4834567536770149</v>
       </c>
       <c r="M27" s="1">
-        <f>D27/$H27*100</f>
+        <f t="shared" si="3"/>
         <v>0.34611979276219734</v>
       </c>
       <c r="N27" s="1">
-        <f>E27/$H27*100</f>
+        <f t="shared" si="4"/>
         <v>2.3754039181433919</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6893515280103914E-2</v>
       </c>
       <c r="P27" s="1">
-        <f>G27/$H27*100</f>
+        <f t="shared" si="7"/>
         <v>4.1878575486465147E-2</v>
       </c>
     </row>
@@ -17566,39 +17566,39 @@
       <c r="F28">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H28">
-        <f>SUM(B28:G28)</f>
+        <f t="shared" si="0"/>
         <v>16184.027936500001</v>
       </c>
       <c r="I28">
+        <f t="shared" si="6"/>
+        <v>16.184027936500001</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>16.184027936500001</v>
-      </c>
-      <c r="K28" s="1">
-        <f>B28/$H28*100</f>
         <v>92.158763309855956</v>
       </c>
       <c r="L28" s="1">
-        <f>C28/$H28*100</f>
+        <f t="shared" si="2"/>
         <v>5.0142519506519019</v>
       </c>
       <c r="M28" s="1">
-        <f>D28/$H28*100</f>
+        <f t="shared" si="3"/>
         <v>0.34941857627706024</v>
       </c>
       <c r="N28" s="1">
-        <f>E28/$H28*100</f>
+        <f t="shared" si="4"/>
         <v>2.3980433148209923</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.7245138396020214E-2</v>
       </c>
       <c r="P28" s="1">
-        <f>G28/$H28*100</f>
+        <f t="shared" si="7"/>
         <v>4.2277709998069367E-2</v>
       </c>
     </row>
@@ -17621,39 +17621,39 @@
       <c r="F29">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H29">
-        <f>SUM(B29:G29)</f>
+        <f t="shared" si="0"/>
         <v>16079.027936500001</v>
       </c>
       <c r="I29">
+        <f t="shared" si="6"/>
+        <v>16.079027936500001</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>16.079027936500001</v>
-      </c>
-      <c r="K29" s="1">
-        <f>B29/$H29*100</f>
         <v>92.107558109161189</v>
       </c>
       <c r="L29" s="1">
-        <f>C29/$H29*100</f>
+        <f t="shared" si="2"/>
         <v>5.0469962469425553</v>
       </c>
       <c r="M29" s="1">
-        <f>D29/$H29*100</f>
+        <f t="shared" si="3"/>
         <v>0.35170036536617594</v>
       </c>
       <c r="N29" s="1">
-        <f>E29/$H29*100</f>
+        <f t="shared" si="4"/>
         <v>2.4137031264122526</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.7488358293829127E-2</v>
       </c>
       <c r="P29" s="1">
-        <f>G29/$H29*100</f>
+        <f t="shared" si="7"/>
         <v>4.2553793823990223E-2</v>
       </c>
     </row>
@@ -17676,39 +17676,39 @@
       <c r="F30">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H30">
-        <f>SUM(B30:G30)</f>
+        <f t="shared" si="0"/>
         <v>15904.027936500001</v>
       </c>
       <c r="I30">
+        <f t="shared" si="6"/>
+        <v>15.9040279365</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>15.9040279365</v>
-      </c>
-      <c r="K30" s="1">
-        <f>B30/$H30*100</f>
         <v>92.020713610622124</v>
       </c>
       <c r="L30" s="1">
-        <f>C30/$H30*100</f>
+        <f t="shared" si="2"/>
         <v>5.1025308792219626</v>
       </c>
       <c r="M30" s="1">
-        <f>D30/$H30*100</f>
+        <f t="shared" si="3"/>
         <v>0.35557030096895664</v>
       </c>
       <c r="N30" s="1">
-        <f>E30/$H30*100</f>
+        <f t="shared" si="4"/>
         <v>2.4402623131043697</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.790086151173179E-2</v>
       </c>
       <c r="P30" s="1">
-        <f>G30/$H30*100</f>
+        <f t="shared" si="7"/>
         <v>4.3022034570858347E-2</v>
       </c>
     </row>
@@ -17731,39 +17731,39 @@
       <c r="F31">
         <v>6.0277636030000004</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H31">
-        <f>SUM(B31:G31)</f>
+        <f t="shared" si="0"/>
         <v>16134.781905</v>
       </c>
       <c r="I31">
+        <f t="shared" si="6"/>
+        <v>16.134781905000001</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>16.134781905000001</v>
-      </c>
-      <c r="K31" s="1">
-        <f>B31/$H31*100</f>
         <v>89.620052413097682</v>
       </c>
       <c r="L31" s="1">
-        <f>C31/$H31*100</f>
+        <f t="shared" si="2"/>
         <v>7.5443344209244216</v>
       </c>
       <c r="M31" s="1">
-        <f>D31/$H31*100</f>
+        <f t="shared" si="3"/>
         <v>0.35048505974831767</v>
       </c>
       <c r="N31" s="1">
-        <f>E31/$H31*100</f>
+        <f t="shared" si="4"/>
         <v>2.4053625409075527</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.7358816738217331E-2</v>
       </c>
       <c r="P31" s="1">
-        <f>G31/$H31*100</f>
+        <f t="shared" si="7"/>
         <v>4.2406748583813596E-2</v>
       </c>
     </row>
@@ -17786,39 +17786,39 @@
       <c r="F32">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>6.8422363969999997</v>
       </c>
       <c r="H32">
-        <f>SUM(B32:G32)</f>
+        <f t="shared" si="0"/>
         <v>16382.487894490001</v>
       </c>
       <c r="I32">
+        <f t="shared" si="6"/>
+        <v>16.382487894490001</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>16.382487894490001</v>
-      </c>
-      <c r="K32" s="1">
-        <f>B32/$H32*100</f>
         <v>87.303589614190571</v>
       </c>
       <c r="L32" s="1">
-        <f>C32/$H32*100</f>
+        <f t="shared" si="2"/>
         <v>9.9070170748966451</v>
       </c>
       <c r="M32" s="1">
-        <f>D32/$H32*100</f>
+        <f t="shared" si="3"/>
         <v>0.34518566632983583</v>
       </c>
       <c r="N32" s="1">
-        <f>E32/$H32*100</f>
+        <f t="shared" si="4"/>
         <v>2.3689930522123657</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.3449041002148655E-2</v>
       </c>
       <c r="P32" s="1">
-        <f>G32/$H32*100</f>
+        <f t="shared" si="7"/>
         <v>4.1765551368429708E-2</v>
       </c>
     </row>
@@ -17841,39 +17841,39 @@
       <c r="F33">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H33">
-        <f>SUM(B33:G33)</f>
+        <f t="shared" si="0"/>
         <v>16224.365873000001</v>
       </c>
       <c r="I33">
+        <f t="shared" si="6"/>
+        <v>16.224365873</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="1"/>
-        <v>16.224365873</v>
-      </c>
-      <c r="K33" s="1">
-        <f>B33/$H33*100</f>
         <v>87.183684778334509</v>
       </c>
       <c r="L33" s="1">
-        <f>C33/$H33*100</f>
+        <f t="shared" si="2"/>
         <v>10.003570467434811</v>
       </c>
       <c r="M33" s="1">
-        <f>D33/$H33*100</f>
+        <f t="shared" si="3"/>
         <v>0.34854983204063744</v>
       </c>
       <c r="N33" s="1">
-        <f>E33/$H33*100</f>
+        <f t="shared" si="4"/>
         <v>2.3920811638368065</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.3775034019167795E-2</v>
       </c>
       <c r="P33" s="1">
-        <f>G33/$H33*100</f>
+        <f t="shared" si="7"/>
         <v>3.8338724334067535E-2</v>
       </c>
     </row>
@@ -17896,39 +17896,39 @@
       <c r="F34">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H34">
-        <f>SUM(B34:G34)</f>
+        <f t="shared" ref="H34:H65" si="9">SUM(B34:G34)</f>
         <v>15736.945234999999</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15.736945234999999</v>
       </c>
       <c r="K34" s="1">
-        <f>B34/$H34*100</f>
+        <f t="shared" ref="K34:K57" si="10">B34/$H34*100</f>
         <v>89.365077656381644</v>
       </c>
       <c r="L34" s="1">
-        <f>C34/$H34*100</f>
+        <f t="shared" ref="L34:L57" si="11">C34/$H34*100</f>
         <v>7.7350584044273711</v>
       </c>
       <c r="M34" s="1">
-        <f>D34/$H34*100</f>
+        <f t="shared" ref="M34:M57" si="12">D34/$H34*100</f>
         <v>0.35934547115426879</v>
       </c>
       <c r="N34" s="1">
-        <f>E34/$H34*100</f>
+        <f t="shared" ref="N34:N57" si="13">E34/$H34*100</f>
         <v>2.4661711291772188</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.4821148648421285E-2</v>
       </c>
       <c r="P34" s="1">
-        <f>G34/$H34*100</f>
+        <f t="shared" si="7"/>
         <v>3.9526190211082605E-2</v>
       </c>
     </row>
@@ -17951,39 +17951,39 @@
       <c r="F35">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H35">
-        <f>SUM(B35:G35)</f>
+        <f t="shared" si="9"/>
         <v>15249.524606500001</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15.249524606500001</v>
       </c>
       <c r="K35" s="1">
-        <f>B35/$H35*100</f>
+        <f t="shared" si="10"/>
         <v>91.685918287842327</v>
       </c>
       <c r="L35" s="1">
-        <f>C35/$H35*100</f>
+        <f t="shared" si="11"/>
         <v>5.3215294079010214</v>
       </c>
       <c r="M35" s="1">
-        <f>D35/$H35*100</f>
+        <f t="shared" si="12"/>
         <v>0.37083123218081149</v>
       </c>
       <c r="N35" s="1">
-        <f>E35/$H35*100</f>
+        <f t="shared" si="13"/>
         <v>2.5449973688660115</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.5934137190508093E-2</v>
       </c>
       <c r="P35" s="1">
-        <f>G35/$H35*100</f>
+        <f t="shared" ref="P35:P57" si="14">G35/$H35*100</f>
         <v>4.0789566019314973E-2</v>
       </c>
     </row>
@@ -18006,39 +18006,39 @@
       <c r="F36">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H36">
-        <f>SUM(B36:G36)</f>
+        <f t="shared" si="9"/>
         <v>15167.857936500001</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15.167857936500001</v>
       </c>
       <c r="K36" s="1">
-        <f>B36/$H36*100</f>
+        <f t="shared" si="10"/>
         <v>91.641153669767561</v>
       </c>
       <c r="L36" s="1">
-        <f>C36/$H36*100</f>
+        <f t="shared" si="11"/>
         <v>5.3501815477001777</v>
       </c>
       <c r="M36" s="1">
-        <f>D36/$H36*100</f>
+        <f t="shared" si="12"/>
         <v>0.37282785899462989</v>
       </c>
       <c r="N36" s="1">
-        <f>E36/$H36*100</f>
+        <f t="shared" si="13"/>
         <v>2.558700125124949</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6127613509706079E-2</v>
       </c>
       <c r="P36" s="1">
-        <f>G36/$H36*100</f>
+        <f t="shared" si="14"/>
         <v>4.1009184902975962E-2</v>
       </c>
     </row>
@@ -18061,39 +18061,39 @@
       <c r="F37">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H37">
-        <f>SUM(B37:G37)</f>
+        <f t="shared" si="9"/>
         <v>15074.524606500001</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15.074524606500001</v>
       </c>
       <c r="K37" s="1">
-        <f>B37/$H37*100</f>
+        <f t="shared" si="10"/>
         <v>91.589400199371383</v>
       </c>
       <c r="L37" s="1">
-        <f>C37/$H37*100</f>
+        <f t="shared" si="11"/>
         <v>5.3833069876716708</v>
       </c>
       <c r="M37" s="1">
-        <f>D37/$H37*100</f>
+        <f t="shared" si="12"/>
         <v>0.3751362081137613</v>
       </c>
       <c r="N37" s="1">
-        <f>E37/$H37*100</f>
+        <f t="shared" si="13"/>
         <v>2.5745422169575733</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.635129621691132E-2</v>
       </c>
       <c r="P37" s="1">
-        <f>G37/$H37*100</f>
+        <f t="shared" si="14"/>
         <v>4.126309166869447E-2</v>
       </c>
     </row>
@@ -18116,39 +18116,39 @@
       <c r="F38">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H38">
-        <f>SUM(B38:G38)</f>
+        <f t="shared" si="9"/>
         <v>14575.437298299999</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.575437298299999</v>
       </c>
       <c r="K38" s="1">
-        <f>B38/$H38*100</f>
+        <f t="shared" si="10"/>
         <v>94.085227422984076</v>
       </c>
       <c r="L38" s="1">
-        <f>C38/$H38*100</f>
+        <f t="shared" si="11"/>
         <v>2.7838202037843827</v>
       </c>
       <c r="M38" s="1">
-        <f>D38/$H38*100</f>
+        <f t="shared" si="12"/>
         <v>0.38798149820585953</v>
       </c>
       <c r="N38" s="1">
-        <f>E38/$H38*100</f>
+        <f t="shared" si="13"/>
         <v>2.662698840914131</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.7596025291393026E-2</v>
       </c>
       <c r="P38" s="1">
-        <f>G38/$H38*100</f>
+        <f t="shared" si="14"/>
         <v>4.2676008820164132E-2</v>
       </c>
     </row>
@@ -18171,39 +18171,39 @@
       <c r="F39">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H39">
-        <f>SUM(B39:G39)</f>
+        <f t="shared" si="9"/>
         <v>14278.4302826</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.2784302826</v>
       </c>
       <c r="K39" s="1">
-        <f>B39/$H39*100</f>
+        <f t="shared" si="10"/>
         <v>95.388636778915554</v>
       </c>
       <c r="L39" s="1">
-        <f>C39/$H39*100</f>
+        <f t="shared" si="11"/>
         <v>1.4152836033121885</v>
       </c>
       <c r="M39" s="1">
-        <f>D39/$H39*100</f>
+        <f t="shared" si="12"/>
         <v>0.39605193904902158</v>
       </c>
       <c r="N39" s="1">
-        <f>E39/$H39*100</f>
+        <f t="shared" si="13"/>
         <v>2.7180858982303322</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8378063866570708E-2</v>
       </c>
       <c r="P39" s="1">
-        <f>G39/$H39*100</f>
+        <f t="shared" si="14"/>
         <v>4.3563716626330323E-2</v>
       </c>
     </row>
@@ -18226,39 +18226,39 @@
       <c r="F40">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H40">
-        <f>SUM(B40:G40)</f>
+        <f t="shared" si="9"/>
         <v>14193.882683100001</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.1938826831</v>
       </c>
       <c r="K40" s="1">
-        <f>B40/$H40*100</f>
+        <f t="shared" si="10"/>
         <v>95.956830869235688</v>
       </c>
       <c r="L40" s="1">
-        <f>C40/$H40*100</f>
+        <f t="shared" si="11"/>
         <v>0.82805167355610687</v>
       </c>
       <c r="M40" s="1">
-        <f>D40/$H40*100</f>
+        <f t="shared" si="12"/>
         <v>0.39841107089980016</v>
       </c>
       <c r="N40" s="1">
-        <f>E40/$H40*100</f>
+        <f t="shared" si="13"/>
         <v>2.7342765095705119</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8606667501377381E-2</v>
       </c>
       <c r="P40" s="1">
-        <f>G40/$H40*100</f>
+        <f t="shared" si="14"/>
         <v>4.3823209236512305E-2</v>
       </c>
     </row>
@@ -18281,39 +18281,39 @@
       <c r="F41">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H41">
-        <f>SUM(B41:G41)</f>
+        <f t="shared" si="9"/>
         <v>14157.500793650001</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.15750079365</v>
       </c>
       <c r="K41" s="1">
-        <f>B41/$H41*100</f>
+        <f t="shared" si="10"/>
         <v>96.203420353039405</v>
       </c>
       <c r="L41" s="1">
-        <f>C41/$H41*100</f>
+        <f t="shared" si="11"/>
         <v>0.57319999364858376</v>
       </c>
       <c r="M41" s="1">
-        <f>D41/$H41*100</f>
+        <f t="shared" si="12"/>
         <v>0.39943490609136401</v>
       </c>
       <c r="N41" s="1">
-        <f>E41/$H41*100</f>
+        <f t="shared" si="13"/>
         <v>2.7413030425120848</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8705878762569611E-2</v>
       </c>
       <c r="P41" s="1">
-        <f>G41/$H41*100</f>
+        <f t="shared" si="14"/>
         <v>4.3935825945988466E-2</v>
       </c>
     </row>
@@ -18336,39 +18336,39 @@
       <c r="F42">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H42">
-        <f>SUM(B42:G42)</f>
+        <f t="shared" si="9"/>
         <v>14157.500793650001</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.15750079365</v>
       </c>
       <c r="K42" s="1">
-        <f>B42/$H42*100</f>
+        <f t="shared" si="10"/>
         <v>96.203420353039405</v>
       </c>
       <c r="L42" s="1">
-        <f>C42/$H42*100</f>
+        <f t="shared" si="11"/>
         <v>0.57319999364858376</v>
       </c>
       <c r="M42" s="1">
-        <f>D42/$H42*100</f>
+        <f t="shared" si="12"/>
         <v>0.39943490609136401</v>
       </c>
       <c r="N42" s="1">
-        <f>E42/$H42*100</f>
+        <f t="shared" si="13"/>
         <v>2.7413030425120848</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8705878762569611E-2</v>
       </c>
       <c r="P42" s="1">
-        <f>G42/$H42*100</f>
+        <f t="shared" si="14"/>
         <v>4.3935825945988466E-2</v>
       </c>
     </row>
@@ -18391,39 +18391,39 @@
       <c r="F43">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H43">
-        <f>SUM(B43:G43)</f>
+        <f t="shared" si="9"/>
         <v>14157.500793650001</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.15750079365</v>
       </c>
       <c r="K43" s="1">
-        <f>B43/$H43*100</f>
+        <f t="shared" si="10"/>
         <v>96.203420353039405</v>
       </c>
       <c r="L43" s="1">
-        <f>C43/$H43*100</f>
+        <f t="shared" si="11"/>
         <v>0.57319999364858376</v>
       </c>
       <c r="M43" s="1">
-        <f>D43/$H43*100</f>
+        <f t="shared" si="12"/>
         <v>0.39943490609136401</v>
       </c>
       <c r="N43" s="1">
-        <f>E43/$H43*100</f>
+        <f t="shared" si="13"/>
         <v>2.7413030425120848</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8705878762569611E-2</v>
       </c>
       <c r="P43" s="1">
-        <f>G43/$H43*100</f>
+        <f t="shared" si="14"/>
         <v>4.3935825945988466E-2</v>
       </c>
     </row>
@@ -18446,39 +18446,39 @@
       <c r="F44">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H44">
-        <f>SUM(B44:G44)</f>
+        <f t="shared" si="9"/>
         <v>14157.500793650001</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.15750079365</v>
       </c>
       <c r="K44" s="1">
-        <f>B44/$H44*100</f>
+        <f t="shared" si="10"/>
         <v>96.203420353039405</v>
       </c>
       <c r="L44" s="1">
-        <f>C44/$H44*100</f>
+        <f t="shared" si="11"/>
         <v>0.57319999364858376</v>
       </c>
       <c r="M44" s="1">
-        <f>D44/$H44*100</f>
+        <f t="shared" si="12"/>
         <v>0.39943490609136401</v>
       </c>
       <c r="N44" s="1">
-        <f>E44/$H44*100</f>
+        <f t="shared" si="13"/>
         <v>2.7413030425120848</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8705878762569611E-2</v>
       </c>
       <c r="P44" s="1">
-        <f>G44/$H44*100</f>
+        <f t="shared" si="14"/>
         <v>4.3935825945988466E-2</v>
       </c>
     </row>
@@ -18501,39 +18501,39 @@
       <c r="F45">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H45">
-        <f>SUM(B45:G45)</f>
+        <f t="shared" si="9"/>
         <v>14157.500793650001</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.15750079365</v>
       </c>
       <c r="K45" s="1">
-        <f>B45/$H45*100</f>
+        <f t="shared" si="10"/>
         <v>96.203420353039405</v>
       </c>
       <c r="L45" s="1">
-        <f>C45/$H45*100</f>
+        <f t="shared" si="11"/>
         <v>0.57319999364858376</v>
       </c>
       <c r="M45" s="1">
-        <f>D45/$H45*100</f>
+        <f t="shared" si="12"/>
         <v>0.39943490609136401</v>
       </c>
       <c r="N45" s="1">
-        <f>E45/$H45*100</f>
+        <f t="shared" si="13"/>
         <v>2.7413030425120848</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8705878762569611E-2</v>
       </c>
       <c r="P45" s="1">
-        <f>G45/$H45*100</f>
+        <f t="shared" si="14"/>
         <v>4.3935825945988466E-2</v>
       </c>
     </row>
@@ -18556,39 +18556,39 @@
       <c r="F46">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H46">
-        <f>SUM(B46:G46)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K46" s="1">
-        <f>B46/$H46*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L46" s="1">
-        <f>C46/$H46*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f>D46/$H46*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N46" s="1">
-        <f>E46/$H46*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P46" s="1">
-        <f>G46/$H46*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18611,39 +18611,39 @@
       <c r="F47">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H47">
-        <f>SUM(B47:G47)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K47" s="1">
-        <f>B47/$H47*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L47" s="1">
-        <f>C47/$H47*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f>D47/$H47*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N47" s="1">
-        <f>E47/$H47*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P47" s="1">
-        <f>G47/$H47*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18666,39 +18666,39 @@
       <c r="F48">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H48">
-        <f>SUM(B48:G48)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K48" s="1">
-        <f>B48/$H48*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L48" s="1">
-        <f>C48/$H48*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f>D48/$H48*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N48" s="1">
-        <f>E48/$H48*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P48" s="1">
-        <f>G48/$H48*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18721,39 +18721,39 @@
       <c r="F49">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H49">
-        <f>SUM(B49:G49)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K49" s="1">
-        <f>B49/$H49*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L49" s="1">
-        <f>C49/$H49*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f>D49/$H49*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N49" s="1">
-        <f>E49/$H49*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P49" s="1">
-        <f>G49/$H49*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18776,39 +18776,39 @@
       <c r="F50">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H50">
-        <f>SUM(B50:G50)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K50" s="1">
-        <f>B50/$H50*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L50" s="1">
-        <f>C50/$H50*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <f>D50/$H50*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N50" s="1">
-        <f>E50/$H50*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P50" s="1">
-        <f>G50/$H50*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18831,39 +18831,39 @@
       <c r="F51">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H51">
-        <f>SUM(B51:G51)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K51" s="1">
-        <f>B51/$H51*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L51" s="1">
-        <f>C51/$H51*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f>D51/$H51*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N51" s="1">
-        <f>E51/$H51*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P51" s="1">
-        <f>G51/$H51*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18886,39 +18886,39 @@
       <c r="F52">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H52">
-        <f>SUM(B52:G52)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K52" s="1">
-        <f>B52/$H52*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L52" s="1">
-        <f>C52/$H52*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f>D52/$H52*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N52" s="1">
-        <f>E52/$H52*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P52" s="1">
-        <f>G52/$H52*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18941,39 +18941,39 @@
       <c r="F53">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H53">
-        <f>SUM(B53:G53)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K53" s="1">
-        <f>B53/$H53*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L53" s="1">
-        <f>C53/$H53*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <f>D53/$H53*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N53" s="1">
-        <f>E53/$H53*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P53" s="1">
-        <f>G53/$H53*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -18996,39 +18996,39 @@
       <c r="F54">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H54">
-        <f>SUM(B54:G54)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K54" s="1">
-        <f>B54/$H54*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L54" s="1">
-        <f>C54/$H54*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <f>D54/$H54*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N54" s="1">
-        <f>E54/$H54*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P54" s="1">
-        <f>G54/$H54*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -19051,39 +19051,39 @@
       <c r="F55">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H55">
-        <f>SUM(B55:G55)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K55" s="1">
-        <f>B55/$H55*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L55" s="1">
-        <f>C55/$H55*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f>D55/$H55*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N55" s="1">
-        <f>E55/$H55*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P55" s="1">
-        <f>G55/$H55*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -19106,39 +19106,39 @@
       <c r="F56">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H56">
-        <f>SUM(B56:G56)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K56" s="1">
-        <f>B56/$H56*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L56" s="1">
-        <f>C56/$H56*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <f>D56/$H56*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N56" s="1">
-        <f>E56/$H56*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P56" s="1">
-        <f>G56/$H56*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -19161,39 +19161,39 @@
       <c r="F57">
         <v>5.4797850930000003</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="16">
         <v>6.2202149069999999</v>
       </c>
       <c r="H57">
-        <f>SUM(B57:G57)</f>
+        <f t="shared" si="9"/>
         <v>14076.35</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.07635</v>
       </c>
       <c r="K57" s="1">
-        <f>B57/$H57*100</f>
+        <f t="shared" si="10"/>
         <v>96.758037417370275</v>
       </c>
       <c r="L57" s="1">
-        <f>C57/$H57*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <f>D57/$H57*100</f>
+        <f t="shared" si="12"/>
         <v>0.40173766636947783</v>
       </c>
       <c r="N57" s="1">
-        <f>E57/$H57*100</f>
+        <f t="shared" si="13"/>
         <v>2.7571067783907051</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8929019902176343E-2</v>
       </c>
       <c r="P57" s="1">
-        <f>G57/$H57*100</f>
+        <f t="shared" si="14"/>
         <v>4.4189117967370801E-2</v>
       </c>
     </row>
@@ -19226,7 +19226,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -19243,7 +19243,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
